--- a/Data/ScriptData/Advocate_ArchitectData.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Diagram_Creator\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Diagram_Creator\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CAF818-4E75-4336-A15B-37449CA83118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB0E887-D97A-4FD9-9383-7744BEF4173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27600" yWindow="420" windowWidth="26640" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,18 +1140,9 @@
     <t>Stencil</t>
   </si>
   <si>
-    <t>C:\Omnicell_Diagram_Creator\Stencils\OC_ArchitectStencils.vssx</t>
-  </si>
-  <si>
-    <t>C:\Omnicell_Diagram_Creator\Stencils\Advocate_CustomStencils.vssx</t>
-  </si>
-  <si>
     <t>;0</t>
   </si>
   <si>
-    <t>C:\Omnicell_Diagram_Creator\Templates\OC_ArchitectDiagramTemplate.vstx</t>
-  </si>
-  <si>
     <t>; Visio Sec tion</t>
   </si>
   <si>
@@ -1171,6 +1162,15 @@
   </si>
   <si>
     <t>Blank Document</t>
+  </si>
+  <si>
+    <t>C:\Omnicell_Diagram_Creator\Data\Templates\OC_ArchitectDiagramTemplate.vstx</t>
+  </si>
+  <si>
+    <t>C:\Omnicell_Diagram_Creator\Data\Stencils\OC_ArchitectStencils.vssx</t>
+  </si>
+  <si>
+    <t>C:\Omnicell_Diagram_Creator\Data\Stencils\Advocate_CustomStencils.vssx</t>
   </si>
 </sst>
 </file>
@@ -2312,7 +2312,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,17 +2486,17 @@
     </row>
     <row r="3" spans="1:32" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>291</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -2547,12 +2547,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -2606,11 +2606,11 @@
         <v>292</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="AF5" s="25"/>
     </row>
-    <row r="6" spans="1:32" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
         <v>0</v>
       </c>
@@ -2664,11 +2664,11 @@
         <v>292</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2</v>

--- a/Data/ScriptData/Advocate_ArchitectData.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Diagram_Creator\Data\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB0E887-D97A-4FD9-9383-7744BEF4173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F998E309-A166-4B08-8F31-D47E47D805C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27600" yWindow="420" windowWidth="26640" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="900" windowWidth="27375" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -1164,13 +1164,13 @@
     <t>Blank Document</t>
   </si>
   <si>
-    <t>C:\Omnicell_Diagram_Creator\Data\Templates\OC_ArchitectDiagramTemplate.vstx</t>
-  </si>
-  <si>
-    <t>C:\Omnicell_Diagram_Creator\Data\Stencils\OC_ArchitectStencils.vssx</t>
-  </si>
-  <si>
-    <t>C:\Omnicell_Diagram_Creator\Data\Stencils\Advocate_CustomStencils.vssx</t>
+    <t>C:\Omnicell_Blueprinting_Tool\Data\Templates\OC_BlueprintingTemplate.vstx</t>
+  </si>
+  <si>
+    <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\Advocate_CustomStencils.vssx</t>
+  </si>
+  <si>
+    <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\OC_BlueprintingStencils.vssx</t>
   </si>
 </sst>
 </file>
@@ -2312,7 +2312,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="AF4" s="25"/>
     </row>
-    <row r="5" spans="1:32" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>0</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>292</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
@@ -2664,7 +2664,7 @@
         <v>292</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44" t="s">

--- a/Data/ScriptData/Advocate_ArchitectData.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F998E309-A166-4B08-8F31-D47E47D805C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F81C47-41CC-461B-A266-20FFA3A17028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="900" windowWidth="27375" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18840" yWindow="300" windowWidth="27375" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="305">
   <si>
     <t>Shape</t>
   </si>
@@ -804,52 +804,7 @@
     <t>Connect From</t>
   </si>
   <si>
-    <t>From LineLabel</t>
-  </si>
-  <si>
-    <t>From LinePattern</t>
-  </si>
-  <si>
-    <t>From ArrowType</t>
-  </si>
-  <si>
-    <t>From LineColor</t>
-  </si>
-  <si>
     <t>Connect To</t>
-  </si>
-  <si>
-    <t>To LineLabel</t>
-  </si>
-  <si>
-    <t>To LinePattern</t>
-  </si>
-  <si>
-    <t>To ArrowType</t>
-  </si>
-  <si>
-    <t>To LineColor</t>
-  </si>
-  <si>
-    <t>mach name</t>
-  </si>
-  <si>
-    <t>mach id</t>
-  </si>
-  <si>
-    <t>site id</t>
-  </si>
-  <si>
-    <t>site name</t>
-  </si>
-  <si>
-    <t>site address</t>
-  </si>
-  <si>
-    <t>omnis name</t>
-  </si>
-  <si>
-    <t>omnis id</t>
   </si>
   <si>
     <t>site_id omnis_id</t>
@@ -1171,6 +1126,54 @@
   </si>
   <si>
     <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\OC_BlueprintingStencils.vssx</t>
+  </si>
+  <si>
+    <t>Shape Label Font Size</t>
+  </si>
+  <si>
+    <t>From Line Label</t>
+  </si>
+  <si>
+    <t>From Line Pattern</t>
+  </si>
+  <si>
+    <t>From Arrow Type</t>
+  </si>
+  <si>
+    <t>From Line Color</t>
+  </si>
+  <si>
+    <t>To Line Label</t>
+  </si>
+  <si>
+    <t>To Line Pattern</t>
+  </si>
+  <si>
+    <t>To Arrow Type</t>
+  </si>
+  <si>
+    <t>To Line Color</t>
+  </si>
+  <si>
+    <t>mach_name</t>
+  </si>
+  <si>
+    <t>mach_id</t>
+  </si>
+  <si>
+    <t>site_id</t>
+  </si>
+  <si>
+    <t>site_name</t>
+  </si>
+  <si>
+    <t>site_address</t>
+  </si>
+  <si>
+    <t>omnis_name</t>
+  </si>
+  <si>
+    <t>omnis_id</t>
   </si>
 </sst>
 </file>
@@ -2312,7 +2315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,16 +2326,16 @@
     <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" customWidth="1"/>
     <col min="18" max="19" width="9.140625" style="4"/>
     <col min="20" max="20" width="12.140625" style="4" customWidth="1"/>
     <col min="21" max="21" width="8.7109375" style="4" customWidth="1"/>
@@ -2352,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>181</v>
@@ -2367,31 +2370,31 @@
         <v>184</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>17</v>
@@ -2421,36 +2424,36 @@
         <v>188</v>
       </c>
       <c r="X1" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y1" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA1" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="Y1" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z1" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA1" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="AC1" s="36" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="AD1" s="36" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="AE1" s="36" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="AF1" s="36" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2486,17 +2489,17 @@
     </row>
     <row r="3" spans="1:32" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -2547,12 +2550,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -2603,14 +2606,14 @@
         <v>0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -2661,14 +2664,14 @@
         <v>0</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -2716,7 +2719,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2816,22 +2819,22 @@
         <v>0</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
@@ -2886,7 +2889,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F10" s="23">
         <v>9</v>
@@ -3067,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="26" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="W13" s="23"/>
       <c r="X13" s="25"/>
@@ -3133,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="26" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="W14" s="23"/>
       <c r="X14" s="25"/>
@@ -3199,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="26" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="W15" s="23" t="s">
         <v>58</v>
@@ -3271,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="26" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="W16" s="23"/>
       <c r="X16" s="25"/>
@@ -3337,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="26" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="W17" s="25" t="s">
         <v>58</v>
@@ -3377,7 +3380,7 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -3790,7 +3793,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -3845,7 +3848,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -3892,7 +3895,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -4184,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>177</v>
@@ -4288,7 +4291,7 @@
         <v>89</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>177</v>
@@ -4418,7 +4421,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
@@ -4482,7 +4485,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
@@ -4708,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>177</v>
@@ -4776,7 +4779,7 @@
         <v>50</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
@@ -4844,7 +4847,7 @@
         <v>50</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
@@ -5074,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
@@ -5134,7 +5137,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F48" s="34">
         <v>10</v>
@@ -5292,7 +5295,7 @@
         <v>40</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
@@ -6132,7 +6135,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
@@ -6196,7 +6199,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -6254,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
@@ -7726,7 +7729,7 @@
         <v>7</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
@@ -7790,7 +7793,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
@@ -7848,13 +7851,13 @@
         <v>0</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
@@ -8478,7 +8481,7 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -8520,13 +8523,13 @@
         <v>0</v>
       </c>
       <c r="C106" s="44" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D106" s="44" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F106" s="45">
         <v>8</v>
@@ -8582,13 +8585,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D107" s="44" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F107" s="45">
         <v>8</v>
@@ -8644,13 +8647,13 @@
         <v>0</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D108" s="44" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E108" s="45" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F108" s="45">
         <v>8</v>
@@ -8706,13 +8709,13 @@
         <v>0</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F109" s="34">
         <v>8</v>
@@ -8766,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F110" s="34">
         <v>8</v>
@@ -8826,13 +8829,13 @@
         <v>0</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F111" s="34">
         <v>8</v>
@@ -8886,13 +8889,13 @@
         <v>0</v>
       </c>
       <c r="C112" s="44" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D112" s="44" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E112" s="45" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F112" s="45">
         <v>8</v>
@@ -8921,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="V112" s="47" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="W112" s="44"/>
       <c r="X112" s="43"/>
@@ -8948,13 +8951,13 @@
         <v>0</v>
       </c>
       <c r="C113" s="44" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D113" s="44" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E113" s="45" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F113" s="45">
         <v>8</v>
@@ -8983,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="V113" s="47" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="W113" s="44"/>
       <c r="X113" s="43"/>
@@ -9010,10 +9013,10 @@
         <v>0</v>
       </c>
       <c r="C114" s="44" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D114" s="44" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E114" s="45" t="s">
         <v>48</v>
@@ -9045,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="V114" s="47" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="W114" s="44"/>
       <c r="X114" s="43"/>
@@ -9120,7 +9123,7 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -9146,13 +9149,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="F4" s="53" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
@@ -9167,49 +9170,49 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="O5" s="42" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="42" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -9278,7 +9281,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="F9" s="54" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
@@ -9296,7 +9299,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10" s="60" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="55"/>
@@ -9305,7 +9308,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
       <c r="M10" s="58" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="N10" s="58"/>
       <c r="O10" s="59"/>
@@ -9315,7 +9318,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F11" s="57" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
@@ -9363,69 +9366,69 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -9456,7 +9459,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="15" t="s">
@@ -9489,7 +9492,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9505,13 +9508,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9527,12 +9530,12 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -9540,7 +9543,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>177</v>
@@ -9559,7 +9562,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9572,7 +9575,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9582,7 +9585,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="38" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ScriptData/Advocate_ArchitectData.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D9E2D9-3881-4155-A089-411EC8F5D033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CB03B4-57D1-4555-B967-17AD8A51FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28125" yWindow="0" windowWidth="27375" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27375" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <author>Doug Vidakovich</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{CD05495E-E614-47A1-9C25-12C6287B1813}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{77C6CD6B-D70E-4A3B-92C8-21036EFEE591}">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="309">
   <si>
     <t>Shape</t>
   </si>
@@ -804,7 +804,52 @@
     <t>Connect From</t>
   </si>
   <si>
+    <t>From LineLabel</t>
+  </si>
+  <si>
+    <t>From LinePattern</t>
+  </si>
+  <si>
+    <t>From ArrowType</t>
+  </si>
+  <si>
+    <t>From LineColor</t>
+  </si>
+  <si>
     <t>Connect To</t>
+  </si>
+  <si>
+    <t>To LineLabel</t>
+  </si>
+  <si>
+    <t>To LinePattern</t>
+  </si>
+  <si>
+    <t>To ArrowType</t>
+  </si>
+  <si>
+    <t>To LineColor</t>
+  </si>
+  <si>
+    <t>mach name</t>
+  </si>
+  <si>
+    <t>mach id</t>
+  </si>
+  <si>
+    <t>site id</t>
+  </si>
+  <si>
+    <t>site name</t>
+  </si>
+  <si>
+    <t>site address</t>
+  </si>
+  <si>
+    <t>omnis name</t>
+  </si>
+  <si>
+    <t>omnis id</t>
   </si>
   <si>
     <t>site_id omnis_id</t>
@@ -1122,58 +1167,10 @@
     <t>C:\Omnicell_Blueprinting_Tool\Data\Templates\OC_BlueprintingTemplate.vstx</t>
   </si>
   <si>
+    <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\OC_BlueprintingStencils.vssx</t>
+  </si>
+  <si>
     <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\Advocate_CustomStencils.vssx</t>
-  </si>
-  <si>
-    <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\OC_BlueprintingStencils.vssx</t>
-  </si>
-  <si>
-    <t>Shape Label Font Size</t>
-  </si>
-  <si>
-    <t>From Line Label</t>
-  </si>
-  <si>
-    <t>From Line Pattern</t>
-  </si>
-  <si>
-    <t>From Arrow Type</t>
-  </si>
-  <si>
-    <t>From Line Color</t>
-  </si>
-  <si>
-    <t>To Line Label</t>
-  </si>
-  <si>
-    <t>To Line Pattern</t>
-  </si>
-  <si>
-    <t>To Arrow Type</t>
-  </si>
-  <si>
-    <t>To Line Color</t>
-  </si>
-  <si>
-    <t>mach_name</t>
-  </si>
-  <si>
-    <t>mach_id</t>
-  </si>
-  <si>
-    <t>site_id</t>
-  </si>
-  <si>
-    <t>site_name</t>
-  </si>
-  <si>
-    <t>site_address</t>
-  </si>
-  <si>
-    <t>omnis_name</t>
-  </si>
-  <si>
-    <t>omnis_id</t>
   </si>
   <si>
     <t>Line Pattern</t>
@@ -1582,7 +1579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1713,6 +1710,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1803,7 +1809,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1929,33 +1935,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2314,9 +2319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y46" sqref="Y46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y92" sqref="Y92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,8 +2338,8 @@
     <col min="11" max="11" width="7.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="3" customWidth="1"/>
     <col min="16" max="16" width="7.28515625" style="3" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="1" customWidth="1"/>
     <col min="18" max="19" width="9.140625" style="4"/>
@@ -2356,7 +2361,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>181</v>
@@ -2371,31 +2376,31 @@
         <v>184</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>17</v>
@@ -2425,36 +2430,36 @@
         <v>188</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>291</v>
+        <v>190</v>
       </c>
       <c r="Z1" s="33" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="AA1" s="33" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="AD1" s="34" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="AE1" s="34" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="AF1" s="34" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2490,17 +2495,17 @@
     </row>
     <row r="3" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -2529,21 +2534,13 @@
       <c r="V3" s="24"/>
       <c r="W3" s="21"/>
       <c r="X3" s="23"/>
-      <c r="Y3" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
       <c r="AA3" s="23"/>
       <c r="AB3" s="23"/>
       <c r="AC3" s="23"/>
-      <c r="AD3" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
       <c r="AF3" s="23"/>
     </row>
     <row r="4" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2551,12 +2548,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -2585,21 +2582,13 @@
       <c r="V4" s="24"/>
       <c r="W4" s="21"/>
       <c r="X4" s="23"/>
-      <c r="Y4" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
       <c r="AA4" s="23"/>
       <c r="AB4" s="23"/>
       <c r="AC4" s="23"/>
-      <c r="AD4" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
       <c r="AF4" s="23"/>
     </row>
     <row r="5" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2607,14 +2596,14 @@
         <v>0</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -2643,21 +2632,13 @@
       <c r="V5" s="24"/>
       <c r="W5" s="21"/>
       <c r="X5" s="23"/>
-      <c r="Y5" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
       <c r="AA5" s="23"/>
       <c r="AB5" s="23"/>
       <c r="AC5" s="23"/>
-      <c r="AD5" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE5" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
       <c r="AF5" s="23"/>
     </row>
     <row r="6" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2665,14 +2646,14 @@
         <v>0</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2701,26 +2682,18 @@
       <c r="V6" s="24"/>
       <c r="W6" s="21"/>
       <c r="X6" s="23"/>
-      <c r="Y6" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
       <c r="AA6" s="23"/>
       <c r="AB6" s="23"/>
       <c r="AC6" s="23"/>
-      <c r="AD6" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
       <c r="AF6" s="23"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2795,21 +2768,13 @@
       <c r="V8" s="24"/>
       <c r="W8" s="21"/>
       <c r="X8" s="23"/>
-      <c r="Y8" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="23"/>
       <c r="AB8" s="23"/>
       <c r="AC8" s="23"/>
-      <c r="AD8" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
       <c r="AF8" s="23"/>
     </row>
     <row r="9" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -2820,22 +2785,22 @@
         <v>0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -2859,21 +2824,13 @@
       <c r="V9" s="24"/>
       <c r="W9" s="21"/>
       <c r="X9" s="23"/>
-      <c r="Y9" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z9" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
       <c r="AA9" s="23"/>
       <c r="AB9" s="23"/>
       <c r="AC9" s="23"/>
-      <c r="AD9" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
       <c r="AF9" s="23"/>
     </row>
     <row r="10" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2890,7 +2847,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F10" s="21">
         <v>9</v>
@@ -2921,21 +2878,13 @@
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
       <c r="X10" s="23"/>
-      <c r="Y10" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z10" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
       <c r="AA10" s="23"/>
       <c r="AB10" s="23"/>
       <c r="AC10" s="23"/>
-      <c r="AD10" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE10" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
       <c r="AF10" s="23"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -3017,18 +2966,12 @@
       <c r="V12" s="24"/>
       <c r="W12" s="21"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z12" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
       <c r="AA12" s="23"/>
       <c r="AB12" s="21"/>
       <c r="AC12" s="23"/>
-      <c r="AD12" s="19" t="s">
-        <v>306</v>
-      </c>
+      <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="23"/>
     </row>
@@ -3073,23 +3016,19 @@
         <v>0</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="W13" s="21"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z13" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
       <c r="AA13" s="23"/>
       <c r="AB13" s="21" t="s">
         <v>99</v>
       </c>
       <c r="AC13" s="23"/>
       <c r="AD13" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE13" s="19" t="s">
         <v>27</v>
@@ -3139,23 +3078,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="24" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="23"/>
-      <c r="Y14" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z14" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
       <c r="AA14" s="23"/>
       <c r="AB14" s="21" t="s">
         <v>61</v>
       </c>
       <c r="AC14" s="23"/>
       <c r="AD14" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE14" s="19" t="s">
         <v>27</v>
@@ -3205,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="24" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="W15" s="21" t="s">
         <v>58</v>
@@ -3213,8 +3148,8 @@
       <c r="X15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="23" t="s">
-        <v>307</v>
+      <c r="Y15" s="19" t="s">
+        <v>305</v>
       </c>
       <c r="Z15" s="23" t="s">
         <v>30</v>
@@ -3227,7 +3162,7 @@
       </c>
       <c r="AC15" s="23"/>
       <c r="AD15" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE15" s="19" t="s">
         <v>27</v>
@@ -3277,23 +3212,19 @@
         <v>0</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="W16" s="21"/>
       <c r="X16" s="23"/>
-      <c r="Y16" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z16" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
       <c r="AA16" s="23"/>
       <c r="AB16" s="21" t="s">
         <v>61</v>
       </c>
       <c r="AC16" s="23"/>
       <c r="AD16" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE16" s="19" t="s">
         <v>27</v>
@@ -3343,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="24" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="W17" s="23" t="s">
         <v>58</v>
@@ -3352,7 +3283,7 @@
         <v>55</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z17" s="23" t="s">
         <v>29</v>
@@ -3367,7 +3298,7 @@
         <v>56</v>
       </c>
       <c r="AD17" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE17" s="23" t="s">
         <v>30</v>
@@ -3383,7 +3314,7 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -3455,21 +3386,13 @@
       <c r="V19" s="20"/>
       <c r="W19" s="17"/>
       <c r="X19" s="19"/>
-      <c r="Y19" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z19" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
-      <c r="AD19" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE19" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
     </row>
     <row r="20" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -3517,21 +3440,13 @@
       </c>
       <c r="W20" s="17"/>
       <c r="X20" s="19"/>
-      <c r="Y20" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z20" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
-      <c r="AD20" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE20" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
     </row>
     <row r="21" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -3579,21 +3494,13 @@
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="19"/>
-      <c r="Y21" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z21" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
-      <c r="AD21" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE21" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
     </row>
     <row r="22" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3641,21 +3548,13 @@
       </c>
       <c r="W22" s="17"/>
       <c r="X22" s="19"/>
-      <c r="Y22" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z22" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="19"/>
-      <c r="AD22" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE22" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
     </row>
     <row r="23" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3703,21 +3602,13 @@
       </c>
       <c r="W23" s="17"/>
       <c r="X23" s="19"/>
-      <c r="Y23" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z23" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
       <c r="AC23" s="19"/>
-      <c r="AD23" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE23" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
     </row>
     <row r="24" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3765,21 +3656,13 @@
       </c>
       <c r="W24" s="17"/>
       <c r="X24" s="19"/>
-      <c r="Y24" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z24" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="19"/>
       <c r="AC24" s="19"/>
-      <c r="AD24" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE24" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
     </row>
     <row r="25" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3796,7 +3679,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -3827,21 +3710,13 @@
       </c>
       <c r="W25" s="17"/>
       <c r="X25" s="19"/>
-      <c r="Y25" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z25" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
       <c r="AA25" s="19"/>
       <c r="AB25" s="19"/>
       <c r="AC25" s="19"/>
-      <c r="AD25" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE25" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
       <c r="AF25" s="19"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -3851,7 +3726,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -3874,9 +3749,7 @@
       <c r="W26" s="10"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
-      <c r="Z26" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
@@ -3898,7 +3771,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -3927,21 +3800,13 @@
       <c r="V27" s="24"/>
       <c r="W27" s="21"/>
       <c r="X27" s="23"/>
-      <c r="Y27" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z27" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
       <c r="AA27" s="23"/>
       <c r="AB27" s="23"/>
       <c r="AC27" s="23"/>
-      <c r="AD27" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE27" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
       <c r="AF27" s="23"/>
     </row>
     <row r="28" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3985,21 +3850,13 @@
       <c r="V28" s="24"/>
       <c r="W28" s="21"/>
       <c r="X28" s="23"/>
-      <c r="Y28" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z28" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
       <c r="AA28" s="23"/>
       <c r="AB28" s="23"/>
       <c r="AC28" s="23"/>
-      <c r="AD28" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE28" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="23"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -4030,9 +3887,7 @@
       <c r="W29" s="10"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
@@ -4090,7 +3945,7 @@
       </c>
       <c r="X30" s="23"/>
       <c r="Y30" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z30" s="23" t="s">
         <v>27</v>
@@ -4105,7 +3960,7 @@
         <v>53</v>
       </c>
       <c r="AD30" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE30" s="23" t="s">
         <v>30</v>
@@ -4164,7 +4019,7 @@
       </c>
       <c r="X31" s="23"/>
       <c r="Y31" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z31" s="23" t="s">
         <v>27</v>
@@ -4174,12 +4029,8 @@
       </c>
       <c r="AB31" s="23"/>
       <c r="AC31" s="23"/>
-      <c r="AD31" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE31" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
       <c r="AF31" s="23"/>
     </row>
     <row r="32" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4190,13 +4041,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>177</v>
@@ -4227,21 +4078,13 @@
       <c r="V32" s="24"/>
       <c r="W32" s="21"/>
       <c r="X32" s="23"/>
-      <c r="Y32" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z32" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
       <c r="AA32" s="23"/>
       <c r="AB32" s="23"/>
       <c r="AC32" s="23"/>
-      <c r="AD32" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE32" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
       <c r="AF32" s="23"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4294,7 +4137,7 @@
         <v>89</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>177</v>
@@ -4325,21 +4168,13 @@
       <c r="V34" s="24"/>
       <c r="W34" s="21"/>
       <c r="X34" s="23"/>
-      <c r="Y34" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z34" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
       <c r="AA34" s="23"/>
       <c r="AB34" s="23"/>
       <c r="AC34" s="23"/>
-      <c r="AD34" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE34" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
       <c r="AF34" s="23"/>
     </row>
     <row r="35" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -4392,7 +4227,7 @@
       </c>
       <c r="X35" s="23"/>
       <c r="Y35" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z35" s="23" t="s">
         <v>27</v>
@@ -4402,12 +4237,8 @@
       </c>
       <c r="AB35" s="23"/>
       <c r="AC35" s="23"/>
-      <c r="AD35" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE35" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
       <c r="AF35" s="23"/>
     </row>
     <row r="36" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4424,7 +4255,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -4453,19 +4284,15 @@
       <c r="V36" s="24"/>
       <c r="W36" s="21"/>
       <c r="X36" s="23"/>
-      <c r="Y36" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z36" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
       <c r="AA36" s="23"/>
       <c r="AB36" s="21" t="s">
         <v>81</v>
       </c>
       <c r="AC36" s="23"/>
       <c r="AD36" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE36" s="23" t="s">
         <v>27</v>
@@ -4488,7 +4315,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -4517,19 +4344,15 @@
       <c r="V37" s="24"/>
       <c r="W37" s="21"/>
       <c r="X37" s="23"/>
-      <c r="Y37" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z37" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
       <c r="AA37" s="23"/>
       <c r="AB37" s="21" t="s">
         <v>81</v>
       </c>
       <c r="AC37" s="23"/>
       <c r="AD37" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE37" s="23" t="s">
         <v>27</v>
@@ -4588,7 +4411,7 @@
       </c>
       <c r="X38" s="23"/>
       <c r="Y38" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z38" s="23" t="s">
         <v>27</v>
@@ -4601,7 +4424,7 @@
       </c>
       <c r="AC38" s="23"/>
       <c r="AD38" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE38" s="23" t="s">
         <v>27</v>
@@ -4651,19 +4474,15 @@
       <c r="V39" s="24"/>
       <c r="W39" s="21"/>
       <c r="X39" s="23"/>
-      <c r="Y39" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z39" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
       <c r="AA39" s="23"/>
       <c r="AB39" s="23" t="s">
         <v>84</v>
       </c>
       <c r="AC39" s="23"/>
       <c r="AD39" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE39" s="23" t="s">
         <v>27</v>
@@ -4716,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>89</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>177</v>
@@ -4753,21 +4572,13 @@
       <c r="V41" s="24"/>
       <c r="W41" s="21"/>
       <c r="X41" s="23"/>
-      <c r="Y41" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z41" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
       <c r="AA41" s="23"/>
       <c r="AB41" s="23"/>
       <c r="AC41" s="23"/>
-      <c r="AD41" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE41" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
       <c r="AF41" s="23"/>
     </row>
     <row r="42" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -4784,7 +4595,7 @@
         <v>50</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -4820,7 +4631,7 @@
       </c>
       <c r="X42" s="23"/>
       <c r="Y42" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z42" s="23" t="s">
         <v>27</v>
@@ -4830,12 +4641,8 @@
       </c>
       <c r="AB42" s="23"/>
       <c r="AC42" s="23"/>
-      <c r="AD42" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE42" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
       <c r="AF42" s="23"/>
     </row>
     <row r="43" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -4852,7 +4659,7 @@
         <v>50</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -4888,7 +4695,7 @@
       </c>
       <c r="X43" s="23"/>
       <c r="Y43" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z43" s="23" t="s">
         <v>27</v>
@@ -4901,7 +4708,7 @@
       </c>
       <c r="AC43" s="23"/>
       <c r="AD43" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE43" s="23" t="s">
         <v>27</v>
@@ -4953,19 +4760,15 @@
       <c r="V44" s="24"/>
       <c r="W44" s="21"/>
       <c r="X44" s="23"/>
-      <c r="Y44" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z44" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
       <c r="AA44" s="23"/>
       <c r="AB44" s="23" t="s">
         <v>86</v>
       </c>
       <c r="AC44" s="23"/>
       <c r="AD44" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE44" s="23" t="s">
         <v>27</v>
@@ -5051,21 +4854,13 @@
       <c r="V46" s="24"/>
       <c r="W46" s="21"/>
       <c r="X46" s="23"/>
-      <c r="Y46" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z46" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
       <c r="AA46" s="23"/>
       <c r="AB46" s="23"/>
       <c r="AC46" s="23"/>
-      <c r="AD46" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE46" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
       <c r="AF46" s="23"/>
     </row>
     <row r="47" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -5082,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -5111,21 +4906,13 @@
       <c r="V47" s="24"/>
       <c r="W47" s="21"/>
       <c r="X47" s="23"/>
-      <c r="Y47" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z47" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
       <c r="AA47" s="23"/>
       <c r="AB47" s="23"/>
       <c r="AC47" s="23"/>
-      <c r="AD47" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE47" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
       <c r="AF47" s="23"/>
     </row>
     <row r="48" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5142,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F48" s="32">
         <v>10</v>
@@ -5173,21 +4960,13 @@
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
       <c r="X48" s="23"/>
-      <c r="Y48" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z48" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
       <c r="AA48" s="23"/>
       <c r="AB48" s="23"/>
       <c r="AC48" s="23"/>
-      <c r="AD48" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE48" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
       <c r="AF48" s="23"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
@@ -5269,21 +5048,13 @@
       <c r="V50" s="24"/>
       <c r="W50" s="21"/>
       <c r="X50" s="23"/>
-      <c r="Y50" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z50" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
       <c r="AA50" s="23"/>
       <c r="AB50" s="23"/>
       <c r="AC50" s="23"/>
-      <c r="AD50" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE50" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
       <c r="AF50" s="23"/>
     </row>
     <row r="51" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -5300,7 +5071,7 @@
         <v>40</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -5329,21 +5100,13 @@
       <c r="V51" s="24"/>
       <c r="W51" s="21"/>
       <c r="X51" s="23"/>
-      <c r="Y51" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z51" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
       <c r="AA51" s="23"/>
       <c r="AB51" s="23"/>
       <c r="AC51" s="23"/>
-      <c r="AD51" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE51" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
       <c r="AF51" s="23"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
@@ -5425,19 +5188,15 @@
       <c r="V53" s="20"/>
       <c r="W53" s="17"/>
       <c r="X53" s="19"/>
-      <c r="Y53" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z53" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="23"/>
       <c r="AB53" s="17" t="s">
         <v>76</v>
       </c>
       <c r="AC53" s="19"/>
       <c r="AD53" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE53" s="19" t="s">
         <v>28</v>
@@ -5487,19 +5246,15 @@
       <c r="V54" s="20"/>
       <c r="W54" s="17"/>
       <c r="X54" s="19"/>
-      <c r="Y54" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z54" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="23"/>
       <c r="AB54" s="17" t="s">
         <v>105</v>
       </c>
       <c r="AC54" s="19"/>
       <c r="AD54" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE54" s="19" t="s">
         <v>28</v>
@@ -5549,19 +5304,15 @@
       <c r="V55" s="30"/>
       <c r="W55" s="28"/>
       <c r="X55" s="27"/>
-      <c r="Y55" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z55" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
       <c r="AB55" s="28" t="s">
         <v>78</v>
       </c>
       <c r="AC55" s="27"/>
-      <c r="AD55" s="60" t="s">
-        <v>306</v>
+      <c r="AD55" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE55" s="27" t="s">
         <v>28</v>
@@ -5611,19 +5362,15 @@
       <c r="V56" s="30"/>
       <c r="W56" s="28"/>
       <c r="X56" s="27"/>
-      <c r="Y56" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z56" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
       <c r="AB56" s="28" t="s">
         <v>105</v>
       </c>
       <c r="AC56" s="27"/>
-      <c r="AD56" s="60" t="s">
-        <v>306</v>
+      <c r="AD56" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE56" s="27" t="s">
         <v>28</v>
@@ -5673,19 +5420,15 @@
       <c r="V57" s="20"/>
       <c r="W57" s="17"/>
       <c r="X57" s="19"/>
-      <c r="Y57" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z57" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="23"/>
       <c r="AB57" s="17" t="s">
         <v>74</v>
       </c>
       <c r="AC57" s="19"/>
       <c r="AD57" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE57" s="19" t="s">
         <v>28</v>
@@ -5735,19 +5478,15 @@
       <c r="V58" s="20"/>
       <c r="W58" s="17"/>
       <c r="X58" s="19"/>
-      <c r="Y58" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z58" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="23"/>
       <c r="AB58" s="17" t="s">
         <v>105</v>
       </c>
       <c r="AC58" s="19"/>
       <c r="AD58" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE58" s="19" t="s">
         <v>28</v>
@@ -5797,19 +5536,15 @@
       <c r="V59" s="30"/>
       <c r="W59" s="28"/>
       <c r="X59" s="27"/>
-      <c r="Y59" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z59" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
       <c r="AA59" s="27"/>
       <c r="AB59" s="28" t="s">
         <v>110</v>
       </c>
       <c r="AC59" s="27"/>
-      <c r="AD59" s="60" t="s">
-        <v>306</v>
+      <c r="AD59" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE59" s="27" t="s">
         <v>28</v>
@@ -5859,19 +5594,15 @@
       <c r="V60" s="30"/>
       <c r="W60" s="28"/>
       <c r="X60" s="27"/>
-      <c r="Y60" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z60" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
       <c r="AB60" s="28" t="s">
         <v>105</v>
       </c>
       <c r="AC60" s="27"/>
-      <c r="AD60" s="60" t="s">
-        <v>306</v>
+      <c r="AD60" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE60" s="27" t="s">
         <v>28</v>
@@ -5921,19 +5652,15 @@
       <c r="V61" s="20"/>
       <c r="W61" s="17"/>
       <c r="X61" s="19"/>
-      <c r="Y61" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z61" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="23"/>
       <c r="AB61" s="17" t="s">
         <v>111</v>
       </c>
       <c r="AC61" s="19"/>
       <c r="AD61" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE61" s="19" t="s">
         <v>28</v>
@@ -5983,19 +5710,15 @@
       <c r="V62" s="20"/>
       <c r="W62" s="17"/>
       <c r="X62" s="19"/>
-      <c r="Y62" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z62" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="23"/>
       <c r="AB62" s="17" t="s">
         <v>105</v>
       </c>
       <c r="AC62" s="19"/>
       <c r="AD62" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE62" s="19" t="s">
         <v>28</v>
@@ -6045,19 +5768,15 @@
       <c r="V63" s="30"/>
       <c r="W63" s="28"/>
       <c r="X63" s="27"/>
-      <c r="Y63" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z63" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
       <c r="AB63" s="28" t="s">
         <v>108</v>
       </c>
       <c r="AC63" s="27"/>
-      <c r="AD63" s="60" t="s">
-        <v>306</v>
+      <c r="AD63" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE63" s="27" t="s">
         <v>28</v>
@@ -6107,19 +5826,15 @@
       <c r="V64" s="30"/>
       <c r="W64" s="28"/>
       <c r="X64" s="27"/>
-      <c r="Y64" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z64" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
       <c r="AB64" s="28" t="s">
         <v>105</v>
       </c>
       <c r="AC64" s="27"/>
-      <c r="AD64" s="60" t="s">
-        <v>306</v>
+      <c r="AD64" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE64" s="27" t="s">
         <v>28</v>
@@ -6140,7 +5855,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
@@ -6169,19 +5884,15 @@
       <c r="V65" s="20"/>
       <c r="W65" s="17"/>
       <c r="X65" s="19"/>
-      <c r="Y65" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z65" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA65" s="19"/>
+      <c r="Y65" s="19"/>
+      <c r="Z65" s="19"/>
+      <c r="AA65" s="23"/>
       <c r="AB65" s="17" t="s">
         <v>109</v>
       </c>
       <c r="AC65" s="19"/>
       <c r="AD65" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE65" s="19" t="s">
         <v>28</v>
@@ -6204,7 +5915,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
@@ -6233,19 +5944,15 @@
       <c r="V66" s="20"/>
       <c r="W66" s="17"/>
       <c r="X66" s="19"/>
-      <c r="Y66" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z66" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="23"/>
       <c r="AB66" s="17" t="s">
         <v>105</v>
       </c>
       <c r="AC66" s="19"/>
       <c r="AD66" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE66" s="19" t="s">
         <v>28</v>
@@ -6262,13 +5969,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>89</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -6299,21 +6006,13 @@
       </c>
       <c r="W67" s="21"/>
       <c r="X67" s="23"/>
-      <c r="Y67" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z67" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
       <c r="AA67" s="23"/>
       <c r="AB67" s="23"/>
       <c r="AC67" s="23"/>
-      <c r="AD67" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE67" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="23"/>
       <c r="AF67" s="23"/>
     </row>
     <row r="68" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -6359,19 +6058,15 @@
       <c r="V68" s="30"/>
       <c r="W68" s="28"/>
       <c r="X68" s="27"/>
-      <c r="Y68" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z68" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
       <c r="AA68" s="27"/>
       <c r="AB68" s="28" t="s">
         <v>112</v>
       </c>
       <c r="AC68" s="27"/>
-      <c r="AD68" s="60" t="s">
-        <v>306</v>
+      <c r="AD68" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE68" s="27" t="s">
         <v>28</v>
@@ -6421,19 +6116,15 @@
       <c r="V69" s="30"/>
       <c r="W69" s="28"/>
       <c r="X69" s="27"/>
-      <c r="Y69" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z69" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
       <c r="AA69" s="27"/>
       <c r="AB69" s="28" t="s">
         <v>105</v>
       </c>
       <c r="AC69" s="27"/>
-      <c r="AD69" s="60" t="s">
-        <v>306</v>
+      <c r="AD69" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE69" s="27" t="s">
         <v>28</v>
@@ -6483,19 +6174,15 @@
       <c r="V70" s="20"/>
       <c r="W70" s="17"/>
       <c r="X70" s="19"/>
-      <c r="Y70" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z70" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA70" s="19"/>
+      <c r="Y70" s="19"/>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="23"/>
       <c r="AB70" s="17" t="s">
         <v>113</v>
       </c>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE70" s="19" t="s">
         <v>28</v>
@@ -6545,19 +6232,15 @@
       <c r="V71" s="20"/>
       <c r="W71" s="17"/>
       <c r="X71" s="19"/>
-      <c r="Y71" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z71" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+      <c r="AA71" s="23"/>
       <c r="AB71" s="17" t="s">
         <v>105</v>
       </c>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE71" s="19" t="s">
         <v>28</v>
@@ -6607,19 +6290,15 @@
       <c r="V72" s="30"/>
       <c r="W72" s="28"/>
       <c r="X72" s="27"/>
-      <c r="Y72" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z72" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
       <c r="AB72" s="27" t="s">
         <v>135</v>
       </c>
       <c r="AC72" s="27"/>
-      <c r="AD72" s="60" t="s">
-        <v>306</v>
+      <c r="AD72" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE72" s="27" t="s">
         <v>27</v>
@@ -6654,9 +6333,7 @@
       <c r="W73" s="10"/>
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
-      <c r="Z73" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
       <c r="AB73" s="12"/>
       <c r="AC73" s="12"/>
@@ -6707,19 +6384,15 @@
       <c r="V74" s="20"/>
       <c r="W74" s="17"/>
       <c r="X74" s="19"/>
-      <c r="Y74" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z74" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA74" s="19"/>
+      <c r="Y74" s="19"/>
+      <c r="Z74" s="19"/>
+      <c r="AA74" s="23"/>
       <c r="AB74" s="17" t="s">
         <v>105</v>
       </c>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE74" s="19" t="s">
         <v>28</v>
@@ -6769,19 +6442,15 @@
       <c r="V75" s="20"/>
       <c r="W75" s="17"/>
       <c r="X75" s="19"/>
-      <c r="Y75" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z75" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA75" s="19"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="23"/>
       <c r="AB75" s="17" t="s">
         <v>163</v>
       </c>
       <c r="AC75" s="19"/>
       <c r="AD75" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE75" s="19" t="s">
         <v>28</v>
@@ -6867,21 +6536,13 @@
       <c r="V77" s="24"/>
       <c r="W77" s="21"/>
       <c r="X77" s="23"/>
-      <c r="Y77" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z77" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
       <c r="AA77" s="23"/>
       <c r="AB77" s="23"/>
       <c r="AC77" s="23"/>
-      <c r="AD77" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE77" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="19"/>
       <c r="AF77" s="23"/>
     </row>
     <row r="78" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -6925,21 +6586,13 @@
       <c r="V78" s="24"/>
       <c r="W78" s="21"/>
       <c r="X78" s="23"/>
-      <c r="Y78" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z78" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y78" s="19"/>
+      <c r="Z78" s="19"/>
       <c r="AA78" s="23"/>
       <c r="AB78" s="23"/>
       <c r="AC78" s="23"/>
-      <c r="AD78" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE78" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD78" s="19"/>
+      <c r="AE78" s="19"/>
       <c r="AF78" s="23"/>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
@@ -7021,19 +6674,15 @@
       <c r="V80" s="20"/>
       <c r="W80" s="17"/>
       <c r="X80" s="19"/>
-      <c r="Y80" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z80" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA80" s="19"/>
+      <c r="Y80" s="19"/>
+      <c r="Z80" s="19"/>
+      <c r="AA80" s="23"/>
       <c r="AB80" s="17" t="s">
         <v>138</v>
       </c>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE80" s="19" t="s">
         <v>28</v>
@@ -7083,19 +6732,15 @@
       <c r="V81" s="20"/>
       <c r="W81" s="17"/>
       <c r="X81" s="19"/>
-      <c r="Y81" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z81" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA81" s="19"/>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="23"/>
       <c r="AB81" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AC81" s="19"/>
       <c r="AD81" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE81" s="19" t="s">
         <v>28</v>
@@ -7145,19 +6790,15 @@
       <c r="V82" s="30"/>
       <c r="W82" s="28"/>
       <c r="X82" s="27"/>
-      <c r="Y82" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z82" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
       <c r="AA82" s="27"/>
       <c r="AB82" s="28" t="s">
         <v>140</v>
       </c>
       <c r="AC82" s="27"/>
-      <c r="AD82" s="60" t="s">
-        <v>306</v>
+      <c r="AD82" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE82" s="27" t="s">
         <v>28</v>
@@ -7207,19 +6848,15 @@
       <c r="V83" s="30"/>
       <c r="W83" s="28"/>
       <c r="X83" s="27"/>
-      <c r="Y83" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z83" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
       <c r="AA83" s="27"/>
       <c r="AB83" s="28" t="s">
         <v>156</v>
       </c>
       <c r="AC83" s="27"/>
-      <c r="AD83" s="60" t="s">
-        <v>306</v>
+      <c r="AD83" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE83" s="27" t="s">
         <v>28</v>
@@ -7269,19 +6906,15 @@
       <c r="V84" s="20"/>
       <c r="W84" s="17"/>
       <c r="X84" s="19"/>
-      <c r="Y84" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z84" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA84" s="19"/>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="19"/>
+      <c r="AA84" s="23"/>
       <c r="AB84" s="17" t="s">
         <v>142</v>
       </c>
       <c r="AC84" s="19"/>
       <c r="AD84" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE84" s="19" t="s">
         <v>28</v>
@@ -7331,19 +6964,15 @@
       <c r="V85" s="20"/>
       <c r="W85" s="17"/>
       <c r="X85" s="19"/>
-      <c r="Y85" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z85" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA85" s="19"/>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="23"/>
       <c r="AB85" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AC85" s="19"/>
       <c r="AD85" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE85" s="19" t="s">
         <v>28</v>
@@ -7393,19 +7022,15 @@
       <c r="V86" s="30"/>
       <c r="W86" s="28"/>
       <c r="X86" s="27"/>
-      <c r="Y86" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z86" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
       <c r="AB86" s="28" t="s">
         <v>144</v>
       </c>
       <c r="AC86" s="27"/>
-      <c r="AD86" s="60" t="s">
-        <v>306</v>
+      <c r="AD86" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE86" s="27" t="s">
         <v>28</v>
@@ -7455,19 +7080,15 @@
       <c r="V87" s="30"/>
       <c r="W87" s="28"/>
       <c r="X87" s="27"/>
-      <c r="Y87" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z87" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
       <c r="AA87" s="27"/>
       <c r="AB87" s="28" t="s">
         <v>156</v>
       </c>
       <c r="AC87" s="27"/>
-      <c r="AD87" s="60" t="s">
-        <v>306</v>
+      <c r="AD87" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE87" s="27" t="s">
         <v>28</v>
@@ -7517,19 +7138,15 @@
       <c r="V88" s="20"/>
       <c r="W88" s="17"/>
       <c r="X88" s="19"/>
-      <c r="Y88" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z88" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA88" s="19"/>
+      <c r="Y88" s="19"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="23"/>
       <c r="AB88" s="17" t="s">
         <v>147</v>
       </c>
       <c r="AC88" s="19"/>
       <c r="AD88" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE88" s="19" t="s">
         <v>28</v>
@@ -7579,19 +7196,15 @@
       <c r="V89" s="20"/>
       <c r="W89" s="17"/>
       <c r="X89" s="19"/>
-      <c r="Y89" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z89" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA89" s="19"/>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="23"/>
       <c r="AB89" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AC89" s="19"/>
       <c r="AD89" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE89" s="19" t="s">
         <v>28</v>
@@ -7641,19 +7254,15 @@
       <c r="V90" s="30"/>
       <c r="W90" s="28"/>
       <c r="X90" s="27"/>
-      <c r="Y90" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z90" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
       <c r="AB90" s="28" t="s">
         <v>149</v>
       </c>
       <c r="AC90" s="27"/>
-      <c r="AD90" s="60" t="s">
-        <v>306</v>
+      <c r="AD90" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE90" s="27" t="s">
         <v>28</v>
@@ -7703,19 +7312,15 @@
       <c r="V91" s="30"/>
       <c r="W91" s="28"/>
       <c r="X91" s="27"/>
-      <c r="Y91" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z91" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
       <c r="AA91" s="27"/>
       <c r="AB91" s="28" t="s">
         <v>156</v>
       </c>
       <c r="AC91" s="27"/>
-      <c r="AD91" s="60" t="s">
-        <v>306</v>
+      <c r="AD91" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE91" s="27" t="s">
         <v>28</v>
@@ -7736,7 +7341,7 @@
         <v>7</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
@@ -7765,19 +7370,15 @@
       <c r="V92" s="20"/>
       <c r="W92" s="17"/>
       <c r="X92" s="19"/>
-      <c r="Y92" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z92" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA92" s="19"/>
+      <c r="Y92" s="19"/>
+      <c r="Z92" s="19"/>
+      <c r="AA92" s="23"/>
       <c r="AB92" s="17" t="s">
         <v>151</v>
       </c>
       <c r="AC92" s="19"/>
       <c r="AD92" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE92" s="19" t="s">
         <v>28</v>
@@ -7800,7 +7401,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
@@ -7829,19 +7430,15 @@
       <c r="V93" s="20"/>
       <c r="W93" s="17"/>
       <c r="X93" s="19"/>
-      <c r="Y93" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z93" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA93" s="19"/>
+      <c r="Y93" s="19"/>
+      <c r="Z93" s="19"/>
+      <c r="AA93" s="23"/>
       <c r="AB93" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AC93" s="19"/>
       <c r="AD93" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE93" s="19" t="s">
         <v>28</v>
@@ -7858,13 +7455,13 @@
         <v>0</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>89</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
@@ -7895,21 +7492,13 @@
       </c>
       <c r="W94" s="21"/>
       <c r="X94" s="23"/>
-      <c r="Y94" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z94" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="19"/>
       <c r="AA94" s="23"/>
       <c r="AB94" s="23"/>
       <c r="AC94" s="23"/>
-      <c r="AD94" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE94" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="AD94" s="19"/>
+      <c r="AE94" s="23"/>
       <c r="AF94" s="23"/>
     </row>
     <row r="95" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -7955,19 +7544,15 @@
       <c r="V95" s="30"/>
       <c r="W95" s="28"/>
       <c r="X95" s="27"/>
-      <c r="Y95" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z95" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y95" s="27"/>
+      <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
       <c r="AB95" s="28" t="s">
         <v>153</v>
       </c>
       <c r="AC95" s="27"/>
-      <c r="AD95" s="60" t="s">
-        <v>306</v>
+      <c r="AD95" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE95" s="27" t="s">
         <v>28</v>
@@ -8017,19 +7602,15 @@
       <c r="V96" s="30"/>
       <c r="W96" s="28"/>
       <c r="X96" s="27"/>
-      <c r="Y96" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z96" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
       <c r="AA96" s="27"/>
       <c r="AB96" s="28" t="s">
         <v>156</v>
       </c>
       <c r="AC96" s="27"/>
-      <c r="AD96" s="60" t="s">
-        <v>306</v>
+      <c r="AD96" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE96" s="27" t="s">
         <v>28</v>
@@ -8079,19 +7660,15 @@
       <c r="V97" s="20"/>
       <c r="W97" s="17"/>
       <c r="X97" s="19"/>
-      <c r="Y97" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z97" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA97" s="19"/>
+      <c r="Y97" s="19"/>
+      <c r="Z97" s="19"/>
+      <c r="AA97" s="23"/>
       <c r="AB97" s="17" t="s">
         <v>155</v>
       </c>
       <c r="AC97" s="19"/>
       <c r="AD97" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE97" s="19" t="s">
         <v>28</v>
@@ -8141,19 +7718,15 @@
       <c r="V98" s="20"/>
       <c r="W98" s="17"/>
       <c r="X98" s="19"/>
-      <c r="Y98" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z98" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="19"/>
+      <c r="AA98" s="23"/>
       <c r="AB98" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AC98" s="19"/>
       <c r="AD98" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE98" s="19" t="s">
         <v>28</v>
@@ -8203,19 +7776,15 @@
       <c r="V99" s="30"/>
       <c r="W99" s="28"/>
       <c r="X99" s="27"/>
-      <c r="Y99" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z99" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
       <c r="AA99" s="27"/>
       <c r="AB99" s="27" t="s">
         <v>135</v>
       </c>
       <c r="AC99" s="27"/>
-      <c r="AD99" s="60" t="s">
-        <v>306</v>
+      <c r="AD99" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="AE99" s="27" t="s">
         <v>27</v>
@@ -8250,9 +7819,7 @@
       <c r="W100" s="10"/>
       <c r="X100" s="12"/>
       <c r="Y100" s="12"/>
-      <c r="Z100" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z100" s="12"/>
       <c r="AA100" s="12"/>
       <c r="AB100" s="12"/>
       <c r="AC100" s="12"/>
@@ -8303,19 +7870,15 @@
       <c r="V101" s="20"/>
       <c r="W101" s="17"/>
       <c r="X101" s="19"/>
-      <c r="Y101" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z101" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA101" s="19"/>
+      <c r="Y101" s="19"/>
+      <c r="Z101" s="19"/>
+      <c r="AA101" s="23"/>
       <c r="AB101" s="17" t="s">
         <v>156</v>
       </c>
       <c r="AC101" s="19"/>
       <c r="AD101" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE101" s="19" t="s">
         <v>28</v>
@@ -8365,19 +7928,15 @@
       <c r="V102" s="20"/>
       <c r="W102" s="17"/>
       <c r="X102" s="19"/>
-      <c r="Y102" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z102" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA102" s="19"/>
+      <c r="Y102" s="19"/>
+      <c r="Z102" s="19"/>
+      <c r="AA102" s="23"/>
       <c r="AB102" s="17" t="s">
         <v>146</v>
       </c>
       <c r="AC102" s="19"/>
       <c r="AD102" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE102" s="19" t="s">
         <v>28</v>
@@ -8412,9 +7971,7 @@
       <c r="W103" s="10"/>
       <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
-      <c r="Z103" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
       <c r="AB103" s="12"/>
       <c r="AC103" s="12"/>
@@ -8467,19 +8024,15 @@
       <c r="V104" s="24"/>
       <c r="W104" s="21"/>
       <c r="X104" s="23"/>
-      <c r="Y104" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z104" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y104" s="19"/>
+      <c r="Z104" s="19"/>
       <c r="AA104" s="23"/>
       <c r="AB104" s="19" t="s">
         <v>135</v>
       </c>
       <c r="AC104" s="23"/>
       <c r="AD104" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE104" s="19" t="s">
         <v>27</v>
@@ -8490,7 +8043,7 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -8532,13 +8085,13 @@
         <v>0</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F106" s="41">
         <v>8</v>
@@ -8571,18 +8124,12 @@
       </c>
       <c r="W106" s="40"/>
       <c r="X106" s="39"/>
-      <c r="Y106" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z106" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y106" s="39"/>
+      <c r="Z106" s="39"/>
       <c r="AA106" s="39"/>
       <c r="AB106" s="39"/>
       <c r="AC106" s="39"/>
-      <c r="AD106" s="39" t="s">
-        <v>306</v>
-      </c>
+      <c r="AD106" s="39"/>
       <c r="AE106" s="39"/>
       <c r="AF106" s="39"/>
     </row>
@@ -8594,13 +8141,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E107" s="41" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F107" s="41">
         <v>8</v>
@@ -8633,18 +8180,12 @@
       </c>
       <c r="W107" s="40"/>
       <c r="X107" s="39"/>
-      <c r="Y107" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z107" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y107" s="39"/>
+      <c r="Z107" s="39"/>
       <c r="AA107" s="39"/>
       <c r="AB107" s="39"/>
       <c r="AC107" s="39"/>
-      <c r="AD107" s="39" t="s">
-        <v>306</v>
-      </c>
+      <c r="AD107" s="39"/>
       <c r="AE107" s="39"/>
       <c r="AF107" s="39"/>
     </row>
@@ -8656,13 +8197,13 @@
         <v>0</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E108" s="41" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F108" s="41">
         <v>8</v>
@@ -8695,18 +8236,12 @@
       </c>
       <c r="W108" s="40"/>
       <c r="X108" s="39"/>
-      <c r="Y108" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z108" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y108" s="39"/>
+      <c r="Z108" s="39"/>
       <c r="AA108" s="39"/>
       <c r="AB108" s="39"/>
       <c r="AC108" s="39"/>
-      <c r="AD108" s="39" t="s">
-        <v>306</v>
-      </c>
+      <c r="AD108" s="39"/>
       <c r="AE108" s="39"/>
       <c r="AF108" s="39"/>
     </row>
@@ -8718,13 +8253,13 @@
         <v>0</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F109" s="32">
         <v>8</v>
@@ -8755,18 +8290,12 @@
       <c r="V109" s="24"/>
       <c r="W109" s="21"/>
       <c r="X109" s="23"/>
-      <c r="Y109" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z109" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y109" s="19"/>
+      <c r="Z109" s="19"/>
       <c r="AA109" s="23"/>
       <c r="AB109" s="19"/>
       <c r="AC109" s="23"/>
-      <c r="AD109" s="19" t="s">
-        <v>306</v>
-      </c>
+      <c r="AD109" s="19"/>
       <c r="AE109" s="19"/>
       <c r="AF109" s="23"/>
     </row>
@@ -8778,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F110" s="32">
         <v>8</v>
@@ -8815,18 +8344,12 @@
       <c r="V110" s="24"/>
       <c r="W110" s="21"/>
       <c r="X110" s="23"/>
-      <c r="Y110" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z110" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y110" s="19"/>
+      <c r="Z110" s="19"/>
       <c r="AA110" s="23"/>
       <c r="AB110" s="19"/>
       <c r="AC110" s="23"/>
-      <c r="AD110" s="19" t="s">
-        <v>306</v>
-      </c>
+      <c r="AD110" s="19"/>
       <c r="AE110" s="19"/>
       <c r="AF110" s="23"/>
     </row>
@@ -8838,13 +8361,13 @@
         <v>0</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F111" s="32">
         <v>8</v>
@@ -8875,18 +8398,12 @@
       <c r="V111" s="24"/>
       <c r="W111" s="21"/>
       <c r="X111" s="23"/>
-      <c r="Y111" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z111" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y111" s="19"/>
+      <c r="Z111" s="19"/>
       <c r="AA111" s="23"/>
       <c r="AB111" s="19"/>
       <c r="AC111" s="23"/>
-      <c r="AD111" s="19" t="s">
-        <v>306</v>
-      </c>
+      <c r="AD111" s="19"/>
       <c r="AE111" s="19"/>
       <c r="AF111" s="23"/>
     </row>
@@ -8898,13 +8415,13 @@
         <v>0</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E112" s="41" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F112" s="41">
         <v>8</v>
@@ -8933,22 +8450,16 @@
         <v>0</v>
       </c>
       <c r="V112" s="43" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="W112" s="40"/>
       <c r="X112" s="39"/>
-      <c r="Y112" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z112" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y112" s="39"/>
+      <c r="Z112" s="39"/>
       <c r="AA112" s="39"/>
       <c r="AB112" s="39"/>
       <c r="AC112" s="39"/>
-      <c r="AD112" s="39" t="s">
-        <v>306</v>
-      </c>
+      <c r="AD112" s="39"/>
       <c r="AE112" s="39"/>
       <c r="AF112" s="39"/>
     </row>
@@ -8960,13 +8471,13 @@
         <v>0</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="F113" s="41">
         <v>8</v>
@@ -8995,22 +8506,16 @@
         <v>0</v>
       </c>
       <c r="V113" s="43" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="W113" s="40"/>
       <c r="X113" s="39"/>
-      <c r="Y113" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z113" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y113" s="39"/>
+      <c r="Z113" s="39"/>
       <c r="AA113" s="39"/>
       <c r="AB113" s="39"/>
       <c r="AC113" s="39"/>
-      <c r="AD113" s="39" t="s">
-        <v>306</v>
-      </c>
+      <c r="AD113" s="39"/>
       <c r="AE113" s="39"/>
       <c r="AF113" s="39"/>
     </row>
@@ -9022,10 +8527,10 @@
         <v>0</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E114" s="41" t="s">
         <v>48</v>
@@ -9057,22 +8562,16 @@
         <v>0</v>
       </c>
       <c r="V114" s="43" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="W114" s="40"/>
       <c r="X114" s="39"/>
-      <c r="Y114" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z114" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="Y114" s="39"/>
+      <c r="Z114" s="39"/>
       <c r="AA114" s="39"/>
       <c r="AB114" s="39"/>
       <c r="AC114" s="39"/>
-      <c r="AD114" s="39" t="s">
-        <v>306</v>
-      </c>
+      <c r="AD114" s="39"/>
       <c r="AE114" s="39"/>
       <c r="AF114" s="39"/>
     </row>
@@ -9087,7 +8586,7 @@
           <x14:formula1>
             <xm:f>Tables!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>Z2:Z114 AE2:AE114</xm:sqref>
+          <xm:sqref>AE2:AE114 Z2:Z114</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7E235E07-1A6D-41FA-8E32-72A730AFA7A4}">
           <x14:formula1>
@@ -9105,13 +8604,13 @@
           <x14:formula1>
             <xm:f>Tables!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>V2:V114 AA2:AA114 AF2:AF114</xm:sqref>
+          <xm:sqref>V2:V114 AF2:AF114 AA2:AA114</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{192284F7-50B8-4585-A9B7-F422F5634CF8}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{D07B0AA9-91AB-4733-9EAB-5035421C071A}">
           <x14:formula1>
             <xm:f>Tables!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>Y2:Y114 AD2:AD114</xm:sqref>
+          <xm:sqref>AD2:AD114 Y2:Y114</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9121,10 +8620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F0DF1A-7900-47BA-8B9D-42C3E7E31390}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A2:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9136,230 +8635,228 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="F4" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
+        <f>SUM(H6:O6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15">
+        <f>SUM(H7:O7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15">
-        <f>SUM(C12:J12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15">
-        <f>SUM(C13:J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15">
-        <f>SUM(C14:J14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="37">
-        <f>SUM(K12:K14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="35">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15">
+        <f>SUM(H8:O8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="F9" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="37">
+        <f>SUM(P6:P8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="N10" s="56"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="35">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="38">
-        <f>SUM(K15:K16)</f>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="38">
+        <f>SUM(P9:P10)</f>
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:P4"/>
+    <mergeCell ref="F9:O9"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="F10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9382,70 +8879,70 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -9464,7 +8961,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9476,7 +8973,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="39" t="s">
@@ -9487,14 +8984,15 @@
         <v>185</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="47" t="s">
-        <v>305</v>
+      <c r="G1" s="45" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="C2" s="16"/>
       <c r="E2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -9506,8 +9004,8 @@
       <c r="E3" s="16">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
-        <v>306</v>
+      <c r="G3" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9518,10 +9016,10 @@
         <v>29</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" t="s">
-        <v>307</v>
+        <v>223</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -9534,22 +9032,22 @@
       <c r="E5" s="16">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
-        <v>308</v>
+      <c r="G5" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" t="s">
-        <v>309</v>
+        <v>224</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9565,12 +9063,12 @@
         <v>25</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E9" s="16">
         <v>10</v>
@@ -9597,7 +9095,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -9607,7 +9105,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" s="16" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -9616,8 +9114,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="48" t="s">
-        <v>213</v>
+      <c r="E16" s="46" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ScriptData/Advocate_ArchitectData.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CB03B4-57D1-4555-B967-17AD8A51FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057D729-B1CE-4421-8804-6E9915A09F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27375" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9495" yWindow="1755" windowWidth="26505" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="325">
   <si>
     <t>Shape</t>
   </si>
@@ -1187,6 +1187,54 @@
   <si>
     <t>Dash_Dot</t>
   </si>
+  <si>
+    <t>Default Stencil Names</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Carousel2</t>
+  </si>
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t>EHRSystems</t>
+  </si>
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>IconKey</t>
+  </si>
+  <si>
+    <t>IVX</t>
+  </si>
+  <si>
+    <t>Label1</t>
+  </si>
+  <si>
+    <t>NetworkPipe</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>TabelCell</t>
+  </si>
+  <si>
+    <t>vSuite_EMM</t>
+  </si>
+  <si>
+    <t>vSuiteCloud</t>
+  </si>
 </sst>
 </file>
 
@@ -1195,7 +1243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,8 +1391,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1575,6 +1630,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,7 +1870,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1941,6 +2002,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1961,6 +2025,15 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2320,8 +2393,8 @@
   <dimension ref="A1:AF114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y92" sqref="Y92"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,16 +2433,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="62" t="s">
         <v>183</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -2411,10 +2484,10 @@
       <c r="Q1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="63" t="s">
         <v>13</v>
       </c>
       <c r="T1" s="7" t="s">
@@ -2494,8 +2567,8 @@
       <c r="AF2" s="12"/>
     </row>
     <row r="3" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>293</v>
+      <c r="A3" s="16">
+        <v>0</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>291</v>
@@ -2544,15 +2617,15 @@
       <c r="AF3" s="23"/>
     </row>
     <row r="4" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
-        <v>0</v>
-      </c>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>299</v>
       </c>
       <c r="F4" s="21"/>
@@ -2592,17 +2665,17 @@
       <c r="AF4" s="23"/>
     </row>
     <row r="5" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>0</v>
-      </c>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
         <v>296</v>
       </c>
       <c r="F5" s="21"/>
@@ -2642,17 +2715,17 @@
       <c r="AF5" s="23"/>
     </row>
     <row r="6" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
-        <v>0</v>
-      </c>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="19">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>297</v>
       </c>
       <c r="F6" s="21"/>
@@ -4361,7 +4434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>1</v>
       </c>
@@ -4581,7 +4654,7 @@
       <c r="AE41" s="19"/>
       <c r="AF41" s="23"/>
     </row>
-    <row r="42" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>1</v>
       </c>
@@ -4645,7 +4718,7 @@
       <c r="AE42" s="19"/>
       <c r="AF42" s="23"/>
     </row>
-    <row r="43" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>1</v>
       </c>
@@ -4777,7 +4850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>133</v>
       </c>
@@ -8581,7 +8654,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{84DDF0C9-6F1B-446E-8995-2373E65B88E2}">
           <x14:formula1>
             <xm:f>Tables!$C$2:$C$6</xm:f>
@@ -8612,6 +8685,12 @@
           </x14:formula1>
           <xm:sqref>AD2:AD114 Y2:Y114</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{000CBC19-A464-4694-A3AD-9D82A1CE6A27}">
+          <x14:formula1>
+            <xm:f>Tables!$I$2:$I$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D114</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -8636,24 +8715,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
@@ -8662,25 +8741,25 @@
       <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="F4" s="51" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="F4" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
@@ -8794,55 +8873,55 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="37">
         <f>SUM(P6:P8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="56" t="s">
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
       <c r="P10" s="35">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="38">
         <f>SUM(P9:P10)</f>
         <v>150</v>
@@ -8879,11 +8958,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
@@ -8958,10 +9037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0736EE8-23D0-4513-9563-3C6A65BAEEB4}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8969,9 +9048,10 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>288</v>
       </c>
@@ -8987,14 +9067,18 @@
       <c r="G1" s="45" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="C2" s="16"/>
       <c r="E2" s="16"/>
       <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
@@ -9007,8 +9091,11 @@
       <c r="G3" s="15" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
@@ -9021,8 +9108,11 @@
       <c r="G4" s="15" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>37</v>
       </c>
@@ -9035,8 +9125,11 @@
       <c r="G5" s="15" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>215</v>
       </c>
@@ -9049,73 +9142,236 @@
       <c r="G6" s="15" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>287</v>
       </c>
       <c r="E9" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="16">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" s="16">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="16" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="16">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="46" t="s">
         <v>228</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="47" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9123,7 +9379,7 @@
     <sortCondition ref="A3:A13"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:XFD2 B2:F2" xr:uid="{603106F1-35E4-4102-BBAC-864DFD6CCF25}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:F2 H2 J2:XFD2" xr:uid="{603106F1-35E4-4102-BBAC-864DFD6CCF25}">
       <formula1>$A$4:$A$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/Data/ScriptData/Advocate_ArchitectData.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057D729-B1CE-4421-8804-6E9915A09F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40D9CC3-3DF9-4B27-9A05-DD294F6A03BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="1755" windowWidth="26505" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20310" yWindow="1635" windowWidth="26505" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="328">
   <si>
     <t>Shape</t>
   </si>
@@ -496,9 +496,6 @@
     <t>Group2:Small1</t>
   </si>
   <si>
-    <t>IconKeyDash</t>
-  </si>
-  <si>
     <t>IconKey2</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
   </si>
   <si>
     <t>Process1:BDRefill2</t>
-  </si>
-  <si>
-    <t>GroupBD</t>
   </si>
   <si>
     <t>GroupBD:1</t>
@@ -1158,12 +1152,6 @@
     <t>Title_Advocate:1</t>
   </si>
   <si>
-    <t>Don't enter a ShapeKey if we want to crete a new blank visio diagram.  Not using a Visio Template file</t>
-  </si>
-  <si>
-    <t>Blank Document</t>
-  </si>
-  <si>
     <t>C:\Omnicell_Blueprinting_Tool\Data\Templates\OC_BlueprintingTemplate.vstx</t>
   </si>
   <si>
@@ -1234,6 +1222,27 @@
   </si>
   <si>
     <t>vSuiteCloud</t>
+  </si>
+  <si>
+    <t>Group3</t>
+  </si>
+  <si>
+    <t>DashOutline</t>
+  </si>
+  <si>
+    <t>Server2</t>
+  </si>
+  <si>
+    <t>Server3</t>
+  </si>
+  <si>
+    <t>Group4</t>
+  </si>
+  <si>
+    <t>Title_Advocate</t>
+  </si>
+  <si>
+    <t>Custom</t>
   </si>
 </sst>
 </file>
@@ -2005,6 +2014,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2025,15 +2043,6 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2390,11 +2399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF114"/>
+  <dimension ref="A1:AF113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,47 +2442,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="62" t="s">
+      <c r="A1" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="E1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="F1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="G1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>17</v>
@@ -2482,12 +2491,12 @@
         <v>16</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="50" t="s">
         <v>13</v>
       </c>
       <c r="T1" s="7" t="s">
@@ -2497,42 +2506,42 @@
         <v>15</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="X1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AB1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AC1" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AD1" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>195</v>
-      </c>
-      <c r="AE1" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2571,14 +2580,14 @@
         <v>0</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -2618,15 +2627,17 @@
     </row>
     <row r="4" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" s="17"/>
+        <v>290</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -2665,18 +2676,18 @@
       <c r="AF4" s="23"/>
     </row>
     <row r="5" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>293</v>
+      <c r="A5" s="19">
+        <v>0</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -2714,93 +2725,93 @@
       <c r="AE5" s="19"/>
       <c r="AF5" s="23"/>
     </row>
-    <row r="6" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>0</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24">
-        <v>0</v>
-      </c>
-      <c r="S6" s="24">
-        <v>0</v>
-      </c>
-      <c r="T6" s="24">
-        <v>0</v>
-      </c>
-      <c r="U6" s="24">
-        <v>0</v>
-      </c>
-      <c r="V6" s="24"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="23"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-    </row>
-    <row r="8" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+    </row>
+    <row r="7" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="S7" s="24">
+        <v>10.75</v>
+      </c>
+      <c r="T7" s="24">
+        <v>0</v>
+      </c>
+      <c r="U7" s="24">
+        <v>0</v>
+      </c>
+      <c r="V7" s="24"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="23"/>
+    </row>
+    <row r="8" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -2808,17 +2819,23 @@
         <v>0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="21"/>
+        <v>326</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>230</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -2827,7 +2844,7 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="24">
-        <v>0.25</v>
+        <v>3.125</v>
       </c>
       <c r="S8" s="24">
         <v>10.75</v>
@@ -2850,7 +2867,7 @@
       <c r="AE8" s="19"/>
       <c r="AF8" s="23"/>
     </row>
-    <row r="9" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>1</v>
       </c>
@@ -2858,43 +2875,41 @@
         <v>0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>298</v>
+        <v>59</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" s="21"/>
+        <v>217</v>
+      </c>
+      <c r="F9" s="21">
+        <v>9</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>206</v>
-      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24">
-        <v>3.125</v>
-      </c>
-      <c r="S9" s="24">
-        <v>10.75</v>
-      </c>
-      <c r="T9" s="24">
-        <v>0</v>
-      </c>
-      <c r="U9" s="24">
-        <v>0</v>
-      </c>
-      <c r="V9" s="24"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="S9" s="26">
+        <v>1.75</v>
+      </c>
+      <c r="T9" s="26">
+        <v>0</v>
+      </c>
+      <c r="U9" s="26">
+        <v>1.125</v>
+      </c>
+      <c r="V9" s="21"/>
       <c r="W9" s="21"/>
       <c r="X9" s="23"/>
       <c r="Y9" s="19"/>
@@ -2906,97 +2921,95 @@
       <c r="AE9" s="19"/>
       <c r="AF9" s="23"/>
     </row>
-    <row r="10" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+    </row>
+    <row r="11" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="21">
-        <v>9</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="26">
+      <c r="B11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24">
         <v>0.25</v>
       </c>
-      <c r="S10" s="26">
-        <v>1.75</v>
-      </c>
-      <c r="T10" s="26">
-        <v>0</v>
-      </c>
-      <c r="U10" s="26">
-        <v>1.125</v>
-      </c>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="23"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-    </row>
-    <row r="12" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="24">
+        <v>9.875</v>
+      </c>
+      <c r="T11" s="24">
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="U11" s="24">
+        <v>1.9</v>
+      </c>
+      <c r="V11" s="24"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="23"/>
+    </row>
+    <row r="12" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>1</v>
       </c>
@@ -3004,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -3025,28 +3038,38 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24">
-        <v>0.25</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="S12" s="24">
-        <v>9.875</v>
+        <v>9.6509999999999998</v>
       </c>
       <c r="T12" s="24">
-        <v>2.4590000000000001</v>
+        <v>0</v>
       </c>
       <c r="U12" s="24">
-        <v>1.9</v>
-      </c>
-      <c r="V12" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>287</v>
+      </c>
       <c r="W12" s="21"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="23"/>
-      <c r="AB12" s="21"/>
+      <c r="AB12" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="AC12" s="23"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="23"/>
+      <c r="AD12" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF12" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
@@ -3056,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -3077,10 +3100,10 @@
       <c r="P13" s="22"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="24">
-        <v>0.61299999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="S13" s="24">
-        <v>9.6509999999999998</v>
+        <v>8.9459999999999997</v>
       </c>
       <c r="T13" s="24">
         <v>0</v>
@@ -3089,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="W13" s="21"/>
       <c r="X13" s="23"/>
@@ -3097,11 +3120,11 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="23"/>
       <c r="AB13" s="21" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AC13" s="23"/>
       <c r="AD13" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE13" s="19" t="s">
         <v>27</v>
@@ -3118,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -3139,10 +3162,10 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="24">
-        <v>0.69699999999999995</v>
+        <v>2.25</v>
       </c>
       <c r="S14" s="24">
-        <v>8.9459999999999997</v>
+        <v>9.6720000000000006</v>
       </c>
       <c r="T14" s="24">
         <v>0</v>
@@ -3151,19 +3174,29 @@
         <v>0</v>
       </c>
       <c r="V14" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="23"/>
+        <v>287</v>
+      </c>
+      <c r="W14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y14" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA14" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="AB14" s="21" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="23"/>
       <c r="AD14" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE14" s="19" t="s">
         <v>27</v>
@@ -3180,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -3201,10 +3234,10 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="24">
-        <v>2.25</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="S15" s="24">
-        <v>9.6720000000000006</v>
+        <v>8.9459999999999997</v>
       </c>
       <c r="T15" s="24">
         <v>0</v>
@@ -3213,29 +3246,19 @@
         <v>0</v>
       </c>
       <c r="V15" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="W15" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA15" s="23" t="s">
-        <v>21</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="W15" s="21"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="21" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AC15" s="23"/>
       <c r="AD15" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE15" s="19" t="s">
         <v>27</v>
@@ -3252,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -3273,10 +3296,10 @@
       <c r="P16" s="22"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="24">
-        <v>1.6439999999999999</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="S16" s="24">
-        <v>8.9459999999999997</v>
+        <v>8.25</v>
       </c>
       <c r="T16" s="24">
         <v>0</v>
@@ -3285,138 +3308,126 @@
         <v>0</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="W16" s="21"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC16" s="23"/>
+        <v>287</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC16" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="AD16" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE16" s="19" t="s">
-        <v>27</v>
+        <v>301</v>
+      </c>
+      <c r="AE16" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="AF16" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+    </row>
+    <row r="18" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
         <v>1</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24">
-        <v>2.7749999999999999</v>
-      </c>
-      <c r="S17" s="24">
-        <v>8.25</v>
-      </c>
-      <c r="T17" s="24">
-        <v>0</v>
-      </c>
-      <c r="U17" s="24">
-        <v>0</v>
-      </c>
-      <c r="V17" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="W17" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y17" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA17" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB17" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC17" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE17" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF17" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
+      <c r="B18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20">
+        <v>0.2853</v>
+      </c>
+      <c r="S18" s="20">
+        <v>3.3980000000000001</v>
+      </c>
+      <c r="T18" s="20">
+        <v>2.58</v>
+      </c>
+      <c r="U18" s="20">
+        <v>1.35</v>
+      </c>
+      <c r="V18" s="20"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
     </row>
     <row r="19" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -3426,12 +3437,14 @@
         <v>0</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -3445,18 +3458,20 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="20">
-        <v>0.2853</v>
+        <v>1.032</v>
       </c>
       <c r="S19" s="20">
-        <v>3.3980000000000001</v>
-      </c>
-      <c r="T19" s="20">
-        <v>2.58</v>
-      </c>
-      <c r="U19" s="20">
-        <v>1.35</v>
-      </c>
-      <c r="V19" s="20"/>
+        <v>2.742</v>
+      </c>
+      <c r="T19" s="24">
+        <v>0</v>
+      </c>
+      <c r="U19" s="24">
+        <v>0</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="W19" s="17"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
@@ -3476,13 +3491,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3497,7 +3512,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="20">
-        <v>1.032</v>
+        <v>2</v>
       </c>
       <c r="S20" s="20">
         <v>2.742</v>
@@ -3509,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W20" s="17"/>
       <c r="X20" s="19"/>
@@ -3522,7 +3537,7 @@
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
     </row>
-    <row r="21" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>1</v>
       </c>
@@ -3530,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -3551,7 +3566,7 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" s="20">
         <v>2.742</v>
@@ -3563,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="19"/>
@@ -3584,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -3605,10 +3620,10 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="20">
-        <v>3</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="S22" s="20">
-        <v>2.742</v>
+        <v>2.375</v>
       </c>
       <c r="T22" s="24">
         <v>0</v>
@@ -3638,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -3662,7 +3677,7 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="S23" s="20">
-        <v>2.375</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="T23" s="24">
         <v>0</v>
@@ -3671,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="20" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="W23" s="17"/>
       <c r="X23" s="19"/>
@@ -3692,13 +3707,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -3716,7 +3731,7 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="S24" s="20">
-        <v>2.1869999999999998</v>
+        <v>2</v>
       </c>
       <c r="T24" s="24">
         <v>0</v>
@@ -3725,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W24" s="17"/>
       <c r="X24" s="19"/>
@@ -3738,97 +3753,95 @@
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
     </row>
-    <row r="25" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+    </row>
+    <row r="26" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
         <v>1</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="S25" s="20">
-        <v>2</v>
-      </c>
-      <c r="T25" s="24">
-        <v>0</v>
-      </c>
-      <c r="U25" s="24">
-        <v>0</v>
-      </c>
-      <c r="V25" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="17"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
+      <c r="B26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="24">
+        <v>3.875</v>
+      </c>
+      <c r="S26" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="T26" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="U26" s="24">
+        <v>0</v>
+      </c>
+      <c r="V26" s="24"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="23"/>
     </row>
     <row r="27" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
@@ -3838,14 +3851,12 @@
         <v>0</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>235</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -3859,13 +3870,13 @@
       <c r="P27" s="22"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="24">
-        <v>3.875</v>
+        <v>1.75</v>
       </c>
       <c r="S27" s="24">
-        <v>4.5</v>
+        <v>4.3049999999999997</v>
       </c>
       <c r="T27" s="24">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="U27" s="24">
         <v>0</v>
@@ -3882,93 +3893,117 @@
       <c r="AE27" s="19"/>
       <c r="AF27" s="23"/>
     </row>
-    <row r="28" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+    </row>
+    <row r="29" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
         <v>1</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="24">
-        <v>1.75</v>
-      </c>
-      <c r="S28" s="24">
-        <v>4.3049999999999997</v>
-      </c>
-      <c r="T28" s="24">
-        <v>0</v>
-      </c>
-      <c r="U28" s="24">
-        <v>0</v>
-      </c>
-      <c r="V28" s="24"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="23"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-    </row>
-    <row r="30" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="24">
+        <v>1.125</v>
+      </c>
+      <c r="S29" s="24">
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="T29" s="24">
+        <v>0</v>
+      </c>
+      <c r="U29" s="24">
+        <v>0</v>
+      </c>
+      <c r="V29" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z29" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD29" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF29" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>1</v>
       </c>
@@ -3976,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -3999,10 +4034,10 @@
       <c r="P30" s="22"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="24">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="S30" s="24">
-        <v>5.6870000000000003</v>
+        <v>6.5620000000000003</v>
       </c>
       <c r="T30" s="24">
         <v>0</v>
@@ -4018,7 +4053,7 @@
       </c>
       <c r="X30" s="23"/>
       <c r="Y30" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Z30" s="23" t="s">
         <v>27</v>
@@ -4026,23 +4061,13 @@
       <c r="AA30" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AB30" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC30" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD30" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE30" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF30" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="23"/>
+    </row>
+    <row r="31" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>1</v>
       </c>
@@ -4050,15 +4075,17 @@
         <v>0</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="21"/>
+        <v>219</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -4067,136 +4094,124 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O31" s="22"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="S31" s="24">
+        <v>7.5880000000000001</v>
+      </c>
+      <c r="T31" s="24">
         <v>2</v>
       </c>
-      <c r="S31" s="24">
-        <v>6.5620000000000003</v>
-      </c>
-      <c r="T31" s="24">
-        <v>0</v>
-      </c>
       <c r="U31" s="24">
-        <v>0</v>
-      </c>
-      <c r="V31" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="W31" s="21" t="s">
-        <v>58</v>
-      </c>
+        <v>2.125</v>
+      </c>
+      <c r="V31" s="24"/>
+      <c r="W31" s="21"/>
       <c r="X31" s="23"/>
-      <c r="Y31" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA31" s="23" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="23"/>
       <c r="AB31" s="23"/>
       <c r="AC31" s="23"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="23"/>
     </row>
-    <row r="32" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+    <row r="32" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+    </row>
+    <row r="33" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
         <v>1</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="S32" s="24">
-        <v>7.5880000000000001</v>
-      </c>
-      <c r="T32" s="24">
-        <v>2</v>
-      </c>
-      <c r="U32" s="24">
-        <v>2.125</v>
-      </c>
-      <c r="V32" s="24"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="23"/>
-    </row>
-    <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-    </row>
-    <row r="34" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="24">
+        <v>4.125</v>
+      </c>
+      <c r="S33" s="24">
+        <v>9.75</v>
+      </c>
+      <c r="T33" s="24">
+        <v>3</v>
+      </c>
+      <c r="U33" s="24">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V33" s="24"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="23"/>
+    </row>
+    <row r="34" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>1</v>
       </c>
@@ -4204,17 +4219,15 @@
         <v>0</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>177</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -4223,34 +4236,46 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="22"/>
+      <c r="O34" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P34" s="22"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="24">
-        <v>4.125</v>
+        <v>4.875</v>
       </c>
       <c r="S34" s="24">
-        <v>9.75</v>
+        <v>8.7850000000000001</v>
       </c>
       <c r="T34" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U34" s="24">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="V34" s="24"/>
-      <c r="W34" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W34" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="X34" s="23"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="23"/>
+      <c r="Y34" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA34" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AB34" s="23"/>
       <c r="AC34" s="23"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="23"/>
     </row>
-    <row r="35" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>1</v>
       </c>
@@ -4258,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -4275,16 +4300,14 @@
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
-      <c r="O35" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O35" s="22"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="24">
-        <v>4.875</v>
+        <v>5.8470000000000004</v>
       </c>
       <c r="S35" s="24">
-        <v>8.7850000000000001</v>
+        <v>8.2970000000000006</v>
       </c>
       <c r="T35" s="24">
         <v>0</v>
@@ -4292,27 +4315,25 @@
       <c r="U35" s="24">
         <v>0</v>
       </c>
-      <c r="V35" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="W35" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="V35" s="24"/>
+      <c r="W35" s="21"/>
       <c r="X35" s="23"/>
-      <c r="Y35" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z35" s="23" t="s">
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE35" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AA35" s="23" t="s">
+      <c r="AF35" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="23"/>
     </row>
     <row r="36" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
@@ -4322,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -4343,7 +4364,7 @@
       <c r="P36" s="22"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="24">
-        <v>5.8470000000000004</v>
+        <v>6.5350000000000001</v>
       </c>
       <c r="S36" s="24">
         <v>8.2970000000000006</v>
@@ -4365,7 +4386,7 @@
       </c>
       <c r="AC36" s="23"/>
       <c r="AD36" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE36" s="23" t="s">
         <v>27</v>
@@ -4374,7 +4395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>1</v>
       </c>
@@ -4382,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -4399,14 +4420,16 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
-      <c r="O37" s="22"/>
+      <c r="O37" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="24">
-        <v>6.5350000000000001</v>
+        <v>4.875</v>
       </c>
       <c r="S37" s="24">
-        <v>8.2970000000000006</v>
+        <v>7.4779999999999998</v>
       </c>
       <c r="T37" s="24">
         <v>0</v>
@@ -4414,18 +4437,28 @@
       <c r="U37" s="24">
         <v>0</v>
       </c>
-      <c r="V37" s="24"/>
-      <c r="W37" s="21"/>
+      <c r="V37" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W37" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="X37" s="23"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="21" t="s">
+      <c r="Y37" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z37" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB37" s="23" t="s">
         <v>81</v>
       </c>
       <c r="AC37" s="23"/>
       <c r="AD37" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE37" s="23" t="s">
         <v>27</v>
@@ -4434,7 +4467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>1</v>
       </c>
@@ -4442,14 +4475,12 @@
         <v>0</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>179</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -4459,16 +4490,14 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
-      <c r="O38" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O38" s="22"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="24">
-        <v>4.875</v>
+        <v>7.5</v>
       </c>
       <c r="S38" s="24">
-        <v>7.4779999999999998</v>
+        <v>7.76</v>
       </c>
       <c r="T38" s="24">
         <v>0</v>
@@ -4476,28 +4505,18 @@
       <c r="U38" s="24">
         <v>0</v>
       </c>
-      <c r="V38" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="W38" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="V38" s="24"/>
+      <c r="W38" s="21"/>
       <c r="X38" s="23"/>
-      <c r="Y38" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z38" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA38" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="23"/>
       <c r="AB38" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC38" s="23"/>
       <c r="AD38" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE38" s="23" t="s">
         <v>27</v>
@@ -4506,101 +4525,97 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+    </row>
+    <row r="40" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
         <v>1</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="S39" s="24">
-        <v>7.76</v>
-      </c>
-      <c r="T39" s="24">
-        <v>0</v>
-      </c>
-      <c r="U39" s="24">
-        <v>0</v>
-      </c>
-      <c r="V39" s="24"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE39" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF39" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
-    </row>
-    <row r="41" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="24">
+        <v>4.125</v>
+      </c>
+      <c r="S40" s="24">
+        <v>7.0469999999999997</v>
+      </c>
+      <c r="T40" s="24">
+        <v>3</v>
+      </c>
+      <c r="U40" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="V40" s="24"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="23"/>
+    </row>
+    <row r="41" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>1</v>
       </c>
@@ -4608,17 +4623,15 @@
         <v>0</v>
       </c>
       <c r="C41" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>177</v>
-      </c>
+      <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -4627,27 +4640,39 @@
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
-      <c r="O41" s="22"/>
+      <c r="O41" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P41" s="22"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="24">
-        <v>4.125</v>
+        <v>4.875</v>
       </c>
       <c r="S41" s="24">
-        <v>7.0469999999999997</v>
+        <v>6.25</v>
       </c>
       <c r="T41" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U41" s="24">
-        <v>1.3</v>
-      </c>
-      <c r="V41" s="24"/>
-      <c r="W41" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="W41" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="X41" s="23"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="23"/>
+      <c r="Y41" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z41" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA41" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AB41" s="23"/>
       <c r="AC41" s="23"/>
       <c r="AD41" s="19"/>
@@ -4662,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -4685,10 +4710,10 @@
       <c r="P42" s="22"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="24">
-        <v>4.875</v>
+        <v>6.125</v>
       </c>
       <c r="S42" s="24">
-        <v>6.25</v>
+        <v>5.7969999999999997</v>
       </c>
       <c r="T42" s="24">
         <v>0</v>
@@ -4704,7 +4729,7 @@
       </c>
       <c r="X42" s="23"/>
       <c r="Y42" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Z42" s="23" t="s">
         <v>27</v>
@@ -4712,13 +4737,21 @@
       <c r="AA42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AB42" s="23"/>
+      <c r="AB42" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="AC42" s="23"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="23"/>
-    </row>
-    <row r="43" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="AD42" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE42" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF42" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>1</v>
       </c>
@@ -4726,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -4743,16 +4776,14 @@
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
-      <c r="O43" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O43" s="22"/>
       <c r="P43" s="22"/>
       <c r="Q43" s="23"/>
       <c r="R43" s="24">
-        <v>6.125</v>
+        <v>7.5</v>
       </c>
       <c r="S43" s="24">
-        <v>5.7969999999999997</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="T43" s="24">
         <v>0</v>
@@ -4760,28 +4791,18 @@
       <c r="U43" s="24">
         <v>0</v>
       </c>
-      <c r="V43" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="W43" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="V43" s="24"/>
+      <c r="W43" s="21"/>
       <c r="X43" s="23"/>
-      <c r="Y43" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z43" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA43" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="23"/>
       <c r="AB43" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC43" s="23"/>
       <c r="AD43" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE43" s="23" t="s">
         <v>27</v>
@@ -4790,103 +4811,93 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
+    <row r="44" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+    </row>
+    <row r="45" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>2</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="S44" s="24">
-        <v>6.0750000000000002</v>
-      </c>
-      <c r="T44" s="24">
-        <v>0</v>
-      </c>
-      <c r="U44" s="24">
-        <v>0</v>
-      </c>
-      <c r="V44" s="24"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC44" s="23"/>
-      <c r="AD44" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE44" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF44" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="12"/>
-    </row>
-    <row r="46" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="S45" s="24">
+        <v>10.75</v>
+      </c>
+      <c r="T45" s="24">
+        <v>0</v>
+      </c>
+      <c r="U45" s="24">
+        <v>0</v>
+      </c>
+      <c r="V45" s="24"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="23"/>
+    </row>
+    <row r="46" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>2</v>
       </c>
@@ -4894,12 +4905,14 @@
         <v>0</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>231</v>
+      </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -4913,7 +4926,7 @@
       <c r="P46" s="22"/>
       <c r="Q46" s="23"/>
       <c r="R46" s="24">
-        <v>0.25</v>
+        <v>3.125</v>
       </c>
       <c r="S46" s="24">
         <v>10.75</v>
@@ -4936,7 +4949,7 @@
       <c r="AE46" s="19"/>
       <c r="AF46" s="23"/>
     </row>
-    <row r="47" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>2</v>
       </c>
@@ -4944,15 +4957,17 @@
         <v>0</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" s="21"/>
+        <v>216</v>
+      </c>
+      <c r="F47" s="32">
+        <v>10</v>
+      </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
@@ -4963,20 +4978,20 @@
       <c r="N47" s="21"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="24">
-        <v>3.125</v>
-      </c>
-      <c r="S47" s="24">
-        <v>10.75</v>
-      </c>
-      <c r="T47" s="24">
-        <v>0</v>
-      </c>
-      <c r="U47" s="24">
-        <v>0</v>
-      </c>
-      <c r="V47" s="24"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="S47" s="26">
+        <v>1.75</v>
+      </c>
+      <c r="T47" s="26">
+        <v>0</v>
+      </c>
+      <c r="U47" s="26">
+        <v>1.125</v>
+      </c>
+      <c r="V47" s="21"/>
       <c r="W47" s="21"/>
       <c r="X47" s="23"/>
       <c r="Y47" s="19"/>
@@ -4988,95 +5003,93 @@
       <c r="AE47" s="19"/>
       <c r="AF47" s="23"/>
     </row>
-    <row r="48" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+    </row>
+    <row r="49" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
         <v>2</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" s="32">
-        <v>10</v>
-      </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="S48" s="26">
-        <v>1.75</v>
-      </c>
-      <c r="T48" s="26">
-        <v>0</v>
-      </c>
-      <c r="U48" s="26">
-        <v>1.125</v>
-      </c>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="23"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="23"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="12"/>
-      <c r="AD49" s="12"/>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="12"/>
+      <c r="B49" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="24">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="S49" s="24">
+        <v>8.0269999999999992</v>
+      </c>
+      <c r="T49" s="24">
+        <v>2.75</v>
+      </c>
+      <c r="U49" s="24">
+        <v>6.1</v>
+      </c>
+      <c r="V49" s="24"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="23"/>
     </row>
     <row r="50" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
@@ -5086,13 +5099,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -5107,16 +5120,16 @@
       <c r="P50" s="22"/>
       <c r="Q50" s="23"/>
       <c r="R50" s="24">
-        <v>0.27900000000000003</v>
+        <v>4.1870000000000003</v>
       </c>
       <c r="S50" s="24">
-        <v>8.0269999999999992</v>
+        <v>4.5</v>
       </c>
       <c r="T50" s="24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U50" s="24">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="24"/>
       <c r="W50" s="21"/>
@@ -5130,95 +5143,101 @@
       <c r="AE50" s="19"/>
       <c r="AF50" s="23"/>
     </row>
-    <row r="51" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+    </row>
+    <row r="52" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
         <v>2</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="24">
-        <v>4.1870000000000003</v>
-      </c>
-      <c r="S51" s="24">
-        <v>4.5</v>
-      </c>
-      <c r="T51" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="U51" s="24">
-        <v>0</v>
-      </c>
-      <c r="V51" s="24"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="23"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="23"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-    </row>
-    <row r="53" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="20">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="S52" s="20">
+        <v>7.25</v>
+      </c>
+      <c r="T52" s="24">
+        <v>0</v>
+      </c>
+      <c r="U52" s="24">
+        <v>0</v>
+      </c>
+      <c r="V52" s="20"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE52" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF52" s="19"/>
+    </row>
+    <row r="53" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>2</v>
       </c>
@@ -5226,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -5247,10 +5266,10 @@
       <c r="P53" s="18"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="20">
-        <v>0.77900000000000003</v>
+        <v>2</v>
       </c>
       <c r="S53" s="20">
-        <v>7.25</v>
+        <v>7.2</v>
       </c>
       <c r="T53" s="24">
         <v>0</v>
@@ -5265,76 +5284,76 @@
       <c r="Z53" s="19"/>
       <c r="AA53" s="23"/>
       <c r="AB53" s="17" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AC53" s="19"/>
       <c r="AD53" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE53" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF53" s="19"/>
     </row>
-    <row r="54" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
+    <row r="54" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
         <v>2</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="20">
-        <v>2</v>
-      </c>
-      <c r="S54" s="20">
-        <v>7.2</v>
-      </c>
-      <c r="T54" s="24">
-        <v>0</v>
-      </c>
-      <c r="U54" s="24">
-        <v>0</v>
-      </c>
-      <c r="V54" s="20"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="19"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC54" s="19"/>
-      <c r="AD54" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE54" s="19" t="s">
+      <c r="B54" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="30">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="S54" s="30">
+        <v>6.625</v>
+      </c>
+      <c r="T54" s="30">
+        <v>0</v>
+      </c>
+      <c r="U54" s="30">
+        <v>0</v>
+      </c>
+      <c r="V54" s="30"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE54" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF54" s="19"/>
-    </row>
-    <row r="55" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF54" s="27"/>
+    </row>
+    <row r="55" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>2</v>
       </c>
@@ -5342,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
@@ -5363,10 +5382,10 @@
       <c r="P55" s="29"/>
       <c r="Q55" s="27"/>
       <c r="R55" s="30">
-        <v>0.77900000000000003</v>
+        <v>2</v>
       </c>
       <c r="S55" s="30">
-        <v>6.625</v>
+        <v>6.55</v>
       </c>
       <c r="T55" s="30">
         <v>0</v>
@@ -5381,76 +5400,76 @@
       <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
       <c r="AB55" s="28" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AC55" s="27"/>
       <c r="AD55" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE55" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF55" s="27"/>
     </row>
-    <row r="56" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="27">
+    <row r="56" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
         <v>2</v>
       </c>
-      <c r="B56" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="30">
-        <v>2</v>
-      </c>
-      <c r="S56" s="30">
-        <v>6.55</v>
-      </c>
-      <c r="T56" s="30">
-        <v>0</v>
-      </c>
-      <c r="U56" s="30">
-        <v>0</v>
-      </c>
-      <c r="V56" s="30"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE56" s="27" t="s">
+      <c r="B56" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="20">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="S56" s="20">
+        <v>6</v>
+      </c>
+      <c r="T56" s="24">
+        <v>0</v>
+      </c>
+      <c r="U56" s="24">
+        <v>0</v>
+      </c>
+      <c r="V56" s="20"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE56" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF56" s="27"/>
-    </row>
-    <row r="57" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF56" s="19"/>
+    </row>
+    <row r="57" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>2</v>
       </c>
@@ -5458,13 +5477,13 @@
         <v>0</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
@@ -5479,10 +5498,10 @@
       <c r="P57" s="18"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="20">
-        <v>0.79800000000000004</v>
+        <v>2</v>
       </c>
       <c r="S57" s="20">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="T57" s="24">
         <v>0</v>
@@ -5497,74 +5516,74 @@
       <c r="Z57" s="19"/>
       <c r="AA57" s="23"/>
       <c r="AB57" s="17" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AC57" s="19"/>
       <c r="AD57" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE57" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF57" s="19"/>
     </row>
-    <row r="58" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
+    <row r="58" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
         <v>2</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="20">
-        <v>2</v>
-      </c>
-      <c r="S58" s="20">
-        <v>5.95</v>
-      </c>
-      <c r="T58" s="24">
-        <v>0</v>
-      </c>
-      <c r="U58" s="24">
-        <v>0</v>
-      </c>
-      <c r="V58" s="20"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="23"/>
-      <c r="AB58" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE58" s="19" t="s">
+      <c r="B58" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="S58" s="30">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="T58" s="30">
+        <v>0</v>
+      </c>
+      <c r="U58" s="30">
+        <v>0</v>
+      </c>
+      <c r="V58" s="30"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE58" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF58" s="19"/>
+      <c r="AF58" s="27"/>
     </row>
     <row r="59" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
@@ -5574,13 +5593,13 @@
         <v>0</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
@@ -5595,7 +5614,7 @@
       <c r="P59" s="29"/>
       <c r="Q59" s="27"/>
       <c r="R59" s="30">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S59" s="30">
         <v>5.3330000000000002</v>
@@ -5613,74 +5632,74 @@
       <c r="Z59" s="27"/>
       <c r="AA59" s="27"/>
       <c r="AB59" s="28" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AC59" s="27"/>
       <c r="AD59" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE59" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF59" s="27"/>
     </row>
-    <row r="60" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27">
+    <row r="60" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
         <v>2</v>
       </c>
-      <c r="B60" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="30">
-        <v>2</v>
-      </c>
-      <c r="S60" s="30">
-        <v>5.3330000000000002</v>
-      </c>
-      <c r="T60" s="30">
-        <v>0</v>
-      </c>
-      <c r="U60" s="30">
-        <v>0</v>
-      </c>
-      <c r="V60" s="30"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE60" s="27" t="s">
+      <c r="B60" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="S60" s="20">
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="T60" s="24">
+        <v>0</v>
+      </c>
+      <c r="U60" s="24">
+        <v>0</v>
+      </c>
+      <c r="V60" s="20"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE60" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF60" s="27"/>
+      <c r="AF60" s="19"/>
     </row>
     <row r="61" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
@@ -5690,13 +5709,13 @@
         <v>0</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -5711,7 +5730,7 @@
       <c r="P61" s="18"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="20">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S61" s="20">
         <v>4.7080000000000002</v>
@@ -5729,74 +5748,74 @@
       <c r="Z61" s="19"/>
       <c r="AA61" s="23"/>
       <c r="AB61" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC61" s="19"/>
       <c r="AD61" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE61" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF61" s="19"/>
     </row>
-    <row r="62" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
+    <row r="62" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="27">
         <v>2</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="20">
-        <v>2</v>
-      </c>
-      <c r="S62" s="20">
-        <v>4.7080000000000002</v>
-      </c>
-      <c r="T62" s="24">
-        <v>0</v>
-      </c>
-      <c r="U62" s="24">
-        <v>0</v>
-      </c>
-      <c r="V62" s="20"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="23"/>
-      <c r="AB62" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE62" s="19" t="s">
+      <c r="B62" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="S62" s="30">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="T62" s="30">
+        <v>0</v>
+      </c>
+      <c r="U62" s="30">
+        <v>0</v>
+      </c>
+      <c r="V62" s="30"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE62" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF62" s="19"/>
+      <c r="AF62" s="27"/>
     </row>
     <row r="63" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
@@ -5809,10 +5828,10 @@
         <v>106</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
@@ -5827,7 +5846,7 @@
       <c r="P63" s="29"/>
       <c r="Q63" s="27"/>
       <c r="R63" s="30">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S63" s="30">
         <v>4.0830000000000002</v>
@@ -5845,74 +5864,76 @@
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
       <c r="AB63" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AC63" s="27"/>
       <c r="AD63" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE63" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF63" s="27"/>
     </row>
-    <row r="64" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27">
+    <row r="64" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
         <v>2</v>
       </c>
-      <c r="B64" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="30">
-        <v>2</v>
-      </c>
-      <c r="S64" s="30">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="T64" s="30">
-        <v>0</v>
-      </c>
-      <c r="U64" s="30">
-        <v>0</v>
-      </c>
-      <c r="V64" s="30"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="28" t="s">
+      <c r="B64" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="AC64" s="27"/>
-      <c r="AD64" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE64" s="27" t="s">
+      <c r="D64" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="S64" s="20">
+        <v>3.375</v>
+      </c>
+      <c r="T64" s="24">
+        <v>0</v>
+      </c>
+      <c r="U64" s="24">
+        <v>0</v>
+      </c>
+      <c r="V64" s="20"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
+      <c r="Z64" s="19"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC64" s="19"/>
+      <c r="AD64" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE64" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF64" s="27"/>
+      <c r="AF64" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="65" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
@@ -5925,10 +5946,10 @@
         <v>107</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
@@ -5943,7 +5964,7 @@
       <c r="P65" s="18"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="20">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S65" s="20">
         <v>3.375</v>
@@ -5961,11 +5982,11 @@
       <c r="Z65" s="19"/>
       <c r="AA65" s="23"/>
       <c r="AB65" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC65" s="19"/>
       <c r="AD65" s="19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AE65" s="19" t="s">
         <v>28</v>
@@ -5974,119 +5995,117 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>2</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="19"/>
+      <c r="B66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="23"/>
       <c r="R66" s="20">
-        <v>2</v>
+        <v>0.308</v>
       </c>
       <c r="S66" s="20">
-        <v>3.375</v>
+        <v>3.87</v>
       </c>
       <c r="T66" s="24">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="U66" s="24">
-        <v>0</v>
-      </c>
-      <c r="V66" s="20"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="19"/>
+        <v>0.45</v>
+      </c>
+      <c r="V66" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W66" s="21"/>
+      <c r="X66" s="23"/>
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
       <c r="AA66" s="23"/>
-      <c r="AB66" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE66" s="19" t="s">
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="23"/>
+      <c r="AF66" s="23"/>
+    </row>
+    <row r="67" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="27">
+        <v>2</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="S67" s="30">
+        <v>2.75</v>
+      </c>
+      <c r="T67" s="30">
+        <v>0</v>
+      </c>
+      <c r="U67" s="30">
+        <v>0</v>
+      </c>
+      <c r="V67" s="30"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE67" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF66" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
-        <v>2</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="20">
-        <v>0.308</v>
-      </c>
-      <c r="S67" s="20">
-        <v>3.87</v>
-      </c>
-      <c r="T67" s="24">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="U67" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="V67" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W67" s="21"/>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="19"/>
-      <c r="Z67" s="19"/>
-      <c r="AA67" s="23"/>
-      <c r="AB67" s="23"/>
-      <c r="AC67" s="23"/>
-      <c r="AD67" s="19"/>
-      <c r="AE67" s="23"/>
-      <c r="AF67" s="23"/>
+      <c r="AF67" s="27"/>
     </row>
     <row r="68" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
@@ -6096,13 +6115,13 @@
         <v>0</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="28"/>
@@ -6117,7 +6136,7 @@
       <c r="P68" s="29"/>
       <c r="Q68" s="27"/>
       <c r="R68" s="30">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S68" s="30">
         <v>2.75</v>
@@ -6135,74 +6154,74 @@
       <c r="Z68" s="27"/>
       <c r="AA68" s="27"/>
       <c r="AB68" s="28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AC68" s="27"/>
       <c r="AD68" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE68" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF68" s="27"/>
     </row>
-    <row r="69" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27">
+    <row r="69" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
         <v>2</v>
       </c>
-      <c r="B69" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="30">
-        <v>2</v>
-      </c>
-      <c r="S69" s="30">
-        <v>2.75</v>
-      </c>
-      <c r="T69" s="30">
-        <v>0</v>
-      </c>
-      <c r="U69" s="30">
-        <v>0</v>
-      </c>
-      <c r="V69" s="30"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC69" s="27"/>
-      <c r="AD69" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE69" s="27" t="s">
+      <c r="B69" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="S69" s="20">
+        <v>2.125</v>
+      </c>
+      <c r="T69" s="24">
+        <v>0</v>
+      </c>
+      <c r="U69" s="24">
+        <v>0</v>
+      </c>
+      <c r="V69" s="20"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE69" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF69" s="27"/>
+      <c r="AF69" s="19"/>
     </row>
     <row r="70" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
@@ -6212,13 +6231,13 @@
         <v>0</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
@@ -6233,7 +6252,7 @@
       <c r="P70" s="18"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="20">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S70" s="20">
         <v>2.125</v>
@@ -6251,168 +6270,168 @@
       <c r="Z70" s="19"/>
       <c r="AA70" s="23"/>
       <c r="AB70" s="17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE70" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF70" s="19"/>
     </row>
-    <row r="71" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
+    <row r="71" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="27">
         <v>2</v>
       </c>
-      <c r="B71" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="17" t="s">
+      <c r="B71" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="20">
+      <c r="E71" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="30">
+        <v>3.25</v>
+      </c>
+      <c r="S71" s="30">
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="T71" s="30">
+        <v>0</v>
+      </c>
+      <c r="U71" s="30">
+        <v>0</v>
+      </c>
+      <c r="V71" s="30"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE71" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF71" s="27"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+    </row>
+    <row r="73" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
         <v>2</v>
       </c>
-      <c r="S71" s="20">
-        <v>2.125</v>
-      </c>
-      <c r="T71" s="24">
-        <v>0</v>
-      </c>
-      <c r="U71" s="24">
-        <v>0</v>
-      </c>
-      <c r="V71" s="20"/>
-      <c r="W71" s="17"/>
-      <c r="X71" s="19"/>
-      <c r="Y71" s="19"/>
-      <c r="Z71" s="19"/>
-      <c r="AA71" s="23"/>
-      <c r="AB71" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC71" s="19"/>
-      <c r="AD71" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE71" s="19" t="s">
+      <c r="B73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="20">
+        <v>3.1709999999999998</v>
+      </c>
+      <c r="S73" s="20">
+        <v>3.427</v>
+      </c>
+      <c r="T73" s="24">
+        <v>0</v>
+      </c>
+      <c r="U73" s="24">
+        <v>0</v>
+      </c>
+      <c r="V73" s="20"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="23"/>
+      <c r="AB73" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC73" s="19"/>
+      <c r="AD73" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE73" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF71" s="19"/>
-    </row>
-    <row r="72" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27">
-        <v>2</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="30">
-        <v>3.25</v>
-      </c>
-      <c r="S72" s="30">
-        <v>4.5030000000000001</v>
-      </c>
-      <c r="T72" s="30">
-        <v>0</v>
-      </c>
-      <c r="U72" s="30">
-        <v>0</v>
-      </c>
-      <c r="V72" s="30"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC72" s="27"/>
-      <c r="AD72" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE72" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF72" s="27"/>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-      <c r="AF73" s="12"/>
+      <c r="AF73" s="19"/>
     </row>
     <row r="74" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
@@ -6422,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
@@ -6446,7 +6465,7 @@
         <v>3.1709999999999998</v>
       </c>
       <c r="S74" s="20">
-        <v>3.427</v>
+        <v>2.677</v>
       </c>
       <c r="T74" s="24">
         <v>0</v>
@@ -6461,127 +6480,119 @@
       <c r="Z74" s="19"/>
       <c r="AA74" s="23"/>
       <c r="AB74" s="17" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE74" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF74" s="19"/>
     </row>
-    <row r="75" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="12"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+    </row>
+    <row r="76" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
         <v>2</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="20">
-        <v>3.1709999999999998</v>
-      </c>
-      <c r="S75" s="20">
-        <v>2.677</v>
-      </c>
-      <c r="T75" s="24">
-        <v>0</v>
-      </c>
-      <c r="U75" s="24">
-        <v>0</v>
-      </c>
-      <c r="V75" s="20"/>
-      <c r="W75" s="17"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="19"/>
-      <c r="Z75" s="19"/>
-      <c r="AA75" s="23"/>
-      <c r="AB75" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC75" s="19"/>
-      <c r="AD75" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE75" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF75" s="19"/>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="12"/>
-      <c r="Z76" s="12"/>
-      <c r="AA76" s="12"/>
-      <c r="AB76" s="12"/>
-      <c r="AC76" s="12"/>
-      <c r="AD76" s="12"/>
-      <c r="AE76" s="12"/>
-      <c r="AF76" s="12"/>
+      <c r="B76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="24">
+        <v>4.7779999999999996</v>
+      </c>
+      <c r="S76" s="24">
+        <v>8.0269999999999992</v>
+      </c>
+      <c r="T76" s="24">
+        <v>2.75</v>
+      </c>
+      <c r="U76" s="24">
+        <v>6.1</v>
+      </c>
+      <c r="V76" s="24"/>
+      <c r="W76" s="21"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="19"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="23"/>
+      <c r="AB76" s="23"/>
+      <c r="AC76" s="23"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="19"/>
+      <c r="AF76" s="23"/>
     </row>
     <row r="77" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
-        <v>2</v>
+      <c r="A77" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>160</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E77" s="21"/>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
@@ -6595,16 +6606,16 @@
       <c r="P77" s="22"/>
       <c r="Q77" s="23"/>
       <c r="R77" s="24">
-        <v>4.7779999999999996</v>
+        <v>7.4059999999999997</v>
       </c>
       <c r="S77" s="24">
-        <v>8.0269999999999992</v>
+        <v>8.6869999999999994</v>
       </c>
       <c r="T77" s="24">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="U77" s="24">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="V77" s="24"/>
       <c r="W77" s="21"/>
@@ -6618,93 +6629,101 @@
       <c r="AE77" s="19"/>
       <c r="AF77" s="23"/>
     </row>
-    <row r="78" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="21" t="s">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="12"/>
+      <c r="AD78" s="12"/>
+      <c r="AE78" s="12"/>
+      <c r="AF78" s="12"/>
+    </row>
+    <row r="79" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
+        <v>2</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="24">
-        <v>7.4059999999999997</v>
-      </c>
-      <c r="S78" s="24">
-        <v>8.6869999999999994</v>
-      </c>
-      <c r="T78" s="24">
-        <v>0</v>
-      </c>
-      <c r="U78" s="24">
-        <v>0</v>
-      </c>
-      <c r="V78" s="24"/>
-      <c r="W78" s="21"/>
-      <c r="X78" s="23"/>
-      <c r="Y78" s="19"/>
-      <c r="Z78" s="19"/>
-      <c r="AA78" s="23"/>
-      <c r="AB78" s="23"/>
-      <c r="AC78" s="23"/>
-      <c r="AD78" s="19"/>
-      <c r="AE78" s="19"/>
-      <c r="AF78" s="23"/>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="12"/>
-      <c r="Y79" s="12"/>
-      <c r="Z79" s="12"/>
-      <c r="AA79" s="12"/>
-      <c r="AB79" s="12"/>
-      <c r="AC79" s="12"/>
-      <c r="AD79" s="12"/>
-      <c r="AE79" s="12"/>
-      <c r="AF79" s="12"/>
-    </row>
-    <row r="80" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="20">
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="S79" s="20">
+        <v>7.25</v>
+      </c>
+      <c r="T79" s="24">
+        <v>0</v>
+      </c>
+      <c r="U79" s="24">
+        <v>0</v>
+      </c>
+      <c r="V79" s="20"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="19"/>
+      <c r="Y79" s="19"/>
+      <c r="Z79" s="19"/>
+      <c r="AA79" s="23"/>
+      <c r="AB79" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC79" s="19"/>
+      <c r="AD79" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE79" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF79" s="19"/>
+    </row>
+    <row r="80" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>2</v>
       </c>
@@ -6712,13 +6731,13 @@
         <v>0</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
@@ -6733,10 +6752,10 @@
       <c r="P80" s="18"/>
       <c r="Q80" s="19"/>
       <c r="R80" s="20">
-        <v>7.7240000000000002</v>
+        <v>6.6</v>
       </c>
       <c r="S80" s="20">
-        <v>7.25</v>
+        <v>7.2</v>
       </c>
       <c r="T80" s="24">
         <v>0</v>
@@ -6751,76 +6770,76 @@
       <c r="Z80" s="19"/>
       <c r="AA80" s="23"/>
       <c r="AB80" s="17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE80" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF80" s="19"/>
     </row>
-    <row r="81" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
+    <row r="81" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="27">
         <v>2</v>
       </c>
-      <c r="B81" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="17" t="s">
+      <c r="B81" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="30">
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="S81" s="30">
+        <v>6.625</v>
+      </c>
+      <c r="T81" s="30">
+        <v>0</v>
+      </c>
+      <c r="U81" s="30">
+        <v>0</v>
+      </c>
+      <c r="V81" s="30"/>
+      <c r="W81" s="28"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="S81" s="20">
-        <v>7.2</v>
-      </c>
-      <c r="T81" s="24">
-        <v>0</v>
-      </c>
-      <c r="U81" s="24">
-        <v>0</v>
-      </c>
-      <c r="V81" s="20"/>
-      <c r="W81" s="17"/>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="19"/>
-      <c r="Z81" s="19"/>
-      <c r="AA81" s="23"/>
-      <c r="AB81" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC81" s="19"/>
-      <c r="AD81" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE81" s="19" t="s">
+      <c r="AC81" s="27"/>
+      <c r="AD81" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE81" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF81" s="19"/>
-    </row>
-    <row r="82" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF81" s="27"/>
+    </row>
+    <row r="82" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="27">
         <v>2</v>
       </c>
@@ -6828,13 +6847,13 @@
         <v>0</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
@@ -6849,10 +6868,10 @@
       <c r="P82" s="29"/>
       <c r="Q82" s="27"/>
       <c r="R82" s="30">
-        <v>7.7240000000000002</v>
+        <v>6.6</v>
       </c>
       <c r="S82" s="30">
-        <v>6.625</v>
+        <v>6.55</v>
       </c>
       <c r="T82" s="30">
         <v>0</v>
@@ -6867,76 +6886,76 @@
       <c r="Z82" s="27"/>
       <c r="AA82" s="27"/>
       <c r="AB82" s="28" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="AC82" s="27"/>
       <c r="AD82" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE82" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF82" s="27"/>
     </row>
-    <row r="83" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="27">
+    <row r="83" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
         <v>2</v>
       </c>
-      <c r="B83" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="28" t="s">
+      <c r="B83" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="20">
+        <v>7.7229999999999999</v>
+      </c>
+      <c r="S83" s="20">
+        <v>6</v>
+      </c>
+      <c r="T83" s="24">
+        <v>0</v>
+      </c>
+      <c r="U83" s="24">
+        <v>0</v>
+      </c>
+      <c r="V83" s="20"/>
+      <c r="W83" s="17"/>
+      <c r="X83" s="19"/>
+      <c r="Y83" s="19"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D83" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="30">
-        <v>6.6</v>
-      </c>
-      <c r="S83" s="30">
-        <v>6.55</v>
-      </c>
-      <c r="T83" s="30">
-        <v>0</v>
-      </c>
-      <c r="U83" s="30">
-        <v>0</v>
-      </c>
-      <c r="V83" s="30"/>
-      <c r="W83" s="28"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="27"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC83" s="27"/>
-      <c r="AD83" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE83" s="27" t="s">
+      <c r="AC83" s="19"/>
+      <c r="AD83" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE83" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF83" s="27"/>
-    </row>
-    <row r="84" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF83" s="19"/>
+    </row>
+    <row r="84" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>2</v>
       </c>
@@ -6944,13 +6963,13 @@
         <v>0</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
@@ -6965,10 +6984,10 @@
       <c r="P84" s="18"/>
       <c r="Q84" s="19"/>
       <c r="R84" s="20">
-        <v>7.7229999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="S84" s="20">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="T84" s="24">
         <v>0</v>
@@ -6983,74 +7002,74 @@
       <c r="Z84" s="19"/>
       <c r="AA84" s="23"/>
       <c r="AB84" s="17" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AC84" s="19"/>
       <c r="AD84" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE84" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF84" s="19"/>
     </row>
-    <row r="85" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
+    <row r="85" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="27">
         <v>2</v>
       </c>
-      <c r="B85" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="17" t="s">
+      <c r="B85" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="30">
+        <v>7.75</v>
+      </c>
+      <c r="S85" s="30">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="T85" s="30">
+        <v>0</v>
+      </c>
+      <c r="U85" s="30">
+        <v>0</v>
+      </c>
+      <c r="V85" s="30"/>
+      <c r="W85" s="28"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="S85" s="20">
-        <v>5.95</v>
-      </c>
-      <c r="T85" s="24">
-        <v>0</v>
-      </c>
-      <c r="U85" s="24">
-        <v>0</v>
-      </c>
-      <c r="V85" s="20"/>
-      <c r="W85" s="17"/>
-      <c r="X85" s="19"/>
-      <c r="Y85" s="19"/>
-      <c r="Z85" s="19"/>
-      <c r="AA85" s="23"/>
-      <c r="AB85" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC85" s="19"/>
-      <c r="AD85" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE85" s="19" t="s">
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE85" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF85" s="19"/>
+      <c r="AF85" s="27"/>
     </row>
     <row r="86" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27">
@@ -7060,13 +7079,13 @@
         <v>0</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
@@ -7081,7 +7100,7 @@
       <c r="P86" s="29"/>
       <c r="Q86" s="27"/>
       <c r="R86" s="30">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S86" s="30">
         <v>5.3330000000000002</v>
@@ -7099,74 +7118,74 @@
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
       <c r="AB86" s="28" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AC86" s="27"/>
       <c r="AD86" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE86" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF86" s="27"/>
     </row>
-    <row r="87" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27">
+    <row r="87" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23">
         <v>2</v>
       </c>
-      <c r="B87" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="30">
-        <v>6.6</v>
-      </c>
-      <c r="S87" s="30">
-        <v>5.3330000000000002</v>
-      </c>
-      <c r="T87" s="30">
-        <v>0</v>
-      </c>
-      <c r="U87" s="30">
-        <v>0</v>
-      </c>
-      <c r="V87" s="30"/>
-      <c r="W87" s="28"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE87" s="27" t="s">
+      <c r="B87" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="20">
+        <v>7.75</v>
+      </c>
+      <c r="S87" s="20">
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="T87" s="24">
+        <v>0</v>
+      </c>
+      <c r="U87" s="24">
+        <v>0</v>
+      </c>
+      <c r="V87" s="20"/>
+      <c r="W87" s="17"/>
+      <c r="X87" s="19"/>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC87" s="19"/>
+      <c r="AD87" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE87" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF87" s="27"/>
+      <c r="AF87" s="19"/>
     </row>
     <row r="88" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
@@ -7179,10 +7198,10 @@
         <v>145</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -7197,7 +7216,7 @@
       <c r="P88" s="18"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="20">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S88" s="20">
         <v>4.7080000000000002</v>
@@ -7215,74 +7234,74 @@
       <c r="Z88" s="19"/>
       <c r="AA88" s="23"/>
       <c r="AB88" s="17" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AC88" s="19"/>
       <c r="AD88" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE88" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF88" s="19"/>
     </row>
-    <row r="89" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
+    <row r="89" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="27">
         <v>2</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="17" t="s">
+      <c r="B89" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="30">
+        <v>7.75</v>
+      </c>
+      <c r="S89" s="30">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="T89" s="30">
+        <v>0</v>
+      </c>
+      <c r="U89" s="30">
+        <v>0</v>
+      </c>
+      <c r="V89" s="30"/>
+      <c r="W89" s="28"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D89" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="S89" s="20">
-        <v>4.7080000000000002</v>
-      </c>
-      <c r="T89" s="24">
-        <v>0</v>
-      </c>
-      <c r="U89" s="24">
-        <v>0</v>
-      </c>
-      <c r="V89" s="20"/>
-      <c r="W89" s="17"/>
-      <c r="X89" s="19"/>
-      <c r="Y89" s="19"/>
-      <c r="Z89" s="19"/>
-      <c r="AA89" s="23"/>
-      <c r="AB89" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC89" s="19"/>
-      <c r="AD89" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE89" s="19" t="s">
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE89" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF89" s="19"/>
+      <c r="AF89" s="27"/>
     </row>
     <row r="90" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
@@ -7292,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F90" s="28"/>
       <c r="G90" s="28"/>
@@ -7313,7 +7332,7 @@
       <c r="P90" s="29"/>
       <c r="Q90" s="27"/>
       <c r="R90" s="30">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S90" s="30">
         <v>4.0830000000000002</v>
@@ -7331,74 +7350,76 @@
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
       <c r="AB90" s="28" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AC90" s="27"/>
       <c r="AD90" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE90" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF90" s="27"/>
     </row>
-    <row r="91" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="27">
+    <row r="91" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="23">
         <v>2</v>
       </c>
-      <c r="B91" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="28" t="s">
+      <c r="B91" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="20">
+        <v>7.75</v>
+      </c>
+      <c r="S91" s="20">
+        <v>3.375</v>
+      </c>
+      <c r="T91" s="24">
+        <v>0</v>
+      </c>
+      <c r="U91" s="24">
+        <v>0</v>
+      </c>
+      <c r="V91" s="20"/>
+      <c r="W91" s="17"/>
+      <c r="X91" s="19"/>
+      <c r="Y91" s="19"/>
+      <c r="Z91" s="19"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="30">
-        <v>6.6</v>
-      </c>
-      <c r="S91" s="30">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="T91" s="30">
-        <v>0</v>
-      </c>
-      <c r="U91" s="30">
-        <v>0</v>
-      </c>
-      <c r="V91" s="30"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE91" s="27" t="s">
+      <c r="AC91" s="19"/>
+      <c r="AD91" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE91" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF91" s="27"/>
+      <c r="AF91" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="92" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
@@ -7408,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
@@ -7429,7 +7450,7 @@
       <c r="P92" s="18"/>
       <c r="Q92" s="19"/>
       <c r="R92" s="20">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S92" s="20">
         <v>3.375</v>
@@ -7447,11 +7468,11 @@
       <c r="Z92" s="19"/>
       <c r="AA92" s="23"/>
       <c r="AB92" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AC92" s="19"/>
       <c r="AD92" s="19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AE92" s="19" t="s">
         <v>28</v>
@@ -7460,119 +7481,117 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>2</v>
       </c>
-      <c r="B93" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
-      <c r="Q93" s="19"/>
+      <c r="B93" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="23"/>
       <c r="R93" s="20">
-        <v>6.6</v>
+        <v>6.08</v>
       </c>
       <c r="S93" s="20">
-        <v>3.375</v>
+        <v>3.87</v>
       </c>
       <c r="T93" s="24">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="U93" s="24">
-        <v>0</v>
-      </c>
-      <c r="V93" s="20"/>
-      <c r="W93" s="17"/>
-      <c r="X93" s="19"/>
+        <v>0.45</v>
+      </c>
+      <c r="V93" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W93" s="21"/>
+      <c r="X93" s="23"/>
       <c r="Y93" s="19"/>
       <c r="Z93" s="19"/>
       <c r="AA93" s="23"/>
-      <c r="AB93" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC93" s="19"/>
-      <c r="AD93" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE93" s="19" t="s">
+      <c r="AB93" s="23"/>
+      <c r="AC93" s="23"/>
+      <c r="AD93" s="19"/>
+      <c r="AE93" s="23"/>
+      <c r="AF93" s="23"/>
+    </row>
+    <row r="94" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="27">
+        <v>2</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="30">
+        <v>7.75</v>
+      </c>
+      <c r="S94" s="30">
+        <v>2.75</v>
+      </c>
+      <c r="T94" s="30">
+        <v>0</v>
+      </c>
+      <c r="U94" s="30">
+        <v>0</v>
+      </c>
+      <c r="V94" s="30"/>
+      <c r="W94" s="28"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE94" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF93" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23">
-        <v>2</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="22"/>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="23"/>
-      <c r="R94" s="20">
-        <v>6.08</v>
-      </c>
-      <c r="S94" s="20">
-        <v>3.87</v>
-      </c>
-      <c r="T94" s="24">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="U94" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="V94" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W94" s="21"/>
-      <c r="X94" s="23"/>
-      <c r="Y94" s="19"/>
-      <c r="Z94" s="19"/>
-      <c r="AA94" s="23"/>
-      <c r="AB94" s="23"/>
-      <c r="AC94" s="23"/>
-      <c r="AD94" s="19"/>
-      <c r="AE94" s="23"/>
-      <c r="AF94" s="23"/>
+      <c r="AF94" s="27"/>
     </row>
     <row r="95" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27">
@@ -7582,13 +7601,13 @@
         <v>0</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
@@ -7603,7 +7622,7 @@
       <c r="P95" s="29"/>
       <c r="Q95" s="27"/>
       <c r="R95" s="30">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S95" s="30">
         <v>2.75</v>
@@ -7621,74 +7640,74 @@
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
       <c r="AB95" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC95" s="27"/>
       <c r="AD95" s="27" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE95" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF95" s="27"/>
     </row>
-    <row r="96" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27">
+    <row r="96" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23">
         <v>2</v>
       </c>
-      <c r="B96" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="28" t="s">
+      <c r="B96" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="20">
+        <v>7.75</v>
+      </c>
+      <c r="S96" s="20">
+        <v>2.125</v>
+      </c>
+      <c r="T96" s="24">
+        <v>0</v>
+      </c>
+      <c r="U96" s="24">
+        <v>0</v>
+      </c>
+      <c r="V96" s="20"/>
+      <c r="W96" s="17"/>
+      <c r="X96" s="19"/>
+      <c r="Y96" s="19"/>
+      <c r="Z96" s="19"/>
+      <c r="AA96" s="23"/>
+      <c r="AB96" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D96" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="28"/>
-      <c r="O96" s="29"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="27"/>
-      <c r="R96" s="30">
-        <v>6.6</v>
-      </c>
-      <c r="S96" s="30">
-        <v>2.75</v>
-      </c>
-      <c r="T96" s="30">
-        <v>0</v>
-      </c>
-      <c r="U96" s="30">
-        <v>0</v>
-      </c>
-      <c r="V96" s="30"/>
-      <c r="W96" s="28"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE96" s="27" t="s">
+      <c r="AC96" s="19"/>
+      <c r="AD96" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE96" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF96" s="27"/>
+      <c r="AF96" s="19"/>
     </row>
     <row r="97" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
@@ -7698,13 +7717,13 @@
         <v>0</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
@@ -7719,7 +7738,7 @@
       <c r="P97" s="18"/>
       <c r="Q97" s="19"/>
       <c r="R97" s="20">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S97" s="20">
         <v>2.125</v>
@@ -7737,168 +7756,168 @@
       <c r="Z97" s="19"/>
       <c r="AA97" s="23"/>
       <c r="AB97" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC97" s="19"/>
       <c r="AD97" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE97" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF97" s="19"/>
     </row>
-    <row r="98" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23">
+    <row r="98" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="27">
         <v>2</v>
       </c>
-      <c r="B98" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D98" s="17" t="s">
+      <c r="B98" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="19"/>
-      <c r="R98" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="S98" s="20">
-        <v>2.125</v>
-      </c>
-      <c r="T98" s="24">
-        <v>0</v>
-      </c>
-      <c r="U98" s="24">
-        <v>0</v>
-      </c>
-      <c r="V98" s="20"/>
-      <c r="W98" s="17"/>
-      <c r="X98" s="19"/>
-      <c r="Y98" s="19"/>
-      <c r="Z98" s="19"/>
-      <c r="AA98" s="23"/>
-      <c r="AB98" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC98" s="19"/>
-      <c r="AD98" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE98" s="19" t="s">
+      <c r="E98" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="27"/>
+      <c r="R98" s="30">
+        <v>5.3</v>
+      </c>
+      <c r="S98" s="30">
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="T98" s="30">
+        <v>0</v>
+      </c>
+      <c r="U98" s="30">
+        <v>0</v>
+      </c>
+      <c r="V98" s="30"/>
+      <c r="W98" s="28"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="27"/>
+      <c r="AA98" s="27"/>
+      <c r="AB98" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC98" s="27"/>
+      <c r="AD98" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE98" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF98" s="27"/>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12"/>
+      <c r="AC99" s="12"/>
+      <c r="AD99" s="12"/>
+      <c r="AE99" s="12"/>
+      <c r="AF99" s="12"/>
+    </row>
+    <row r="100" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="23">
+        <v>2</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="20">
+        <v>5.3879999999999999</v>
+      </c>
+      <c r="S100" s="20">
+        <v>3.427</v>
+      </c>
+      <c r="T100" s="24">
+        <v>0</v>
+      </c>
+      <c r="U100" s="24">
+        <v>0</v>
+      </c>
+      <c r="V100" s="20"/>
+      <c r="W100" s="17"/>
+      <c r="X100" s="19"/>
+      <c r="Y100" s="19"/>
+      <c r="Z100" s="19"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC100" s="19"/>
+      <c r="AD100" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE100" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF98" s="19"/>
-    </row>
-    <row r="99" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="27">
-        <v>2</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28"/>
-      <c r="N99" s="28"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="27"/>
-      <c r="R99" s="30">
-        <v>5.3</v>
-      </c>
-      <c r="S99" s="30">
-        <v>4.5030000000000001</v>
-      </c>
-      <c r="T99" s="30">
-        <v>0</v>
-      </c>
-      <c r="U99" s="30">
-        <v>0</v>
-      </c>
-      <c r="V99" s="30"/>
-      <c r="W99" s="28"/>
-      <c r="X99" s="27"/>
-      <c r="Y99" s="27"/>
-      <c r="Z99" s="27"/>
-      <c r="AA99" s="27"/>
-      <c r="AB99" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC99" s="27"/>
-      <c r="AD99" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE99" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF99" s="27"/>
-    </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="13"/>
-      <c r="V100" s="13"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="12"/>
-      <c r="Y100" s="12"/>
-      <c r="Z100" s="12"/>
-      <c r="AA100" s="12"/>
-      <c r="AB100" s="12"/>
-      <c r="AC100" s="12"/>
-      <c r="AD100" s="12"/>
-      <c r="AE100" s="12"/>
-      <c r="AF100" s="12"/>
+      <c r="AF100" s="19"/>
     </row>
     <row r="101" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
@@ -7908,13 +7927,13 @@
         <v>0</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
@@ -7929,10 +7948,10 @@
       <c r="P101" s="18"/>
       <c r="Q101" s="19"/>
       <c r="R101" s="20">
-        <v>5.3879999999999999</v>
+        <v>5.4480000000000004</v>
       </c>
       <c r="S101" s="20">
-        <v>3.427</v>
+        <v>2.677</v>
       </c>
       <c r="T101" s="24">
         <v>0</v>
@@ -7947,208 +7966,206 @@
       <c r="Z101" s="19"/>
       <c r="AA101" s="23"/>
       <c r="AB101" s="17" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="AC101" s="19"/>
       <c r="AD101" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE101" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF101" s="19"/>
     </row>
-    <row r="102" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="23">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="13"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
+      <c r="AC102" s="12"/>
+      <c r="AD102" s="12"/>
+      <c r="AE102" s="12"/>
+      <c r="AF102" s="12"/>
+    </row>
+    <row r="103" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="23">
         <v>2</v>
       </c>
-      <c r="B102" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="20">
-        <v>5.4480000000000004</v>
-      </c>
-      <c r="S102" s="20">
-        <v>2.677</v>
-      </c>
-      <c r="T102" s="24">
-        <v>0</v>
-      </c>
-      <c r="U102" s="24">
-        <v>0</v>
-      </c>
-      <c r="V102" s="20"/>
-      <c r="W102" s="17"/>
-      <c r="X102" s="19"/>
-      <c r="Y102" s="19"/>
-      <c r="Z102" s="19"/>
-      <c r="AA102" s="23"/>
-      <c r="AB102" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC102" s="19"/>
-      <c r="AD102" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE102" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF102" s="19"/>
-    </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10"/>
-      <c r="O103" s="11"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="13"/>
-      <c r="S103" s="13"/>
-      <c r="T103" s="13"/>
-      <c r="U103" s="13"/>
-      <c r="V103" s="13"/>
-      <c r="W103" s="10"/>
-      <c r="X103" s="12"/>
-      <c r="Y103" s="12"/>
-      <c r="Z103" s="12"/>
-      <c r="AA103" s="12"/>
-      <c r="AB103" s="12"/>
-      <c r="AC103" s="12"/>
-      <c r="AD103" s="12"/>
-      <c r="AE103" s="12"/>
-      <c r="AF103" s="12"/>
-    </row>
-    <row r="104" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="23">
-        <v>2</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D104" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F104" s="32">
+      <c r="B103" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" s="32">
         <v>10</v>
       </c>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="22"/>
-      <c r="Q104" s="23"/>
-      <c r="R104" s="24">
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="24">
         <v>0.375</v>
       </c>
-      <c r="S104" s="24">
+      <c r="S103" s="24">
         <v>9.5519999999999996</v>
       </c>
-      <c r="T104" s="24">
+      <c r="T103" s="24">
         <v>1.75</v>
       </c>
-      <c r="U104" s="24">
+      <c r="U103" s="24">
         <v>0.5</v>
       </c>
-      <c r="V104" s="24"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="23"/>
-      <c r="Y104" s="19"/>
-      <c r="Z104" s="19"/>
-      <c r="AA104" s="23"/>
-      <c r="AB104" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC104" s="23"/>
-      <c r="AD104" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE104" s="19" t="s">
+      <c r="V103" s="24"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="19"/>
+      <c r="Z103" s="19"/>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE103" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AF104" s="23" t="s">
+      <c r="AF103" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+      <c r="U104" s="13"/>
+      <c r="V104" s="13"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="12"/>
+      <c r="AC104" s="12"/>
+      <c r="AD104" s="12"/>
+      <c r="AE104" s="12"/>
+      <c r="AF104" s="12"/>
+    </row>
+    <row r="105" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="39">
+        <v>1</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
-      <c r="U105" s="13"/>
-      <c r="V105" s="13"/>
-      <c r="W105" s="10"/>
-      <c r="X105" s="12"/>
-      <c r="Y105" s="12"/>
-      <c r="Z105" s="12"/>
-      <c r="AA105" s="12"/>
-      <c r="AB105" s="12"/>
-      <c r="AC105" s="12"/>
-      <c r="AD105" s="12"/>
-      <c r="AE105" s="12"/>
-      <c r="AF105" s="12"/>
+      <c r="D105" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E105" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F105" s="41">
+        <v>8</v>
+      </c>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="40"/>
+      <c r="N105" s="40"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="42"/>
+      <c r="Q105" s="39"/>
+      <c r="R105" s="43">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="S105" s="43">
+        <v>5</v>
+      </c>
+      <c r="T105" s="43">
+        <v>0</v>
+      </c>
+      <c r="U105" s="43">
+        <v>0</v>
+      </c>
+      <c r="V105" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="W105" s="40"/>
+      <c r="X105" s="39"/>
+      <c r="Y105" s="39"/>
+      <c r="Z105" s="39"/>
+      <c r="AA105" s="39"/>
+      <c r="AB105" s="39"/>
+      <c r="AC105" s="39"/>
+      <c r="AD105" s="39"/>
+      <c r="AE105" s="39"/>
+      <c r="AF105" s="39"/>
     </row>
     <row r="106" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
@@ -8158,13 +8175,13 @@
         <v>0</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F106" s="41">
         <v>8</v>
@@ -8181,7 +8198,7 @@
       <c r="P106" s="42"/>
       <c r="Q106" s="39"/>
       <c r="R106" s="43">
-        <v>4.1749999999999998</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="S106" s="43">
         <v>5</v>
@@ -8214,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E107" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F107" s="41">
         <v>8</v>
@@ -8237,13 +8254,13 @@
       <c r="P107" s="42"/>
       <c r="Q107" s="39"/>
       <c r="R107" s="43">
-        <v>5.1749999999999998</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="S107" s="43">
         <v>5</v>
       </c>
       <c r="T107" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U107" s="43">
         <v>0</v>
@@ -8263,60 +8280,58 @@
       <c r="AF107" s="39"/>
     </row>
     <row r="108" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="39">
+      <c r="A108" s="23">
         <v>1</v>
       </c>
-      <c r="B108" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D108" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="E108" s="41" t="s">
+      <c r="B108" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E108" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="F108" s="41">
+      <c r="F108" s="32">
         <v>8</v>
       </c>
-      <c r="G108" s="40"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="40"/>
-      <c r="L108" s="40"/>
-      <c r="M108" s="40"/>
-      <c r="N108" s="40"/>
-      <c r="O108" s="42"/>
-      <c r="P108" s="42"/>
-      <c r="Q108" s="39"/>
-      <c r="R108" s="43">
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="S108" s="43">
-        <v>5</v>
-      </c>
-      <c r="T108" s="43">
-        <v>1</v>
-      </c>
-      <c r="U108" s="43">
-        <v>0</v>
-      </c>
-      <c r="V108" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="W108" s="40"/>
-      <c r="X108" s="39"/>
-      <c r="Y108" s="39"/>
-      <c r="Z108" s="39"/>
-      <c r="AA108" s="39"/>
-      <c r="AB108" s="39"/>
-      <c r="AC108" s="39"/>
-      <c r="AD108" s="39"/>
-      <c r="AE108" s="39"/>
-      <c r="AF108" s="39"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="23"/>
+      <c r="R108" s="24">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="S108" s="24">
+        <v>4.75</v>
+      </c>
+      <c r="T108" s="24">
+        <v>0</v>
+      </c>
+      <c r="U108" s="24">
+        <v>0</v>
+      </c>
+      <c r="V108" s="24"/>
+      <c r="W108" s="21"/>
+      <c r="X108" s="23"/>
+      <c r="Y108" s="19"/>
+      <c r="Z108" s="19"/>
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="19"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="19"/>
+      <c r="AE108" s="19"/>
+      <c r="AF108" s="23"/>
     </row>
     <row r="109" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
@@ -8326,13 +8341,13 @@
         <v>0</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="F109" s="32">
         <v>8</v>
@@ -8349,7 +8364,7 @@
       <c r="P109" s="22"/>
       <c r="Q109" s="23"/>
       <c r="R109" s="24">
-        <v>4.1749999999999998</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="S109" s="24">
         <v>4.75</v>
@@ -8380,13 +8395,13 @@
         <v>0</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F110" s="32">
         <v>8</v>
@@ -8403,13 +8418,13 @@
       <c r="P110" s="22"/>
       <c r="Q110" s="23"/>
       <c r="R110" s="24">
-        <v>5.1749999999999998</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="S110" s="24">
         <v>4.75</v>
       </c>
       <c r="T110" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110" s="24">
         <v>0</v>
@@ -8427,58 +8442,60 @@
       <c r="AF110" s="23"/>
     </row>
     <row r="111" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="23">
+      <c r="A111" s="39">
         <v>1</v>
       </c>
-      <c r="B111" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="F111" s="32">
+      <c r="B111" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D111" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E111" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F111" s="41">
         <v>8</v>
       </c>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
-      <c r="J111" s="21"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="21"/>
-      <c r="M111" s="21"/>
-      <c r="N111" s="21"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="23"/>
-      <c r="R111" s="24">
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="S111" s="24">
-        <v>4.75</v>
-      </c>
-      <c r="T111" s="24">
-        <v>1</v>
-      </c>
-      <c r="U111" s="24">
-        <v>0</v>
-      </c>
-      <c r="V111" s="24"/>
-      <c r="W111" s="21"/>
-      <c r="X111" s="23"/>
-      <c r="Y111" s="19"/>
-      <c r="Z111" s="19"/>
-      <c r="AA111" s="23"/>
-      <c r="AB111" s="19"/>
-      <c r="AC111" s="23"/>
-      <c r="AD111" s="19"/>
-      <c r="AE111" s="19"/>
-      <c r="AF111" s="23"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="40"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+      <c r="N111" s="40"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="39"/>
+      <c r="R111" s="43">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="S111" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="T111" s="43">
+        <v>0</v>
+      </c>
+      <c r="U111" s="43">
+        <v>0</v>
+      </c>
+      <c r="V111" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="W111" s="40"/>
+      <c r="X111" s="39"/>
+      <c r="Y111" s="39"/>
+      <c r="Z111" s="39"/>
+      <c r="AA111" s="39"/>
+      <c r="AB111" s="39"/>
+      <c r="AC111" s="39"/>
+      <c r="AD111" s="39"/>
+      <c r="AE111" s="39"/>
+      <c r="AF111" s="39"/>
     </row>
     <row r="112" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
@@ -8488,13 +8505,13 @@
         <v>0</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E112" s="41" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="F112" s="41">
         <v>8</v>
@@ -8511,7 +8528,7 @@
       <c r="P112" s="42"/>
       <c r="Q112" s="39"/>
       <c r="R112" s="43">
-        <v>4.1749999999999998</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="S112" s="43">
         <v>4.5</v>
@@ -8523,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="V112" s="43" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W112" s="40"/>
       <c r="X112" s="39"/>
@@ -8544,13 +8561,13 @@
         <v>0</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="F113" s="41">
         <v>8</v>
@@ -8567,19 +8584,19 @@
       <c r="P113" s="42"/>
       <c r="Q113" s="39"/>
       <c r="R113" s="43">
-        <v>5.1749999999999998</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="S113" s="43">
         <v>4.5</v>
       </c>
       <c r="T113" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U113" s="43">
         <v>0</v>
       </c>
       <c r="V113" s="43" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W113" s="40"/>
       <c r="X113" s="39"/>
@@ -8592,62 +8609,6 @@
       <c r="AE113" s="39"/>
       <c r="AF113" s="39"/>
     </row>
-    <row r="114" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="39">
-        <v>1</v>
-      </c>
-      <c r="B114" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="D114" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="E114" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F114" s="41">
-        <v>8</v>
-      </c>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="40"/>
-      <c r="L114" s="40"/>
-      <c r="M114" s="40"/>
-      <c r="N114" s="40"/>
-      <c r="O114" s="42"/>
-      <c r="P114" s="42"/>
-      <c r="Q114" s="39"/>
-      <c r="R114" s="43">
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="S114" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="T114" s="43">
-        <v>1</v>
-      </c>
-      <c r="U114" s="43">
-        <v>0</v>
-      </c>
-      <c r="V114" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="W114" s="40"/>
-      <c r="X114" s="39"/>
-      <c r="Y114" s="39"/>
-      <c r="Z114" s="39"/>
-      <c r="AA114" s="39"/>
-      <c r="AB114" s="39"/>
-      <c r="AC114" s="39"/>
-      <c r="AD114" s="39"/>
-      <c r="AE114" s="39"/>
-      <c r="AF114" s="39"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8655,41 +8616,41 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5EA153F9-C5B8-4862-A9CE-AB94CB69D12A}">
+          <x14:formula1>
+            <xm:f>Tables!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>V114:V144</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{84DDF0C9-6F1B-446E-8995-2373E65B88E2}">
           <x14:formula1>
             <xm:f>Tables!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AE2:AE114 Z2:Z114</xm:sqref>
+          <xm:sqref>Z2:Z113 AE2:AE113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7E235E07-1A6D-41FA-8E32-72A730AFA7A4}">
           <x14:formula1>
             <xm:f>Tables!$E$2:$E$16</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F114</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5EA153F9-C5B8-4862-A9CE-AB94CB69D12A}">
-          <x14:formula1>
-            <xm:f>Tables!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>V115:V145</xm:sqref>
+          <xm:sqref>F2:F113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{CB9126B2-6946-4B52-89A3-562F1BE6DC4E}">
           <x14:formula1>
             <xm:f>Tables!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>V2:V114 AF2:AF114 AA2:AA114</xm:sqref>
+          <xm:sqref>AA2:AA113 AF2:AF113 V2:V113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{D07B0AA9-91AB-4733-9EAB-5035421C071A}">
           <x14:formula1>
             <xm:f>Tables!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AD2:AD114 Y2:Y114</xm:sqref>
+          <xm:sqref>Y2:Y113 AD2:AD113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{000CBC19-A464-4694-A3AD-9D82A1CE6A27}">
           <x14:formula1>
-            <xm:f>Tables!$I$2:$I$42</xm:f>
+            <xm:f>Tables!$I$2:$I$46</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D114</xm:sqref>
+          <xm:sqref>D2:D113</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8715,24 +8676,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="A2" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
@@ -8741,71 +8702,71 @@
       <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="F4" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
+      <c r="A4" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="F4" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="F5" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="38" t="s">
+      <c r="I5" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="K5" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="L5" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="M5" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="N5" s="38" t="s">
         <v>248</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>250</v>
       </c>
       <c r="O5" s="38" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8873,55 +8834,55 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="F9" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
+      <c r="F9" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
       <c r="P9" s="37">
         <f>SUM(P6:P8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
+      <c r="F10" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
       <c r="P10" s="35">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F11" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="F11" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="58"/>
       <c r="P11" s="38">
         <f>SUM(P9:P10)</f>
         <v>150</v>
@@ -8958,70 +8919,70 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="A3" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>253</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>264</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -9037,10 +8998,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0736EE8-23D0-4513-9563-3C6A65BAEEB4}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I42"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9053,7 +9014,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="39" t="s">
@@ -9061,14 +9022,14 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="45" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9076,7 +9037,7 @@
       <c r="C2" s="16"/>
       <c r="E2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -9089,10 +9050,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9103,13 +9064,13 @@
         <v>29</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>306</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9123,7 +9084,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I5" s="47" t="s">
         <v>5</v>
@@ -9131,16 +9092,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I6" s="47" t="s">
         <v>7</v>
@@ -9154,7 +9115,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9162,7 +9123,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I8" s="47" t="s">
         <v>10</v>
@@ -9170,13 +9131,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E9" s="16">
         <v>10</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9184,10 +9145,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>18</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9198,7 +9159,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>312</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9206,10 +9167,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9217,15 +9178,15 @@
         <v>12</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>3</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>314</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9233,80 +9194,80 @@
         <v>14</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>87</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="47" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="47" t="s">
-        <v>90</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="47" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="47" t="s">
-        <v>316</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="47" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" s="47" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" s="47" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I24" s="47" t="s">
-        <v>318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I25" s="47" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I26" s="47" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I27" s="47" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I28" s="47" t="s">
-        <v>4</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I29" s="47" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.25">
@@ -9316,67 +9277,90 @@
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I31" s="47" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I32" s="47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="47" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="47" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="47" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I38" s="47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="47" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="47" t="s">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I41" s="47" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I42" s="47" t="s">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I44" s="47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I45" s="47" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I46" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A13">
-    <sortCondition ref="A3:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:I44">
+    <sortCondition ref="I3:I44"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:F2 H2 J2:XFD2" xr:uid="{603106F1-35E4-4102-BBAC-864DFD6CCF25}">

--- a/Data/ScriptData/Advocate_ArchitectData.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40D9CC3-3DF9-4B27-9A05-DD294F6A03BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33951E34-AE72-4E66-B74F-E8F593D9B86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20310" yWindow="1635" windowWidth="26505" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="325">
   <si>
     <t>Shape</t>
   </si>
@@ -1134,30 +1134,15 @@
     <t>Stencil</t>
   </si>
   <si>
-    <t>;0</t>
-  </si>
-  <si>
     <t>; Visio Sec tion</t>
   </si>
   <si>
-    <t>Using a Visio Template that contains a custom Stencil</t>
-  </si>
-  <si>
-    <t>Custom Stencil for OmniCell Architech Visio Diagram</t>
-  </si>
-  <si>
-    <t>Custom Stencil</t>
-  </si>
-  <si>
     <t>Title_Advocate:1</t>
   </si>
   <si>
     <t>C:\Omnicell_Blueprinting_Tool\Data\Templates\OC_BlueprintingTemplate.vstx</t>
   </si>
   <si>
-    <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\OC_BlueprintingStencils.vssx</t>
-  </si>
-  <si>
     <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\Advocate_CustomStencils.vssx</t>
   </si>
   <si>
@@ -1243,6 +1228,12 @@
   </si>
   <si>
     <t>Custom</t>
+  </si>
+  <si>
+    <t>Using a Visio Template that contains standard Stencils</t>
+  </si>
+  <si>
+    <t>Account Custom Stencil</t>
   </si>
 </sst>
 </file>
@@ -2399,11 +2390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF113"/>
+  <dimension ref="A1:AF112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,11 +2574,11 @@
         <v>289</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -2626,18 +2617,18 @@
       <c r="AF3" s="23"/>
     </row>
     <row r="4" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>291</v>
+      <c r="A4" s="19">
+        <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>290</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -2675,93 +2666,93 @@
       <c r="AE4" s="19"/>
       <c r="AF4" s="23"/>
     </row>
-    <row r="5" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24">
-        <v>0</v>
-      </c>
-      <c r="S5" s="24">
-        <v>0</v>
-      </c>
-      <c r="T5" s="24">
-        <v>0</v>
-      </c>
-      <c r="U5" s="24">
-        <v>0</v>
-      </c>
-      <c r="V5" s="24"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="23"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-    </row>
-    <row r="7" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+    </row>
+    <row r="6" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="S6" s="24">
+        <v>10.75</v>
+      </c>
+      <c r="T6" s="24">
+        <v>0</v>
+      </c>
+      <c r="U6" s="24">
+        <v>0</v>
+      </c>
+      <c r="V6" s="24"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="23"/>
+    </row>
+    <row r="7" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -2769,17 +2760,23 @@
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21"/>
+        <v>321</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>230</v>
+      </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="I7" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -2788,7 +2785,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="24">
-        <v>0.25</v>
+        <v>3.125</v>
       </c>
       <c r="S7" s="24">
         <v>10.75</v>
@@ -2811,7 +2808,7 @@
       <c r="AE7" s="19"/>
       <c r="AF7" s="23"/>
     </row>
-    <row r="8" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -2819,43 +2816,41 @@
         <v>0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>296</v>
+        <v>59</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>326</v>
+        <v>3</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="21"/>
+        <v>217</v>
+      </c>
+      <c r="F8" s="21">
+        <v>9</v>
+      </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>204</v>
-      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24">
-        <v>3.125</v>
-      </c>
-      <c r="S8" s="24">
-        <v>10.75</v>
-      </c>
-      <c r="T8" s="24">
-        <v>0</v>
-      </c>
-      <c r="U8" s="24">
-        <v>0</v>
-      </c>
-      <c r="V8" s="24"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="S8" s="26">
+        <v>1.75</v>
+      </c>
+      <c r="T8" s="26">
+        <v>0</v>
+      </c>
+      <c r="U8" s="26">
+        <v>1.125</v>
+      </c>
+      <c r="V8" s="21"/>
       <c r="W8" s="21"/>
       <c r="X8" s="23"/>
       <c r="Y8" s="19"/>
@@ -2867,97 +2862,95 @@
       <c r="AE8" s="19"/>
       <c r="AF8" s="23"/>
     </row>
-    <row r="9" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="10" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="21">
-        <v>9</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="26">
+      <c r="B10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24">
         <v>0.25</v>
       </c>
-      <c r="S9" s="26">
-        <v>1.75</v>
-      </c>
-      <c r="T9" s="26">
-        <v>0</v>
-      </c>
-      <c r="U9" s="26">
-        <v>1.125</v>
-      </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="23"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-    </row>
-    <row r="11" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="24">
+        <v>9.875</v>
+      </c>
+      <c r="T10" s="24">
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="U10" s="24">
+        <v>1.9</v>
+      </c>
+      <c r="V10" s="24"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="23"/>
+    </row>
+    <row r="11" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>1</v>
       </c>
@@ -2965,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>325</v>
+        <v>94</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -2986,28 +2979,38 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="23"/>
       <c r="R11" s="24">
-        <v>0.25</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="S11" s="24">
-        <v>9.875</v>
+        <v>9.6509999999999998</v>
       </c>
       <c r="T11" s="24">
-        <v>2.4590000000000001</v>
+        <v>0</v>
       </c>
       <c r="U11" s="24">
-        <v>1.9</v>
-      </c>
-      <c r="V11" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="24" t="s">
+        <v>287</v>
+      </c>
       <c r="W11" s="21"/>
       <c r="X11" s="23"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="23"/>
-      <c r="AB11" s="21"/>
+      <c r="AB11" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="AC11" s="23"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="23"/>
+      <c r="AD11" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF11" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
@@ -3017,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -3038,10 +3041,10 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24">
-        <v>0.61299999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="S12" s="24">
-        <v>9.6509999999999998</v>
+        <v>8.9459999999999997</v>
       </c>
       <c r="T12" s="24">
         <v>0</v>
@@ -3058,11 +3061,11 @@
       <c r="Z12" s="19"/>
       <c r="AA12" s="23"/>
       <c r="AB12" s="21" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="AC12" s="23"/>
       <c r="AD12" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE12" s="19" t="s">
         <v>27</v>
@@ -3079,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -3100,10 +3103,10 @@
       <c r="P13" s="22"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="24">
-        <v>0.69699999999999995</v>
+        <v>2.25</v>
       </c>
       <c r="S13" s="24">
-        <v>8.9459999999999997</v>
+        <v>9.6720000000000006</v>
       </c>
       <c r="T13" s="24">
         <v>0</v>
@@ -3114,17 +3117,27 @@
       <c r="V13" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="W13" s="21"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="23"/>
+      <c r="W13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="X13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="AB13" s="21" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="AC13" s="23"/>
       <c r="AD13" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE13" s="19" t="s">
         <v>27</v>
@@ -3141,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -3162,10 +3175,10 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="24">
-        <v>2.25</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="S14" s="24">
-        <v>9.6720000000000006</v>
+        <v>8.9459999999999997</v>
       </c>
       <c r="T14" s="24">
         <v>0</v>
@@ -3176,27 +3189,17 @@
       <c r="V14" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="W14" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y14" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA14" s="23" t="s">
-        <v>21</v>
-      </c>
+      <c r="W14" s="21"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="21" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AC14" s="23"/>
       <c r="AD14" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE14" s="19" t="s">
         <v>27</v>
@@ -3213,13 +3216,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -3234,10 +3237,10 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="24">
-        <v>1.6439999999999999</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="S15" s="24">
-        <v>8.9459999999999997</v>
+        <v>8.25</v>
       </c>
       <c r="T15" s="24">
         <v>0</v>
@@ -3248,136 +3251,124 @@
       <c r="V15" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC15" s="23"/>
+      <c r="W15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC15" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="AD15" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE15" s="19" t="s">
-        <v>27</v>
+        <v>296</v>
+      </c>
+      <c r="AE15" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="AF15" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+    </row>
+    <row r="17" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>1</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24">
-        <v>2.7749999999999999</v>
-      </c>
-      <c r="S16" s="24">
-        <v>8.25</v>
-      </c>
-      <c r="T16" s="24">
-        <v>0</v>
-      </c>
-      <c r="U16" s="24">
-        <v>0</v>
-      </c>
-      <c r="V16" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="W16" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y16" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB16" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC16" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD16" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF16" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
+      <c r="B17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20">
+        <v>0.2853</v>
+      </c>
+      <c r="S17" s="20">
+        <v>3.3980000000000001</v>
+      </c>
+      <c r="T17" s="20">
+        <v>2.58</v>
+      </c>
+      <c r="U17" s="20">
+        <v>1.35</v>
+      </c>
+      <c r="V17" s="20"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
     </row>
     <row r="18" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
@@ -3387,12 +3378,14 @@
         <v>0</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -3406,18 +3399,20 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="20">
-        <v>0.2853</v>
+        <v>1.032</v>
       </c>
       <c r="S18" s="20">
-        <v>3.3980000000000001</v>
-      </c>
-      <c r="T18" s="20">
-        <v>2.58</v>
-      </c>
-      <c r="U18" s="20">
-        <v>1.35</v>
-      </c>
-      <c r="V18" s="20"/>
+        <v>2.742</v>
+      </c>
+      <c r="T18" s="24">
+        <v>0</v>
+      </c>
+      <c r="U18" s="24">
+        <v>0</v>
+      </c>
+      <c r="V18" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="W18" s="17"/>
       <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
@@ -3437,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -3458,7 +3453,7 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="20">
-        <v>1.032</v>
+        <v>2</v>
       </c>
       <c r="S19" s="20">
         <v>2.742</v>
@@ -3470,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W19" s="17"/>
       <c r="X19" s="19"/>
@@ -3483,7 +3478,7 @@
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
     </row>
-    <row r="20" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>1</v>
       </c>
@@ -3491,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3512,7 +3507,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S20" s="20">
         <v>2.742</v>
@@ -3524,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="W20" s="17"/>
       <c r="X20" s="19"/>
@@ -3545,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -3566,10 +3561,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="20">
-        <v>3</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="S21" s="20">
-        <v>2.742</v>
+        <v>2.375</v>
       </c>
       <c r="T21" s="24">
         <v>0</v>
@@ -3599,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -3623,7 +3618,7 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="S22" s="20">
-        <v>2.375</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="T22" s="24">
         <v>0</v>
@@ -3632,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="W22" s="17"/>
       <c r="X22" s="19"/>
@@ -3653,13 +3648,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -3677,7 +3672,7 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="S23" s="20">
-        <v>2.1869999999999998</v>
+        <v>2</v>
       </c>
       <c r="T23" s="24">
         <v>0</v>
@@ -3686,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W23" s="17"/>
       <c r="X23" s="19"/>
@@ -3699,97 +3694,95 @@
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
     </row>
-    <row r="24" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+    </row>
+    <row r="25" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
         <v>1</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="S24" s="20">
-        <v>2</v>
-      </c>
-      <c r="T24" s="24">
-        <v>0</v>
-      </c>
-      <c r="U24" s="24">
-        <v>0</v>
-      </c>
-      <c r="V24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="W24" s="17"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
+      <c r="B25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="24">
+        <v>3.875</v>
+      </c>
+      <c r="S25" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="T25" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="U25" s="24">
+        <v>0</v>
+      </c>
+      <c r="V25" s="24"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="23"/>
     </row>
     <row r="26" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
@@ -3799,14 +3792,12 @@
         <v>0</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>233</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -3820,13 +3811,13 @@
       <c r="P26" s="22"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="24">
-        <v>3.875</v>
+        <v>1.75</v>
       </c>
       <c r="S26" s="24">
-        <v>4.5</v>
+        <v>4.3049999999999997</v>
       </c>
       <c r="T26" s="24">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="U26" s="24">
         <v>0</v>
@@ -3843,91 +3834,115 @@
       <c r="AE26" s="19"/>
       <c r="AF26" s="23"/>
     </row>
-    <row r="27" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+    </row>
+    <row r="28" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
         <v>1</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="24">
-        <v>1.75</v>
-      </c>
-      <c r="S27" s="24">
-        <v>4.3049999999999997</v>
-      </c>
-      <c r="T27" s="24">
-        <v>0</v>
-      </c>
-      <c r="U27" s="24">
-        <v>0</v>
-      </c>
-      <c r="V27" s="24"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="23"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
+      <c r="B28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="24">
+        <v>1.125</v>
+      </c>
+      <c r="S28" s="24">
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="T28" s="24">
+        <v>0</v>
+      </c>
+      <c r="U28" s="24">
+        <v>0</v>
+      </c>
+      <c r="V28" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC28" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD28" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF28" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
@@ -3937,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -3960,10 +3975,10 @@
       <c r="P29" s="22"/>
       <c r="Q29" s="23"/>
       <c r="R29" s="24">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="S29" s="24">
-        <v>5.6870000000000003</v>
+        <v>6.5620000000000003</v>
       </c>
       <c r="T29" s="24">
         <v>0</v>
@@ -3979,7 +3994,7 @@
       </c>
       <c r="X29" s="23"/>
       <c r="Y29" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Z29" s="23" t="s">
         <v>27</v>
@@ -3987,21 +4002,11 @@
       <c r="AA29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AB29" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC29" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD29" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE29" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF29" s="23" t="s">
-        <v>20</v>
-      </c>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="23"/>
     </row>
     <row r="30" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
@@ -4011,15 +4016,17 @@
         <v>0</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="21"/>
+        <v>219</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -4028,136 +4035,124 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
-      <c r="O30" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="S30" s="24">
+        <v>7.5880000000000001</v>
+      </c>
+      <c r="T30" s="24">
         <v>2</v>
       </c>
-      <c r="S30" s="24">
-        <v>6.5620000000000003</v>
-      </c>
-      <c r="T30" s="24">
-        <v>0</v>
-      </c>
       <c r="U30" s="24">
-        <v>0</v>
-      </c>
-      <c r="V30" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="W30" s="21" t="s">
-        <v>58</v>
-      </c>
+        <v>2.125</v>
+      </c>
+      <c r="V30" s="24"/>
+      <c r="W30" s="21"/>
       <c r="X30" s="23"/>
-      <c r="Y30" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA30" s="23" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="23"/>
       <c r="AB30" s="23"/>
       <c r="AC30" s="23"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="23"/>
     </row>
-    <row r="31" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+    <row r="31" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+    </row>
+    <row r="32" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
         <v>1</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="B32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="S31" s="24">
-        <v>7.5880000000000001</v>
-      </c>
-      <c r="T31" s="24">
-        <v>2</v>
-      </c>
-      <c r="U31" s="24">
-        <v>2.125</v>
-      </c>
-      <c r="V31" s="24"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="23"/>
-    </row>
-    <row r="32" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-    </row>
-    <row r="33" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="24">
+        <v>4.125</v>
+      </c>
+      <c r="S32" s="24">
+        <v>9.75</v>
+      </c>
+      <c r="T32" s="24">
+        <v>3</v>
+      </c>
+      <c r="U32" s="24">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V32" s="24"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="23"/>
+    </row>
+    <row r="33" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>1</v>
       </c>
@@ -4165,17 +4160,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>175</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
@@ -4184,34 +4177,46 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
-      <c r="O33" s="22"/>
+      <c r="O33" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P33" s="22"/>
       <c r="Q33" s="23"/>
       <c r="R33" s="24">
-        <v>4.125</v>
+        <v>4.875</v>
       </c>
       <c r="S33" s="24">
-        <v>9.75</v>
+        <v>8.7850000000000001</v>
       </c>
       <c r="T33" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U33" s="24">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="V33" s="24"/>
-      <c r="W33" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W33" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="X33" s="23"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="23"/>
+      <c r="Y33" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA33" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AB33" s="23"/>
       <c r="AC33" s="23"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="23"/>
     </row>
-    <row r="34" spans="1:32" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>1</v>
       </c>
@@ -4219,13 +4224,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -4236,16 +4241,14 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="24">
-        <v>4.875</v>
+        <v>5.8470000000000004</v>
       </c>
       <c r="S34" s="24">
-        <v>8.7850000000000001</v>
+        <v>8.2970000000000006</v>
       </c>
       <c r="T34" s="24">
         <v>0</v>
@@ -4253,27 +4256,25 @@
       <c r="U34" s="24">
         <v>0</v>
       </c>
-      <c r="V34" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="W34" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="V34" s="24"/>
+      <c r="W34" s="21"/>
       <c r="X34" s="23"/>
-      <c r="Y34" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z34" s="23" t="s">
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE34" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AA34" s="23" t="s">
+      <c r="AF34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="23"/>
     </row>
     <row r="35" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
@@ -4283,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -4304,7 +4305,7 @@
       <c r="P35" s="22"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="24">
-        <v>5.8470000000000004</v>
+        <v>6.5350000000000001</v>
       </c>
       <c r="S35" s="24">
         <v>8.2970000000000006</v>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="AC35" s="23"/>
       <c r="AD35" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE35" s="23" t="s">
         <v>27</v>
@@ -4335,7 +4336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>1</v>
       </c>
@@ -4343,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -4360,14 +4361,16 @@
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
-      <c r="O36" s="22"/>
+      <c r="O36" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P36" s="22"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="24">
-        <v>6.5350000000000001</v>
+        <v>4.875</v>
       </c>
       <c r="S36" s="24">
-        <v>8.2970000000000006</v>
+        <v>7.4779999999999998</v>
       </c>
       <c r="T36" s="24">
         <v>0</v>
@@ -4375,18 +4378,28 @@
       <c r="U36" s="24">
         <v>0</v>
       </c>
-      <c r="V36" s="24"/>
-      <c r="W36" s="21"/>
+      <c r="V36" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W36" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="X36" s="23"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="21" t="s">
+      <c r="Y36" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z36" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB36" s="23" t="s">
         <v>81</v>
       </c>
       <c r="AC36" s="23"/>
       <c r="AD36" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE36" s="23" t="s">
         <v>27</v>
@@ -4395,7 +4408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>1</v>
       </c>
@@ -4403,14 +4416,12 @@
         <v>0</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>177</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -4420,16 +4431,14 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
-      <c r="O37" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="24">
-        <v>4.875</v>
+        <v>7.5</v>
       </c>
       <c r="S37" s="24">
-        <v>7.4779999999999998</v>
+        <v>7.76</v>
       </c>
       <c r="T37" s="24">
         <v>0</v>
@@ -4437,28 +4446,18 @@
       <c r="U37" s="24">
         <v>0</v>
       </c>
-      <c r="V37" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="W37" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="V37" s="24"/>
+      <c r="W37" s="21"/>
       <c r="X37" s="23"/>
-      <c r="Y37" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z37" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA37" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="23"/>
       <c r="AB37" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC37" s="23"/>
       <c r="AD37" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE37" s="23" t="s">
         <v>27</v>
@@ -4467,101 +4466,97 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+    </row>
+    <row r="39" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
         <v>1</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="S38" s="24">
-        <v>7.76</v>
-      </c>
-      <c r="T38" s="24">
-        <v>0</v>
-      </c>
-      <c r="U38" s="24">
-        <v>0</v>
-      </c>
-      <c r="V38" s="24"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE38" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF38" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-    </row>
-    <row r="40" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="24">
+        <v>4.125</v>
+      </c>
+      <c r="S39" s="24">
+        <v>7.0469999999999997</v>
+      </c>
+      <c r="T39" s="24">
+        <v>3</v>
+      </c>
+      <c r="U39" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="V39" s="24"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="23"/>
+    </row>
+    <row r="40" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>1</v>
       </c>
@@ -4569,17 +4564,15 @@
         <v>0</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>175</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -4588,27 +4581,39 @@
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
-      <c r="O40" s="22"/>
+      <c r="O40" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P40" s="22"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="24">
-        <v>4.125</v>
+        <v>4.875</v>
       </c>
       <c r="S40" s="24">
-        <v>7.0469999999999997</v>
+        <v>6.25</v>
       </c>
       <c r="T40" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U40" s="24">
-        <v>1.3</v>
-      </c>
-      <c r="V40" s="24"/>
-      <c r="W40" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="W40" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="X40" s="23"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="23"/>
+      <c r="Y40" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z40" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA40" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AB40" s="23"/>
       <c r="AC40" s="23"/>
       <c r="AD40" s="19"/>
@@ -4623,13 +4628,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -4646,10 +4651,10 @@
       <c r="P41" s="22"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="24">
-        <v>4.875</v>
+        <v>6.125</v>
       </c>
       <c r="S41" s="24">
-        <v>6.25</v>
+        <v>5.7969999999999997</v>
       </c>
       <c r="T41" s="24">
         <v>0</v>
@@ -4665,7 +4670,7 @@
       </c>
       <c r="X41" s="23"/>
       <c r="Y41" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Z41" s="23" t="s">
         <v>27</v>
@@ -4673,13 +4678,21 @@
       <c r="AA41" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AB41" s="23"/>
+      <c r="AB41" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="AC41" s="23"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="23"/>
-    </row>
-    <row r="42" spans="1:32" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="AD41" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE41" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF41" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>1</v>
       </c>
@@ -4687,13 +4700,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -4704,16 +4717,14 @@
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
-      <c r="O42" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="O42" s="22"/>
       <c r="P42" s="22"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="24">
-        <v>6.125</v>
+        <v>7.5</v>
       </c>
       <c r="S42" s="24">
-        <v>5.7969999999999997</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="T42" s="24">
         <v>0</v>
@@ -4721,28 +4732,18 @@
       <c r="U42" s="24">
         <v>0</v>
       </c>
-      <c r="V42" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="W42" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="V42" s="24"/>
+      <c r="W42" s="21"/>
       <c r="X42" s="23"/>
-      <c r="Y42" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z42" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA42" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="23"/>
       <c r="AB42" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC42" s="23"/>
       <c r="AD42" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE42" s="23" t="s">
         <v>27</v>
@@ -4751,103 +4752,93 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+    <row r="43" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+    </row>
+    <row r="44" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>2</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="S43" s="24">
-        <v>6.0750000000000002</v>
-      </c>
-      <c r="T43" s="24">
-        <v>0</v>
-      </c>
-      <c r="U43" s="24">
-        <v>0</v>
-      </c>
-      <c r="V43" s="24"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC43" s="23"/>
-      <c r="AD43" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE43" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF43" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-    </row>
-    <row r="45" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="S44" s="24">
+        <v>10.75</v>
+      </c>
+      <c r="T44" s="24">
+        <v>0</v>
+      </c>
+      <c r="U44" s="24">
+        <v>0</v>
+      </c>
+      <c r="V44" s="24"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="23"/>
+    </row>
+    <row r="45" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>2</v>
       </c>
@@ -4855,12 +4846,14 @@
         <v>0</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>231</v>
+      </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -4874,7 +4867,7 @@
       <c r="P45" s="22"/>
       <c r="Q45" s="23"/>
       <c r="R45" s="24">
-        <v>0.25</v>
+        <v>3.125</v>
       </c>
       <c r="S45" s="24">
         <v>10.75</v>
@@ -4897,7 +4890,7 @@
       <c r="AE45" s="19"/>
       <c r="AF45" s="23"/>
     </row>
-    <row r="46" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>2</v>
       </c>
@@ -4905,15 +4898,17 @@
         <v>0</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" s="21"/>
+        <v>216</v>
+      </c>
+      <c r="F46" s="32">
+        <v>10</v>
+      </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -4924,20 +4919,20 @@
       <c r="N46" s="21"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="24">
-        <v>3.125</v>
-      </c>
-      <c r="S46" s="24">
-        <v>10.75</v>
-      </c>
-      <c r="T46" s="24">
-        <v>0</v>
-      </c>
-      <c r="U46" s="24">
-        <v>0</v>
-      </c>
-      <c r="V46" s="24"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="S46" s="26">
+        <v>1.75</v>
+      </c>
+      <c r="T46" s="26">
+        <v>0</v>
+      </c>
+      <c r="U46" s="26">
+        <v>1.125</v>
+      </c>
+      <c r="V46" s="21"/>
       <c r="W46" s="21"/>
       <c r="X46" s="23"/>
       <c r="Y46" s="19"/>
@@ -4949,95 +4944,93 @@
       <c r="AE46" s="19"/>
       <c r="AF46" s="23"/>
     </row>
-    <row r="47" spans="1:32" s="25" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+    </row>
+    <row r="48" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
         <v>2</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="F47" s="32">
-        <v>10</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="S47" s="26">
-        <v>1.75</v>
-      </c>
-      <c r="T47" s="26">
-        <v>0</v>
-      </c>
-      <c r="U47" s="26">
-        <v>1.125</v>
-      </c>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="23"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
-      <c r="AA48" s="12"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="12"/>
-      <c r="AD48" s="12"/>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="12"/>
+      <c r="B48" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="24">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="S48" s="24">
+        <v>8.0269999999999992</v>
+      </c>
+      <c r="T48" s="24">
+        <v>2.75</v>
+      </c>
+      <c r="U48" s="24">
+        <v>6.1</v>
+      </c>
+      <c r="V48" s="24"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="23"/>
     </row>
     <row r="49" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
@@ -5047,13 +5040,13 @@
         <v>0</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -5068,16 +5061,16 @@
       <c r="P49" s="22"/>
       <c r="Q49" s="23"/>
       <c r="R49" s="24">
-        <v>0.27900000000000003</v>
+        <v>4.1870000000000003</v>
       </c>
       <c r="S49" s="24">
-        <v>8.0269999999999992</v>
+        <v>4.5</v>
       </c>
       <c r="T49" s="24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49" s="24">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="24"/>
       <c r="W49" s="21"/>
@@ -5091,95 +5084,101 @@
       <c r="AE49" s="19"/>
       <c r="AF49" s="23"/>
     </row>
-    <row r="50" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+    </row>
+    <row r="51" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
         <v>2</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="24">
-        <v>4.1870000000000003</v>
-      </c>
-      <c r="S50" s="24">
-        <v>4.5</v>
-      </c>
-      <c r="T50" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="U50" s="24">
-        <v>0</v>
-      </c>
-      <c r="V50" s="24"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="23"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="23"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-    </row>
-    <row r="52" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="S51" s="20">
+        <v>7.25</v>
+      </c>
+      <c r="T51" s="24">
+        <v>0</v>
+      </c>
+      <c r="U51" s="24">
+        <v>0</v>
+      </c>
+      <c r="V51" s="20"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF51" s="19"/>
+    </row>
+    <row r="52" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>2</v>
       </c>
@@ -5187,13 +5186,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -5208,10 +5207,10 @@
       <c r="P52" s="18"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="20">
-        <v>0.77900000000000003</v>
+        <v>2</v>
       </c>
       <c r="S52" s="20">
-        <v>7.25</v>
+        <v>7.2</v>
       </c>
       <c r="T52" s="24">
         <v>0</v>
@@ -5226,76 +5225,76 @@
       <c r="Z52" s="19"/>
       <c r="AA52" s="23"/>
       <c r="AB52" s="17" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AC52" s="19"/>
       <c r="AD52" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE52" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF52" s="19"/>
     </row>
-    <row r="53" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
+    <row r="53" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
         <v>2</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="20">
-        <v>2</v>
-      </c>
-      <c r="S53" s="20">
-        <v>7.2</v>
-      </c>
-      <c r="T53" s="24">
-        <v>0</v>
-      </c>
-      <c r="U53" s="24">
-        <v>0</v>
-      </c>
-      <c r="V53" s="20"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE53" s="19" t="s">
+      <c r="B53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="30">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="S53" s="30">
+        <v>6.625</v>
+      </c>
+      <c r="T53" s="30">
+        <v>0</v>
+      </c>
+      <c r="U53" s="30">
+        <v>0</v>
+      </c>
+      <c r="V53" s="30"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE53" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF53" s="19"/>
-    </row>
-    <row r="54" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF53" s="27"/>
+    </row>
+    <row r="54" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>2</v>
       </c>
@@ -5303,13 +5302,13 @@
         <v>0</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
@@ -5324,10 +5323,10 @@
       <c r="P54" s="29"/>
       <c r="Q54" s="27"/>
       <c r="R54" s="30">
-        <v>0.77900000000000003</v>
+        <v>2</v>
       </c>
       <c r="S54" s="30">
-        <v>6.625</v>
+        <v>6.55</v>
       </c>
       <c r="T54" s="30">
         <v>0</v>
@@ -5342,76 +5341,76 @@
       <c r="Z54" s="27"/>
       <c r="AA54" s="27"/>
       <c r="AB54" s="28" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AC54" s="27"/>
       <c r="AD54" s="27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE54" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF54" s="27"/>
     </row>
-    <row r="55" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="27">
+    <row r="55" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
         <v>2</v>
       </c>
-      <c r="B55" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="30">
-        <v>2</v>
-      </c>
-      <c r="S55" s="30">
-        <v>6.55</v>
-      </c>
-      <c r="T55" s="30">
-        <v>0</v>
-      </c>
-      <c r="U55" s="30">
-        <v>0</v>
-      </c>
-      <c r="V55" s="30"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE55" s="27" t="s">
+      <c r="B55" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="20">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="S55" s="20">
+        <v>6</v>
+      </c>
+      <c r="T55" s="24">
+        <v>0</v>
+      </c>
+      <c r="U55" s="24">
+        <v>0</v>
+      </c>
+      <c r="V55" s="20"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE55" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF55" s="27"/>
-    </row>
-    <row r="56" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF55" s="19"/>
+    </row>
+    <row r="56" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>2</v>
       </c>
@@ -5419,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
@@ -5440,10 +5439,10 @@
       <c r="P56" s="18"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="20">
-        <v>0.79800000000000004</v>
+        <v>2</v>
       </c>
       <c r="S56" s="20">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="T56" s="24">
         <v>0</v>
@@ -5458,74 +5457,74 @@
       <c r="Z56" s="19"/>
       <c r="AA56" s="23"/>
       <c r="AB56" s="17" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AC56" s="19"/>
       <c r="AD56" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE56" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF56" s="19"/>
     </row>
-    <row r="57" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
+    <row r="57" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
         <v>2</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="20">
-        <v>2</v>
-      </c>
-      <c r="S57" s="20">
-        <v>5.95</v>
-      </c>
-      <c r="T57" s="24">
-        <v>0</v>
-      </c>
-      <c r="U57" s="24">
-        <v>0</v>
-      </c>
-      <c r="V57" s="20"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="23"/>
-      <c r="AB57" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE57" s="19" t="s">
+      <c r="B57" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="S57" s="30">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="T57" s="30">
+        <v>0</v>
+      </c>
+      <c r="U57" s="30">
+        <v>0</v>
+      </c>
+      <c r="V57" s="30"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE57" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF57" s="19"/>
+      <c r="AF57" s="27"/>
     </row>
     <row r="58" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
@@ -5535,13 +5534,13 @@
         <v>0</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
@@ -5556,7 +5555,7 @@
       <c r="P58" s="29"/>
       <c r="Q58" s="27"/>
       <c r="R58" s="30">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S58" s="30">
         <v>5.3330000000000002</v>
@@ -5574,74 +5573,74 @@
       <c r="Z58" s="27"/>
       <c r="AA58" s="27"/>
       <c r="AB58" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AC58" s="27"/>
       <c r="AD58" s="27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE58" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF58" s="27"/>
     </row>
-    <row r="59" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27">
+    <row r="59" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
         <v>2</v>
       </c>
-      <c r="B59" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="30">
-        <v>2</v>
-      </c>
-      <c r="S59" s="30">
-        <v>5.3330000000000002</v>
-      </c>
-      <c r="T59" s="30">
-        <v>0</v>
-      </c>
-      <c r="U59" s="30">
-        <v>0</v>
-      </c>
-      <c r="V59" s="30"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE59" s="27" t="s">
+      <c r="B59" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="S59" s="20">
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="T59" s="24">
+        <v>0</v>
+      </c>
+      <c r="U59" s="24">
+        <v>0</v>
+      </c>
+      <c r="V59" s="20"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE59" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF59" s="27"/>
+      <c r="AF59" s="19"/>
     </row>
     <row r="60" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
@@ -5651,13 +5650,13 @@
         <v>0</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
@@ -5672,7 +5671,7 @@
       <c r="P60" s="18"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="20">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S60" s="20">
         <v>4.7080000000000002</v>
@@ -5690,74 +5689,74 @@
       <c r="Z60" s="19"/>
       <c r="AA60" s="23"/>
       <c r="AB60" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE60" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF60" s="19"/>
     </row>
-    <row r="61" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
+    <row r="61" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27">
         <v>2</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="20">
-        <v>2</v>
-      </c>
-      <c r="S61" s="20">
-        <v>4.7080000000000002</v>
-      </c>
-      <c r="T61" s="24">
-        <v>0</v>
-      </c>
-      <c r="U61" s="24">
-        <v>0</v>
-      </c>
-      <c r="V61" s="20"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="19"/>
-      <c r="AA61" s="23"/>
-      <c r="AB61" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC61" s="19"/>
-      <c r="AD61" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE61" s="19" t="s">
+      <c r="B61" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="S61" s="30">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="T61" s="30">
+        <v>0</v>
+      </c>
+      <c r="U61" s="30">
+        <v>0</v>
+      </c>
+      <c r="V61" s="30"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE61" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF61" s="19"/>
+      <c r="AF61" s="27"/>
     </row>
     <row r="62" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
@@ -5767,13 +5766,13 @@
         <v>0</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="28"/>
@@ -5788,7 +5787,7 @@
       <c r="P62" s="29"/>
       <c r="Q62" s="27"/>
       <c r="R62" s="30">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S62" s="30">
         <v>4.0830000000000002</v>
@@ -5806,74 +5805,76 @@
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
       <c r="AB62" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AC62" s="27"/>
       <c r="AD62" s="27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE62" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF62" s="27"/>
     </row>
-    <row r="63" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
+    <row r="63" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
         <v>2</v>
       </c>
-      <c r="B63" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="30">
-        <v>2</v>
-      </c>
-      <c r="S63" s="30">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="T63" s="30">
-        <v>0</v>
-      </c>
-      <c r="U63" s="30">
-        <v>0</v>
-      </c>
-      <c r="V63" s="30"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE63" s="27" t="s">
+      <c r="B63" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="S63" s="20">
+        <v>3.375</v>
+      </c>
+      <c r="T63" s="24">
+        <v>0</v>
+      </c>
+      <c r="U63" s="24">
+        <v>0</v>
+      </c>
+      <c r="V63" s="20"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE63" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF63" s="27"/>
+      <c r="AF63" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="64" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
@@ -5883,13 +5884,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
@@ -5904,7 +5905,7 @@
       <c r="P64" s="18"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="20">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S64" s="20">
         <v>3.375</v>
@@ -5922,11 +5923,11 @@
       <c r="Z64" s="19"/>
       <c r="AA64" s="23"/>
       <c r="AB64" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AC64" s="19"/>
       <c r="AD64" s="19" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AE64" s="19" t="s">
         <v>28</v>
@@ -5935,119 +5936,117 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>2</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="19"/>
+      <c r="B65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="23"/>
       <c r="R65" s="20">
-        <v>2</v>
+        <v>0.308</v>
       </c>
       <c r="S65" s="20">
-        <v>3.375</v>
+        <v>3.87</v>
       </c>
       <c r="T65" s="24">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="U65" s="24">
-        <v>0</v>
-      </c>
-      <c r="V65" s="20"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="19"/>
+        <v>0.45</v>
+      </c>
+      <c r="V65" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W65" s="21"/>
+      <c r="X65" s="23"/>
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
       <c r="AA65" s="23"/>
-      <c r="AB65" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC65" s="19"/>
-      <c r="AD65" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE65" s="19" t="s">
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="23"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="23"/>
+      <c r="AF65" s="23"/>
+    </row>
+    <row r="66" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="27">
+        <v>2</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="S66" s="30">
+        <v>2.75</v>
+      </c>
+      <c r="T66" s="30">
+        <v>0</v>
+      </c>
+      <c r="U66" s="30">
+        <v>0</v>
+      </c>
+      <c r="V66" s="30"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE66" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF65" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
-        <v>2</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="20">
-        <v>0.308</v>
-      </c>
-      <c r="S66" s="20">
-        <v>3.87</v>
-      </c>
-      <c r="T66" s="24">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="U66" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="V66" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W66" s="21"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="19"/>
-      <c r="Z66" s="19"/>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="19"/>
-      <c r="AE66" s="23"/>
-      <c r="AF66" s="23"/>
+      <c r="AF66" s="27"/>
     </row>
     <row r="67" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
@@ -6057,13 +6056,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="28"/>
@@ -6078,7 +6077,7 @@
       <c r="P67" s="29"/>
       <c r="Q67" s="27"/>
       <c r="R67" s="30">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S67" s="30">
         <v>2.75</v>
@@ -6096,74 +6095,74 @@
       <c r="Z67" s="27"/>
       <c r="AA67" s="27"/>
       <c r="AB67" s="28" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AC67" s="27"/>
       <c r="AD67" s="27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE67" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF67" s="27"/>
     </row>
-    <row r="68" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27">
+    <row r="68" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
         <v>2</v>
       </c>
-      <c r="B68" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="30">
-        <v>2</v>
-      </c>
-      <c r="S68" s="30">
-        <v>2.75</v>
-      </c>
-      <c r="T68" s="30">
-        <v>0</v>
-      </c>
-      <c r="U68" s="30">
-        <v>0</v>
-      </c>
-      <c r="V68" s="30"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC68" s="27"/>
-      <c r="AD68" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE68" s="27" t="s">
+      <c r="B68" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="S68" s="20">
+        <v>2.125</v>
+      </c>
+      <c r="T68" s="24">
+        <v>0</v>
+      </c>
+      <c r="U68" s="24">
+        <v>0</v>
+      </c>
+      <c r="V68" s="20"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE68" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF68" s="27"/>
+      <c r="AF68" s="19"/>
     </row>
     <row r="69" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
@@ -6173,13 +6172,13 @@
         <v>0</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
@@ -6194,7 +6193,7 @@
       <c r="P69" s="18"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="20">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="S69" s="20">
         <v>2.125</v>
@@ -6212,168 +6211,168 @@
       <c r="Z69" s="19"/>
       <c r="AA69" s="23"/>
       <c r="AB69" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC69" s="19"/>
       <c r="AD69" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE69" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF69" s="19"/>
     </row>
-    <row r="70" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
+    <row r="70" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="27">
         <v>2</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" s="17" t="s">
+      <c r="B70" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="20">
+      <c r="E70" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="30">
+        <v>3.25</v>
+      </c>
+      <c r="S70" s="30">
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="T70" s="30">
+        <v>0</v>
+      </c>
+      <c r="U70" s="30">
+        <v>0</v>
+      </c>
+      <c r="V70" s="30"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE70" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF70" s="27"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+    </row>
+    <row r="72" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
         <v>2</v>
       </c>
-      <c r="S70" s="20">
-        <v>2.125</v>
-      </c>
-      <c r="T70" s="24">
-        <v>0</v>
-      </c>
-      <c r="U70" s="24">
-        <v>0</v>
-      </c>
-      <c r="V70" s="20"/>
-      <c r="W70" s="17"/>
-      <c r="X70" s="19"/>
-      <c r="Y70" s="19"/>
-      <c r="Z70" s="19"/>
-      <c r="AA70" s="23"/>
-      <c r="AB70" s="17" t="s">
+      <c r="B72" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="20">
+        <v>3.1709999999999998</v>
+      </c>
+      <c r="S72" s="20">
+        <v>3.427</v>
+      </c>
+      <c r="T72" s="24">
+        <v>0</v>
+      </c>
+      <c r="U72" s="24">
+        <v>0</v>
+      </c>
+      <c r="V72" s="20"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="AC70" s="19"/>
-      <c r="AD70" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE70" s="19" t="s">
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE72" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF70" s="19"/>
-    </row>
-    <row r="71" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="27">
-        <v>2</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="30">
-        <v>3.25</v>
-      </c>
-      <c r="S71" s="30">
-        <v>4.5030000000000001</v>
-      </c>
-      <c r="T71" s="30">
-        <v>0</v>
-      </c>
-      <c r="U71" s="30">
-        <v>0</v>
-      </c>
-      <c r="V71" s="30"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
-      <c r="Z71" s="27"/>
-      <c r="AA71" s="27"/>
-      <c r="AB71" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC71" s="27"/>
-      <c r="AD71" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE71" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF71" s="27"/>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="12"/>
-      <c r="AC72" s="12"/>
-      <c r="AD72" s="12"/>
-      <c r="AE72" s="12"/>
-      <c r="AF72" s="12"/>
+      <c r="AF72" s="19"/>
     </row>
     <row r="73" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
@@ -6383,13 +6382,13 @@
         <v>0</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
@@ -6407,7 +6406,7 @@
         <v>3.1709999999999998</v>
       </c>
       <c r="S73" s="20">
-        <v>3.427</v>
+        <v>2.677</v>
       </c>
       <c r="T73" s="24">
         <v>0</v>
@@ -6422,127 +6421,119 @@
       <c r="Z73" s="19"/>
       <c r="AA73" s="23"/>
       <c r="AB73" s="17" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE73" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF73" s="19"/>
     </row>
-    <row r="74" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+    </row>
+    <row r="75" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
         <v>2</v>
       </c>
-      <c r="B74" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="20">
-        <v>3.1709999999999998</v>
-      </c>
-      <c r="S74" s="20">
-        <v>2.677</v>
-      </c>
-      <c r="T74" s="24">
-        <v>0</v>
-      </c>
-      <c r="U74" s="24">
-        <v>0</v>
-      </c>
-      <c r="V74" s="20"/>
-      <c r="W74" s="17"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="19"/>
-      <c r="Z74" s="19"/>
-      <c r="AA74" s="23"/>
-      <c r="AB74" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC74" s="19"/>
-      <c r="AD74" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE74" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF74" s="19"/>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
-      <c r="AF75" s="12"/>
+      <c r="B75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="24">
+        <v>4.7779999999999996</v>
+      </c>
+      <c r="S75" s="24">
+        <v>8.0269999999999992</v>
+      </c>
+      <c r="T75" s="24">
+        <v>2.75</v>
+      </c>
+      <c r="U75" s="24">
+        <v>6.1</v>
+      </c>
+      <c r="V75" s="24"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="23"/>
+      <c r="AB75" s="23"/>
+      <c r="AC75" s="23"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="19"/>
+      <c r="AF75" s="23"/>
     </row>
     <row r="76" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
-        <v>2</v>
+      <c r="A76" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>158</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E76" s="21"/>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
@@ -6556,16 +6547,16 @@
       <c r="P76" s="22"/>
       <c r="Q76" s="23"/>
       <c r="R76" s="24">
-        <v>4.7779999999999996</v>
+        <v>7.4059999999999997</v>
       </c>
       <c r="S76" s="24">
-        <v>8.0269999999999992</v>
+        <v>8.6869999999999994</v>
       </c>
       <c r="T76" s="24">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="U76" s="24">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="V76" s="24"/>
       <c r="W76" s="21"/>
@@ -6579,93 +6570,101 @@
       <c r="AE76" s="19"/>
       <c r="AF76" s="23"/>
     </row>
-    <row r="77" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="24">
-        <v>7.4059999999999997</v>
-      </c>
-      <c r="S77" s="24">
-        <v>8.6869999999999994</v>
-      </c>
-      <c r="T77" s="24">
-        <v>0</v>
-      </c>
-      <c r="U77" s="24">
-        <v>0</v>
-      </c>
-      <c r="V77" s="24"/>
-      <c r="W77" s="21"/>
-      <c r="X77" s="23"/>
-      <c r="Y77" s="19"/>
-      <c r="Z77" s="19"/>
-      <c r="AA77" s="23"/>
-      <c r="AB77" s="23"/>
-      <c r="AC77" s="23"/>
-      <c r="AD77" s="19"/>
-      <c r="AE77" s="19"/>
-      <c r="AF77" s="23"/>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="12"/>
-      <c r="Z78" s="12"/>
-      <c r="AA78" s="12"/>
-      <c r="AB78" s="12"/>
-      <c r="AC78" s="12"/>
-      <c r="AD78" s="12"/>
-      <c r="AE78" s="12"/>
-      <c r="AF78" s="12"/>
-    </row>
-    <row r="79" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="12"/>
+      <c r="AC77" s="12"/>
+      <c r="AD77" s="12"/>
+      <c r="AE77" s="12"/>
+      <c r="AF77" s="12"/>
+    </row>
+    <row r="78" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
+        <v>2</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="20">
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="S78" s="20">
+        <v>7.25</v>
+      </c>
+      <c r="T78" s="24">
+        <v>0</v>
+      </c>
+      <c r="U78" s="24">
+        <v>0</v>
+      </c>
+      <c r="V78" s="20"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="19"/>
+      <c r="Y78" s="19"/>
+      <c r="Z78" s="19"/>
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC78" s="19"/>
+      <c r="AD78" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE78" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF78" s="19"/>
+    </row>
+    <row r="79" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>2</v>
       </c>
@@ -6673,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
@@ -6694,10 +6693,10 @@
       <c r="P79" s="18"/>
       <c r="Q79" s="19"/>
       <c r="R79" s="20">
-        <v>7.7240000000000002</v>
+        <v>6.6</v>
       </c>
       <c r="S79" s="20">
-        <v>7.25</v>
+        <v>7.2</v>
       </c>
       <c r="T79" s="24">
         <v>0</v>
@@ -6712,76 +6711,76 @@
       <c r="Z79" s="19"/>
       <c r="AA79" s="23"/>
       <c r="AB79" s="17" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE79" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF79" s="19"/>
     </row>
-    <row r="80" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
+    <row r="80" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="27">
         <v>2</v>
       </c>
-      <c r="B80" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="S80" s="20">
-        <v>7.2</v>
-      </c>
-      <c r="T80" s="24">
-        <v>0</v>
-      </c>
-      <c r="U80" s="24">
-        <v>0</v>
-      </c>
-      <c r="V80" s="20"/>
-      <c r="W80" s="17"/>
-      <c r="X80" s="19"/>
-      <c r="Y80" s="19"/>
-      <c r="Z80" s="19"/>
-      <c r="AA80" s="23"/>
-      <c r="AB80" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC80" s="19"/>
-      <c r="AD80" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE80" s="19" t="s">
+      <c r="B80" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="30">
+        <v>7.7240000000000002</v>
+      </c>
+      <c r="S80" s="30">
+        <v>6.625</v>
+      </c>
+      <c r="T80" s="30">
+        <v>0</v>
+      </c>
+      <c r="U80" s="30">
+        <v>0</v>
+      </c>
+      <c r="V80" s="30"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC80" s="27"/>
+      <c r="AD80" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE80" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF80" s="19"/>
-    </row>
-    <row r="81" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF80" s="27"/>
+    </row>
+    <row r="81" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="27">
         <v>2</v>
       </c>
@@ -6789,13 +6788,13 @@
         <v>0</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
@@ -6810,10 +6809,10 @@
       <c r="P81" s="29"/>
       <c r="Q81" s="27"/>
       <c r="R81" s="30">
-        <v>7.7240000000000002</v>
+        <v>6.6</v>
       </c>
       <c r="S81" s="30">
-        <v>6.625</v>
+        <v>6.55</v>
       </c>
       <c r="T81" s="30">
         <v>0</v>
@@ -6828,76 +6827,76 @@
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
       <c r="AB81" s="28" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="AC81" s="27"/>
       <c r="AD81" s="27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE81" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF81" s="27"/>
     </row>
-    <row r="82" spans="1:32" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="27">
+    <row r="82" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
         <v>2</v>
       </c>
-      <c r="B82" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="30">
-        <v>6.6</v>
-      </c>
-      <c r="S82" s="30">
-        <v>6.55</v>
-      </c>
-      <c r="T82" s="30">
-        <v>0</v>
-      </c>
-      <c r="U82" s="30">
-        <v>0</v>
-      </c>
-      <c r="V82" s="30"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC82" s="27"/>
-      <c r="AD82" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE82" s="27" t="s">
+      <c r="B82" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="20">
+        <v>7.7229999999999999</v>
+      </c>
+      <c r="S82" s="20">
+        <v>6</v>
+      </c>
+      <c r="T82" s="24">
+        <v>0</v>
+      </c>
+      <c r="U82" s="24">
+        <v>0</v>
+      </c>
+      <c r="V82" s="20"/>
+      <c r="W82" s="17"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="23"/>
+      <c r="AB82" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE82" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF82" s="27"/>
-    </row>
-    <row r="83" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF82" s="19"/>
+    </row>
+    <row r="83" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>2</v>
       </c>
@@ -6905,13 +6904,13 @@
         <v>0</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
@@ -6926,10 +6925,10 @@
       <c r="P83" s="18"/>
       <c r="Q83" s="19"/>
       <c r="R83" s="20">
-        <v>7.7229999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="S83" s="20">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="T83" s="24">
         <v>0</v>
@@ -6944,74 +6943,74 @@
       <c r="Z83" s="19"/>
       <c r="AA83" s="23"/>
       <c r="AB83" s="17" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="AC83" s="19"/>
       <c r="AD83" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE83" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF83" s="19"/>
     </row>
-    <row r="84" spans="1:32" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
+    <row r="84" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="27">
         <v>2</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="S84" s="20">
-        <v>5.95</v>
-      </c>
-      <c r="T84" s="24">
-        <v>0</v>
-      </c>
-      <c r="U84" s="24">
-        <v>0</v>
-      </c>
-      <c r="V84" s="20"/>
-      <c r="W84" s="17"/>
-      <c r="X84" s="19"/>
-      <c r="Y84" s="19"/>
-      <c r="Z84" s="19"/>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC84" s="19"/>
-      <c r="AD84" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE84" s="19" t="s">
+      <c r="B84" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="30">
+        <v>7.75</v>
+      </c>
+      <c r="S84" s="30">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="T84" s="30">
+        <v>0</v>
+      </c>
+      <c r="U84" s="30">
+        <v>0</v>
+      </c>
+      <c r="V84" s="30"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE84" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF84" s="19"/>
+      <c r="AF84" s="27"/>
     </row>
     <row r="85" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
@@ -7021,13 +7020,13 @@
         <v>0</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
@@ -7042,7 +7041,7 @@
       <c r="P85" s="29"/>
       <c r="Q85" s="27"/>
       <c r="R85" s="30">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S85" s="30">
         <v>5.3330000000000002</v>
@@ -7060,74 +7059,74 @@
       <c r="Z85" s="27"/>
       <c r="AA85" s="27"/>
       <c r="AB85" s="28" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AC85" s="27"/>
       <c r="AD85" s="27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE85" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF85" s="27"/>
     </row>
-    <row r="86" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="27">
+    <row r="86" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23">
         <v>2</v>
       </c>
-      <c r="B86" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="29"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="30">
-        <v>6.6</v>
-      </c>
-      <c r="S86" s="30">
-        <v>5.3330000000000002</v>
-      </c>
-      <c r="T86" s="30">
-        <v>0</v>
-      </c>
-      <c r="U86" s="30">
-        <v>0</v>
-      </c>
-      <c r="V86" s="30"/>
-      <c r="W86" s="28"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC86" s="27"/>
-      <c r="AD86" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE86" s="27" t="s">
+      <c r="B86" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="20">
+        <v>7.75</v>
+      </c>
+      <c r="S86" s="20">
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="T86" s="24">
+        <v>0</v>
+      </c>
+      <c r="U86" s="24">
+        <v>0</v>
+      </c>
+      <c r="V86" s="20"/>
+      <c r="W86" s="17"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE86" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF86" s="27"/>
+      <c r="AF86" s="19"/>
     </row>
     <row r="87" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
@@ -7137,13 +7136,13 @@
         <v>0</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
@@ -7158,7 +7157,7 @@
       <c r="P87" s="18"/>
       <c r="Q87" s="19"/>
       <c r="R87" s="20">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S87" s="20">
         <v>4.7080000000000002</v>
@@ -7176,74 +7175,74 @@
       <c r="Z87" s="19"/>
       <c r="AA87" s="23"/>
       <c r="AB87" s="17" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE87" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF87" s="19"/>
     </row>
-    <row r="88" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23">
+    <row r="88" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="27">
         <v>2</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="S88" s="20">
-        <v>4.7080000000000002</v>
-      </c>
-      <c r="T88" s="24">
-        <v>0</v>
-      </c>
-      <c r="U88" s="24">
-        <v>0</v>
-      </c>
-      <c r="V88" s="20"/>
-      <c r="W88" s="17"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="19"/>
-      <c r="Z88" s="19"/>
-      <c r="AA88" s="23"/>
-      <c r="AB88" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC88" s="19"/>
-      <c r="AD88" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE88" s="19" t="s">
+      <c r="B88" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="30">
+        <v>7.75</v>
+      </c>
+      <c r="S88" s="30">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="T88" s="30">
+        <v>0</v>
+      </c>
+      <c r="U88" s="30">
+        <v>0</v>
+      </c>
+      <c r="V88" s="30"/>
+      <c r="W88" s="28"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE88" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF88" s="19"/>
+      <c r="AF88" s="27"/>
     </row>
     <row r="89" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
@@ -7253,13 +7252,13 @@
         <v>0</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F89" s="28"/>
       <c r="G89" s="28"/>
@@ -7274,7 +7273,7 @@
       <c r="P89" s="29"/>
       <c r="Q89" s="27"/>
       <c r="R89" s="30">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S89" s="30">
         <v>4.0830000000000002</v>
@@ -7292,74 +7291,76 @@
       <c r="Z89" s="27"/>
       <c r="AA89" s="27"/>
       <c r="AB89" s="28" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AC89" s="27"/>
       <c r="AD89" s="27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE89" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF89" s="27"/>
     </row>
-    <row r="90" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27">
+    <row r="90" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23">
         <v>2</v>
       </c>
-      <c r="B90" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="27"/>
-      <c r="R90" s="30">
-        <v>6.6</v>
-      </c>
-      <c r="S90" s="30">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="T90" s="30">
-        <v>0</v>
-      </c>
-      <c r="U90" s="30">
-        <v>0</v>
-      </c>
-      <c r="V90" s="30"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="27"/>
-      <c r="Y90" s="27"/>
-      <c r="Z90" s="27"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE90" s="27" t="s">
+      <c r="B90" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="20">
+        <v>7.75</v>
+      </c>
+      <c r="S90" s="20">
+        <v>3.375</v>
+      </c>
+      <c r="T90" s="24">
+        <v>0</v>
+      </c>
+      <c r="U90" s="24">
+        <v>0</v>
+      </c>
+      <c r="V90" s="20"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="19"/>
+      <c r="Y90" s="19"/>
+      <c r="Z90" s="19"/>
+      <c r="AA90" s="23"/>
+      <c r="AB90" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC90" s="19"/>
+      <c r="AD90" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE90" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF90" s="27"/>
+      <c r="AF90" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="91" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
@@ -7369,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
@@ -7390,7 +7391,7 @@
       <c r="P91" s="18"/>
       <c r="Q91" s="19"/>
       <c r="R91" s="20">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S91" s="20">
         <v>3.375</v>
@@ -7408,11 +7409,11 @@
       <c r="Z91" s="19"/>
       <c r="AA91" s="23"/>
       <c r="AB91" s="17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AC91" s="19"/>
       <c r="AD91" s="19" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AE91" s="19" t="s">
         <v>28</v>
@@ -7421,119 +7422,117 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>2</v>
       </c>
-      <c r="B92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="19"/>
+      <c r="B92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="23"/>
       <c r="R92" s="20">
-        <v>6.6</v>
+        <v>6.08</v>
       </c>
       <c r="S92" s="20">
-        <v>3.375</v>
+        <v>3.87</v>
       </c>
       <c r="T92" s="24">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="U92" s="24">
-        <v>0</v>
-      </c>
-      <c r="V92" s="20"/>
-      <c r="W92" s="17"/>
-      <c r="X92" s="19"/>
+        <v>0.45</v>
+      </c>
+      <c r="V92" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W92" s="21"/>
+      <c r="X92" s="23"/>
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
       <c r="AA92" s="23"/>
-      <c r="AB92" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC92" s="19"/>
-      <c r="AD92" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE92" s="19" t="s">
+      <c r="AB92" s="23"/>
+      <c r="AC92" s="23"/>
+      <c r="AD92" s="19"/>
+      <c r="AE92" s="23"/>
+      <c r="AF92" s="23"/>
+    </row>
+    <row r="93" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="27">
+        <v>2</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="30">
+        <v>7.75</v>
+      </c>
+      <c r="S93" s="30">
+        <v>2.75</v>
+      </c>
+      <c r="T93" s="30">
+        <v>0</v>
+      </c>
+      <c r="U93" s="30">
+        <v>0</v>
+      </c>
+      <c r="V93" s="30"/>
+      <c r="W93" s="28"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC93" s="27"/>
+      <c r="AD93" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE93" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF92" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23">
-        <v>2</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="23"/>
-      <c r="R93" s="20">
-        <v>6.08</v>
-      </c>
-      <c r="S93" s="20">
-        <v>3.87</v>
-      </c>
-      <c r="T93" s="24">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="U93" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="V93" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W93" s="21"/>
-      <c r="X93" s="23"/>
-      <c r="Y93" s="19"/>
-      <c r="Z93" s="19"/>
-      <c r="AA93" s="23"/>
-      <c r="AB93" s="23"/>
-      <c r="AC93" s="23"/>
-      <c r="AD93" s="19"/>
-      <c r="AE93" s="23"/>
-      <c r="AF93" s="23"/>
+      <c r="AF93" s="27"/>
     </row>
     <row r="94" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27">
@@ -7543,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="F94" s="28"/>
       <c r="G94" s="28"/>
@@ -7564,7 +7563,7 @@
       <c r="P94" s="29"/>
       <c r="Q94" s="27"/>
       <c r="R94" s="30">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S94" s="30">
         <v>2.75</v>
@@ -7582,74 +7581,74 @@
       <c r="Z94" s="27"/>
       <c r="AA94" s="27"/>
       <c r="AB94" s="28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AC94" s="27"/>
       <c r="AD94" s="27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE94" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AF94" s="27"/>
     </row>
-    <row r="95" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="27">
+    <row r="95" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23">
         <v>2</v>
       </c>
-      <c r="B95" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="28"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="27"/>
-      <c r="R95" s="30">
-        <v>6.6</v>
-      </c>
-      <c r="S95" s="30">
-        <v>2.75</v>
-      </c>
-      <c r="T95" s="30">
-        <v>0</v>
-      </c>
-      <c r="U95" s="30">
-        <v>0</v>
-      </c>
-      <c r="V95" s="30"/>
-      <c r="W95" s="28"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="27"/>
-      <c r="AA95" s="27"/>
-      <c r="AB95" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC95" s="27"/>
-      <c r="AD95" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE95" s="27" t="s">
+      <c r="B95" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="20">
+        <v>7.75</v>
+      </c>
+      <c r="S95" s="20">
+        <v>2.125</v>
+      </c>
+      <c r="T95" s="24">
+        <v>0</v>
+      </c>
+      <c r="U95" s="24">
+        <v>0</v>
+      </c>
+      <c r="V95" s="20"/>
+      <c r="W95" s="17"/>
+      <c r="X95" s="19"/>
+      <c r="Y95" s="19"/>
+      <c r="Z95" s="19"/>
+      <c r="AA95" s="23"/>
+      <c r="AB95" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC95" s="19"/>
+      <c r="AD95" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE95" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF95" s="27"/>
+      <c r="AF95" s="19"/>
     </row>
     <row r="96" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
@@ -7659,13 +7658,13 @@
         <v>0</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
@@ -7680,7 +7679,7 @@
       <c r="P96" s="18"/>
       <c r="Q96" s="19"/>
       <c r="R96" s="20">
-        <v>7.75</v>
+        <v>6.6</v>
       </c>
       <c r="S96" s="20">
         <v>2.125</v>
@@ -7698,168 +7697,168 @@
       <c r="Z96" s="19"/>
       <c r="AA96" s="23"/>
       <c r="AB96" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC96" s="19"/>
       <c r="AD96" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE96" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF96" s="19"/>
     </row>
-    <row r="97" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23">
+    <row r="97" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="27">
         <v>2</v>
       </c>
-      <c r="B97" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D97" s="17" t="s">
+      <c r="B97" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="S97" s="20">
-        <v>2.125</v>
-      </c>
-      <c r="T97" s="24">
-        <v>0</v>
-      </c>
-      <c r="U97" s="24">
-        <v>0</v>
-      </c>
-      <c r="V97" s="20"/>
-      <c r="W97" s="17"/>
-      <c r="X97" s="19"/>
-      <c r="Y97" s="19"/>
-      <c r="Z97" s="19"/>
-      <c r="AA97" s="23"/>
-      <c r="AB97" s="17" t="s">
+      <c r="E97" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="28"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="27"/>
+      <c r="R97" s="30">
+        <v>5.3</v>
+      </c>
+      <c r="S97" s="30">
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="T97" s="30">
+        <v>0</v>
+      </c>
+      <c r="U97" s="30">
+        <v>0</v>
+      </c>
+      <c r="V97" s="30"/>
+      <c r="W97" s="28"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="27"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC97" s="27"/>
+      <c r="AD97" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE97" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF97" s="27"/>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
+    </row>
+    <row r="99" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23">
+        <v>2</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="20">
+        <v>5.3879999999999999</v>
+      </c>
+      <c r="S99" s="20">
+        <v>3.427</v>
+      </c>
+      <c r="T99" s="24">
+        <v>0</v>
+      </c>
+      <c r="U99" s="24">
+        <v>0</v>
+      </c>
+      <c r="V99" s="20"/>
+      <c r="W99" s="17"/>
+      <c r="X99" s="19"/>
+      <c r="Y99" s="19"/>
+      <c r="Z99" s="19"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="AC97" s="19"/>
-      <c r="AD97" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE97" s="19" t="s">
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE99" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF97" s="19"/>
-    </row>
-    <row r="98" spans="1:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="27">
-        <v>2</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
-      <c r="N98" s="28"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="27"/>
-      <c r="R98" s="30">
-        <v>5.3</v>
-      </c>
-      <c r="S98" s="30">
-        <v>4.5030000000000001</v>
-      </c>
-      <c r="T98" s="30">
-        <v>0</v>
-      </c>
-      <c r="U98" s="30">
-        <v>0</v>
-      </c>
-      <c r="V98" s="30"/>
-      <c r="W98" s="28"/>
-      <c r="X98" s="27"/>
-      <c r="Y98" s="27"/>
-      <c r="Z98" s="27"/>
-      <c r="AA98" s="27"/>
-      <c r="AB98" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC98" s="27"/>
-      <c r="AD98" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE98" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF98" s="27"/>
-    </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="13"/>
-      <c r="U99" s="13"/>
-      <c r="V99" s="13"/>
-      <c r="W99" s="10"/>
-      <c r="X99" s="12"/>
-      <c r="Y99" s="12"/>
-      <c r="Z99" s="12"/>
-      <c r="AA99" s="12"/>
-      <c r="AB99" s="12"/>
-      <c r="AC99" s="12"/>
-      <c r="AD99" s="12"/>
-      <c r="AE99" s="12"/>
-      <c r="AF99" s="12"/>
+      <c r="AF99" s="19"/>
     </row>
     <row r="100" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
@@ -7869,13 +7868,13 @@
         <v>0</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
@@ -7890,10 +7889,10 @@
       <c r="P100" s="18"/>
       <c r="Q100" s="19"/>
       <c r="R100" s="20">
-        <v>5.3879999999999999</v>
+        <v>5.4480000000000004</v>
       </c>
       <c r="S100" s="20">
-        <v>3.427</v>
+        <v>2.677</v>
       </c>
       <c r="T100" s="24">
         <v>0</v>
@@ -7908,208 +7907,206 @@
       <c r="Z100" s="19"/>
       <c r="AA100" s="23"/>
       <c r="AB100" s="17" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AC100" s="19"/>
       <c r="AD100" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE100" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AF100" s="19"/>
     </row>
-    <row r="101" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="23">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="12"/>
+      <c r="AC101" s="12"/>
+      <c r="AD101" s="12"/>
+      <c r="AE101" s="12"/>
+      <c r="AF101" s="12"/>
+    </row>
+    <row r="102" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="23">
         <v>2</v>
       </c>
-      <c r="B101" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="20">
-        <v>5.4480000000000004</v>
-      </c>
-      <c r="S101" s="20">
-        <v>2.677</v>
-      </c>
-      <c r="T101" s="24">
-        <v>0</v>
-      </c>
-      <c r="U101" s="24">
-        <v>0</v>
-      </c>
-      <c r="V101" s="20"/>
-      <c r="W101" s="17"/>
-      <c r="X101" s="19"/>
-      <c r="Y101" s="19"/>
-      <c r="Z101" s="19"/>
-      <c r="AA101" s="23"/>
-      <c r="AB101" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC101" s="19"/>
-      <c r="AD101" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE101" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF101" s="19"/>
-    </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
-      <c r="T102" s="13"/>
-      <c r="U102" s="13"/>
-      <c r="V102" s="13"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="12"/>
-      <c r="Y102" s="12"/>
-      <c r="Z102" s="12"/>
-      <c r="AA102" s="12"/>
-      <c r="AB102" s="12"/>
-      <c r="AC102" s="12"/>
-      <c r="AD102" s="12"/>
-      <c r="AE102" s="12"/>
-      <c r="AF102" s="12"/>
-    </row>
-    <row r="103" spans="1:32" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="23">
-        <v>2</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" s="21" t="s">
+      <c r="B102" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D102" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E103" s="32" t="s">
+      <c r="E102" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F103" s="32">
+      <c r="F102" s="32">
         <v>10</v>
       </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="24">
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="22"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="24">
         <v>0.375</v>
       </c>
-      <c r="S103" s="24">
+      <c r="S102" s="24">
         <v>9.5519999999999996</v>
       </c>
-      <c r="T103" s="24">
+      <c r="T102" s="24">
         <v>1.75</v>
       </c>
-      <c r="U103" s="24">
+      <c r="U102" s="24">
         <v>0.5</v>
       </c>
-      <c r="V103" s="24"/>
-      <c r="W103" s="21"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="19"/>
-      <c r="Z103" s="19"/>
-      <c r="AA103" s="23"/>
-      <c r="AB103" s="19" t="s">
+      <c r="V102" s="24"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="23"/>
+      <c r="Y102" s="19"/>
+      <c r="Z102" s="19"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AC103" s="23"/>
-      <c r="AD103" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE103" s="19" t="s">
+      <c r="AC102" s="23"/>
+      <c r="AD102" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE102" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AF103" s="23" t="s">
+      <c r="AF102" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
-      <c r="T104" s="13"/>
-      <c r="U104" s="13"/>
-      <c r="V104" s="13"/>
-      <c r="W104" s="10"/>
-      <c r="X104" s="12"/>
-      <c r="Y104" s="12"/>
-      <c r="Z104" s="12"/>
-      <c r="AA104" s="12"/>
-      <c r="AB104" s="12"/>
-      <c r="AC104" s="12"/>
-      <c r="AD104" s="12"/>
-      <c r="AE104" s="12"/>
-      <c r="AF104" s="12"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+      <c r="U103" s="13"/>
+      <c r="V103" s="13"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12"/>
+      <c r="AC103" s="12"/>
+      <c r="AD103" s="12"/>
+      <c r="AE103" s="12"/>
+      <c r="AF103" s="12"/>
+    </row>
+    <row r="104" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="39">
+        <v>1</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="D104" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E104" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F104" s="41">
+        <v>8</v>
+      </c>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="40"/>
+      <c r="L104" s="40"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="40"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="39"/>
+      <c r="R104" s="43">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="S104" s="43">
+        <v>5</v>
+      </c>
+      <c r="T104" s="43">
+        <v>0</v>
+      </c>
+      <c r="U104" s="43">
+        <v>0</v>
+      </c>
+      <c r="V104" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="W104" s="40"/>
+      <c r="X104" s="39"/>
+      <c r="Y104" s="39"/>
+      <c r="Z104" s="39"/>
+      <c r="AA104" s="39"/>
+      <c r="AB104" s="39"/>
+      <c r="AC104" s="39"/>
+      <c r="AD104" s="39"/>
+      <c r="AE104" s="39"/>
+      <c r="AF104" s="39"/>
     </row>
     <row r="105" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
@@ -8119,13 +8116,13 @@
         <v>0</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D105" s="40" t="s">
         <v>272</v>
       </c>
       <c r="E105" s="41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F105" s="41">
         <v>8</v>
@@ -8142,7 +8139,7 @@
       <c r="P105" s="42"/>
       <c r="Q105" s="39"/>
       <c r="R105" s="43">
-        <v>4.1749999999999998</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="S105" s="43">
         <v>5</v>
@@ -8175,13 +8172,13 @@
         <v>0</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D106" s="40" t="s">
         <v>272</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F106" s="41">
         <v>8</v>
@@ -8198,13 +8195,13 @@
       <c r="P106" s="42"/>
       <c r="Q106" s="39"/>
       <c r="R106" s="43">
-        <v>5.1749999999999998</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="S106" s="43">
         <v>5</v>
       </c>
       <c r="T106" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U106" s="43">
         <v>0</v>
@@ -8224,60 +8221,58 @@
       <c r="AF106" s="39"/>
     </row>
     <row r="107" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="39">
+      <c r="A107" s="23">
         <v>1</v>
       </c>
-      <c r="B107" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="D107" s="40" t="s">
+      <c r="B107" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D107" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E107" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="F107" s="41">
+      <c r="E107" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F107" s="32">
         <v>8</v>
       </c>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="40"/>
-      <c r="M107" s="40"/>
-      <c r="N107" s="40"/>
-      <c r="O107" s="42"/>
-      <c r="P107" s="42"/>
-      <c r="Q107" s="39"/>
-      <c r="R107" s="43">
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="S107" s="43">
-        <v>5</v>
-      </c>
-      <c r="T107" s="43">
-        <v>1</v>
-      </c>
-      <c r="U107" s="43">
-        <v>0</v>
-      </c>
-      <c r="V107" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="W107" s="40"/>
-      <c r="X107" s="39"/>
-      <c r="Y107" s="39"/>
-      <c r="Z107" s="39"/>
-      <c r="AA107" s="39"/>
-      <c r="AB107" s="39"/>
-      <c r="AC107" s="39"/>
-      <c r="AD107" s="39"/>
-      <c r="AE107" s="39"/>
-      <c r="AF107" s="39"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="23"/>
+      <c r="R107" s="24">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="S107" s="24">
+        <v>4.75</v>
+      </c>
+      <c r="T107" s="24">
+        <v>0</v>
+      </c>
+      <c r="U107" s="24">
+        <v>0</v>
+      </c>
+      <c r="V107" s="24"/>
+      <c r="W107" s="21"/>
+      <c r="X107" s="23"/>
+      <c r="Y107" s="19"/>
+      <c r="Z107" s="19"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="19"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="19"/>
+      <c r="AE107" s="19"/>
+      <c r="AF107" s="23"/>
     </row>
     <row r="108" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
@@ -8287,13 +8282,13 @@
         <v>0</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D108" s="21" t="s">
         <v>272</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="F108" s="32">
         <v>8</v>
@@ -8310,7 +8305,7 @@
       <c r="P108" s="22"/>
       <c r="Q108" s="23"/>
       <c r="R108" s="24">
-        <v>4.1749999999999998</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="S108" s="24">
         <v>4.75</v>
@@ -8341,13 +8336,13 @@
         <v>0</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D109" s="21" t="s">
         <v>272</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F109" s="32">
         <v>8</v>
@@ -8364,13 +8359,13 @@
       <c r="P109" s="22"/>
       <c r="Q109" s="23"/>
       <c r="R109" s="24">
-        <v>5.1749999999999998</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="S109" s="24">
         <v>4.75</v>
       </c>
       <c r="T109" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U109" s="24">
         <v>0</v>
@@ -8388,58 +8383,60 @@
       <c r="AF109" s="23"/>
     </row>
     <row r="110" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="23">
+      <c r="A110" s="39">
         <v>1</v>
       </c>
-      <c r="B110" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="D110" s="21" t="s">
+      <c r="B110" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D110" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="E110" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="F110" s="32">
+      <c r="E110" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F110" s="41">
         <v>8</v>
       </c>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
-      <c r="M110" s="21"/>
-      <c r="N110" s="21"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="23"/>
-      <c r="R110" s="24">
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="S110" s="24">
-        <v>4.75</v>
-      </c>
-      <c r="T110" s="24">
-        <v>1</v>
-      </c>
-      <c r="U110" s="24">
-        <v>0</v>
-      </c>
-      <c r="V110" s="24"/>
-      <c r="W110" s="21"/>
-      <c r="X110" s="23"/>
-      <c r="Y110" s="19"/>
-      <c r="Z110" s="19"/>
-      <c r="AA110" s="23"/>
-      <c r="AB110" s="19"/>
-      <c r="AC110" s="23"/>
-      <c r="AD110" s="19"/>
-      <c r="AE110" s="19"/>
-      <c r="AF110" s="23"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="40"/>
+      <c r="O110" s="42"/>
+      <c r="P110" s="42"/>
+      <c r="Q110" s="39"/>
+      <c r="R110" s="43">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="S110" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="T110" s="43">
+        <v>0</v>
+      </c>
+      <c r="U110" s="43">
+        <v>0</v>
+      </c>
+      <c r="V110" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="W110" s="40"/>
+      <c r="X110" s="39"/>
+      <c r="Y110" s="39"/>
+      <c r="Z110" s="39"/>
+      <c r="AA110" s="39"/>
+      <c r="AB110" s="39"/>
+      <c r="AC110" s="39"/>
+      <c r="AD110" s="39"/>
+      <c r="AE110" s="39"/>
+      <c r="AF110" s="39"/>
     </row>
     <row r="111" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
@@ -8449,13 +8446,13 @@
         <v>0</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D111" s="40" t="s">
         <v>272</v>
       </c>
       <c r="E111" s="41" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="F111" s="41">
         <v>8</v>
@@ -8472,7 +8469,7 @@
       <c r="P111" s="42"/>
       <c r="Q111" s="39"/>
       <c r="R111" s="43">
-        <v>4.1749999999999998</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="S111" s="43">
         <v>4.5</v>
@@ -8505,13 +8502,13 @@
         <v>0</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D112" s="40" t="s">
         <v>272</v>
       </c>
       <c r="E112" s="41" t="s">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="F112" s="41">
         <v>8</v>
@@ -8528,13 +8525,13 @@
       <c r="P112" s="42"/>
       <c r="Q112" s="39"/>
       <c r="R112" s="43">
-        <v>5.1749999999999998</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="S112" s="43">
         <v>4.5</v>
       </c>
       <c r="T112" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U112" s="43">
         <v>0</v>
@@ -8552,62 +8549,6 @@
       <c r="AD112" s="39"/>
       <c r="AE112" s="39"/>
       <c r="AF112" s="39"/>
-    </row>
-    <row r="113" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="39">
-        <v>1</v>
-      </c>
-      <c r="B113" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="D113" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="E113" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F113" s="41">
-        <v>8</v>
-      </c>
-      <c r="G113" s="40"/>
-      <c r="H113" s="40"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="40"/>
-      <c r="K113" s="40"/>
-      <c r="L113" s="40"/>
-      <c r="M113" s="40"/>
-      <c r="N113" s="40"/>
-      <c r="O113" s="42"/>
-      <c r="P113" s="42"/>
-      <c r="Q113" s="39"/>
-      <c r="R113" s="43">
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="S113" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="T113" s="43">
-        <v>1</v>
-      </c>
-      <c r="U113" s="43">
-        <v>0</v>
-      </c>
-      <c r="V113" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="W113" s="40"/>
-      <c r="X113" s="39"/>
-      <c r="Y113" s="39"/>
-      <c r="Z113" s="39"/>
-      <c r="AA113" s="39"/>
-      <c r="AB113" s="39"/>
-      <c r="AC113" s="39"/>
-      <c r="AD113" s="39"/>
-      <c r="AE113" s="39"/>
-      <c r="AF113" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8620,37 +8561,37 @@
           <x14:formula1>
             <xm:f>Tables!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>V114:V144</xm:sqref>
+          <xm:sqref>V113:V143</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{84DDF0C9-6F1B-446E-8995-2373E65B88E2}">
           <x14:formula1>
             <xm:f>Tables!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>Z2:Z113 AE2:AE113</xm:sqref>
+          <xm:sqref>AE2:AE112 Z2:Z112</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7E235E07-1A6D-41FA-8E32-72A730AFA7A4}">
           <x14:formula1>
             <xm:f>Tables!$E$2:$E$16</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F113</xm:sqref>
+          <xm:sqref>F2:F112</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{CB9126B2-6946-4B52-89A3-562F1BE6DC4E}">
           <x14:formula1>
             <xm:f>Tables!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>AA2:AA113 AF2:AF113 V2:V113</xm:sqref>
+          <xm:sqref>V2:V112 AF2:AF112 AA2:AA112</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{D07B0AA9-91AB-4733-9EAB-5035421C071A}">
           <x14:formula1>
             <xm:f>Tables!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>Y2:Y113 AD2:AD113</xm:sqref>
+          <xm:sqref>AD2:AD112 Y2:Y112</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{000CBC19-A464-4694-A3AD-9D82A1CE6A27}">
           <x14:formula1>
             <xm:f>Tables!$I$2:$I$46</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D113</xm:sqref>
+          <xm:sqref>D2:D112</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9026,10 +8967,10 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1" s="42" t="s">
         <v>300</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9050,7 +8991,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I3" s="47" t="s">
         <v>112</v>
@@ -9067,10 +9008,10 @@
         <v>221</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9084,7 +9025,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I5" s="47" t="s">
         <v>5</v>
@@ -9101,7 +9042,7 @@
         <v>222</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I6" s="47" t="s">
         <v>7</v>
@@ -9115,7 +9056,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9148,7 +9089,7 @@
         <v>175</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9170,7 +9111,7 @@
         <v>224</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9178,7 +9119,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -9194,7 +9135,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -9207,17 +9148,17 @@
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="47" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="47" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="47" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
@@ -9227,12 +9168,12 @@
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="47" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" s="47" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.25">
@@ -9247,7 +9188,7 @@
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I25" s="47" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.25">
@@ -9262,7 +9203,7 @@
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I28" s="47" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.25">
@@ -9287,17 +9228,17 @@
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I33" s="47" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" s="47" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I35" s="47" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.25">
@@ -9307,12 +9248,12 @@
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I37" s="47" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I38" s="47" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.25">
@@ -9327,12 +9268,12 @@
     </row>
     <row r="41" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I41" s="47" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I42" s="47" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="9:10" x14ac:dyDescent="0.25">
@@ -9352,10 +9293,10 @@
     </row>
     <row r="46" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I46" s="15" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J46" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ScriptData/Advocate_ArchitectData.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33951E34-AE72-4E66-B74F-E8F593D9B86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2486663E-B2A1-4847-B027-3EE9EA8A377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20310" yWindow="1635" windowWidth="26505" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27630" yWindow="1170" windowWidth="26505" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="327">
   <si>
     <t>Shape</t>
   </si>
@@ -1227,13 +1227,19 @@
     <t>Title_Advocate</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
     <t>Using a Visio Template that contains standard Stencils</t>
   </si>
   <si>
     <t>Account Custom Stencil</t>
+  </si>
+  <si>
+    <t>CustomerService</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>NetworkPipe3</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1825,6 +1831,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1870,7 +1887,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2034,6 +2051,9 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2394,7 +2414,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,7 +2598,7 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -2628,7 +2648,7 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -8589,7 +8609,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{000CBC19-A464-4694-A3AD-9D82A1CE6A27}">
           <x14:formula1>
-            <xm:f>Tables!$I$2:$I$46</xm:f>
+            <xm:f>Tables!$I$2:$I$48</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D112</xm:sqref>
         </x14:dataValidation>
@@ -8939,10 +8959,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0736EE8-23D0-4513-9563-3C6A65BAEEB4}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9088,8 +9108,8 @@
       <c r="E10" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="I10" s="47" t="s">
-        <v>317</v>
+      <c r="I10" s="64" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9100,7 +9120,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>18</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9111,7 +9131,7 @@
         <v>224</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9119,7 +9139,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -9127,7 +9147,7 @@
         <v>225</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>3</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9135,168 +9155,175 @@
         <v>14</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>305</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="I16" s="47" t="s">
-        <v>87</v>
+      <c r="I16" s="64" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="47" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="47" t="s">
-        <v>320</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="47" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="47" t="s">
-        <v>89</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" s="47" t="s">
-        <v>308</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" s="47" t="s">
-        <v>34</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I24" s="47" t="s">
-        <v>1</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I25" s="47" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I26" s="47" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I27" s="47" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I28" s="47" t="s">
-        <v>310</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="47" t="s">
-        <v>4</v>
+      <c r="I29" s="64" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I30" s="47" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I31" s="47" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I32" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="47" t="s">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="47" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="47" t="s">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="47" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I35" s="47" t="s">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I36" s="47" t="s">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="47" t="s">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="47" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="47" t="s">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="47" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I39" s="47" t="s">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="47" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I40" s="47" t="s">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I41" s="47" t="s">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="47" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I42" s="47" t="s">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="47" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I43" s="47" t="s">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I44" s="47" t="s">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="47" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I45" s="47" t="s">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="47" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I46" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="J46" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
